--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -72,6 +72,18 @@
   </si>
   <si>
     <t>60.0000</t>
+  </si>
+  <si>
+    <t>FORTAZEDIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>118.0000</t>
   </si>
   <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
@@ -849,7 +861,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -858,14 +870,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -882,7 +894,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -891,14 +903,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -937,53 +949,86 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>283.87</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>37</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
         <v>38</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
         <v>39</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
         <v>40</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>401.87</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>42</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>43</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>44</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1022,10 +1067,15 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -137,7 +137,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 10:59 AM</t>
+    <t>Thursday, 29 May, 2025 11:14 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>118.0000</t>
   </si>
   <si>
+    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -122,22 +134,34 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>Thursday, 29 May, 2025 11:14 AM</t>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>Thursday, 29 May, 2025 12:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -894,7 +918,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -903,14 +927,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -927,7 +951,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -936,14 +960,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -982,53 +1006,152 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>401.87</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>41</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
         <v>42</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
         <v>43</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
         <v>44</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>46</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>26</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>43</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>47</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>49</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>26</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>43</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>44</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>550.87</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>50</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>51</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>52</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1072,10 +1195,25 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
     <t>FORTAZEDIM 1 GM VIAL</t>
   </si>
   <si>
@@ -86,12 +98,21 @@
     <t>118.0000</t>
   </si>
   <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>109.00</t>
   </si>
   <si>
@@ -110,9 +131,6 @@
     <t>12.8700</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
   </si>
   <si>
@@ -161,7 +179,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 12:14 PM</t>
+    <t>Thursday, 29 May, 2025 12:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -885,7 +903,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -918,7 +936,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -934,7 +952,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -944,14 +962,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>32</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -960,14 +978,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -977,11 +995,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -993,14 +1011,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1010,14 +1028,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1026,28 +1044,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1059,31 +1077,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1092,66 +1110,132 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>550.87</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>52</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>22</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>49</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>53</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>55</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>22</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>49</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
         <v>50</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
         <v>51</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
-        <v>52</v>
-      </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>766.59000000000003</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>56</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>57</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>58</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1210,10 +1294,20 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -44,22 +44,46 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
     <t>10:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>43.00</t>
   </si>
   <si>
     <t>43.0000</t>
   </si>
   <si>
-    <t>1:0</t>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
   </si>
   <si>
     <t>CONCOR COR 2.5MG 30 TABLETS</t>
@@ -119,6 +143,12 @@
     <t>109.0000</t>
   </si>
   <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -131,6 +161,15 @@
     <t>12.8700</t>
   </si>
   <si>
+    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
   </si>
   <si>
@@ -143,9 +182,6 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>96.00</t>
   </si>
   <si>
@@ -155,18 +191,9 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>19:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -179,7 +206,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 12:22 PM</t>
+    <t>Thursday, 29 May, 2025 12:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -936,7 +963,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -952,7 +979,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -962,14 +989,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -985,7 +1012,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -995,14 +1022,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1011,14 +1038,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1035,7 +1062,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1044,14 +1071,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1061,11 +1088,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1077,14 +1104,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1094,11 +1121,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1110,31 +1137,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1143,31 +1170,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1176,66 +1203,198 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>766.59000000000003</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
         <v>56</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>12</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>13</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
         <v>57</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
         <v>58</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c t="s" r="Q19" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>59</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>22</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>60</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>14</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>61</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>30</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>60</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>62</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>64</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>30</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>60</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>14</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>896.59000000000003</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>65</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>66</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>67</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1304,10 +1463,30 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -47,150 +47,156 @@
     <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
   </si>
   <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>CONCOR COR 2.5MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
+    <t>FORTAZEDIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>118.0000</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
     <t>19:0</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>CONCOR COR 2.5MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>188.00</t>
-  </si>
-  <si>
-    <t>188.0000</t>
-  </si>
-  <si>
-    <t>FORTAZEDIM 1 GM VIAL</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>118.0000</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>109.00</t>
-  </si>
-  <si>
-    <t>109.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -206,7 +212,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 12:28 PM</t>
+    <t>Thursday, 29 May, 2025 1:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1177,7 +1183,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1243,7 +1249,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1253,11 +1259,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1269,20 +1275,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1302,7 +1308,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1315,18 +1321,18 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1335,7 +1341,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1348,7 +1354,7 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1370,7 +1376,7 @@
     </row>
     <row r="24" ht="16.5" customHeight="1">
       <c t="s" r="A24" s="14">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -1378,13 +1384,13 @@
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c t="s" r="G24" s="15">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
       <c r="J24" s="16"/>
       <c t="s" r="K24" s="17">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -47,7 +47,7 @@
     <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
   </si>
   <si>
-    <t>7:0</t>
+    <t>6:0</t>
   </si>
   <si>
     <t>1</t>
@@ -77,7 +77,7 @@
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
-    <t>20:0</t>
+    <t>19:0</t>
   </si>
   <si>
     <t>31.00</t>
@@ -146,7 +146,16 @@
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
-    <t>5:0</t>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>PANTOPI 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
   </si>
   <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
@@ -161,6 +170,18 @@
     <t>12.8700</t>
   </si>
   <si>
+    <t>T4-THYRO 50 MCG 100 TABS.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
   </si>
   <si>
@@ -182,9 +203,6 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>96.00</t>
   </si>
   <si>
@@ -194,9 +212,6 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>19:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -207,6 +222,18 @@
   </si>
   <si>
     <t>12.0000</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -1150,7 +1177,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1160,11 +1187,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>40</v>
@@ -1176,14 +1203,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1216,7 +1243,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1226,11 +1253,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1242,14 +1269,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1266,7 +1293,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1282,21 +1309,21 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1315,13 +1342,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1332,7 +1359,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1348,13 +1375,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1369,38 +1396,137 @@
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>896.59000000000003</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>68</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>30</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
         <v>67</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
-        <v>68</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
         <v>69</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>71</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>72</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>67</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>73</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>75</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>30</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>67</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>14</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>1017.59</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>76</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>77</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>78</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1489,10 +1615,25 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -47,171 +47,177 @@
     <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
   </si>
   <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>CONCOR COR 2.5MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
+    <t>FORTAZEDIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>118.0000</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>PANTOPI 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>T4-THYRO 50 MCG 100 TABS.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
     <t>19:0</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>CONCOR COR 2.5MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>188.00</t>
-  </si>
-  <si>
-    <t>188.0000</t>
-  </si>
-  <si>
-    <t>FORTAZEDIM 1 GM VIAL</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>118.0000</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>109.00</t>
-  </si>
-  <si>
-    <t>109.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>PANTOPI 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>T4-THYRO 50 MCG 100 TABS.</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -227,7 +233,7 @@
     <t>صوفي طويل جدا</t>
   </si>
   <si>
-    <t>15:0</t>
+    <t>16:0</t>
   </si>
   <si>
     <t>55.00</t>
@@ -239,7 +245,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 1:04 PM</t>
+    <t>Thursday, 29 May, 2025 1:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1177,7 +1183,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1276,7 +1282,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1342,7 +1348,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1352,11 +1358,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1368,20 +1374,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1401,7 +1407,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1414,18 +1420,18 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1434,28 +1440,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1467,7 +1473,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1480,7 +1486,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1502,7 +1508,7 @@
     </row>
     <row r="27" ht="16.5" customHeight="1">
       <c t="s" r="A27" s="14">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -1510,13 +1516,13 @@
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c t="s" r="G27" s="15">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
       <c r="J27" s="16"/>
       <c t="s" r="K27" s="17">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L27" s="17"/>
       <c r="M27" s="17"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -47,7 +47,7 @@
     <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
   </si>
   <si>
-    <t>7:0</t>
+    <t>6:0</t>
   </si>
   <si>
     <t>1</t>
@@ -77,7 +77,7 @@
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
-    <t>20:0</t>
+    <t>19:0</t>
   </si>
   <si>
     <t>31.00</t>
@@ -146,7 +146,7 @@
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
-    <t>5:0</t>
+    <t>4:0</t>
   </si>
   <si>
     <t>PANTOPI 40MG 14 TAB</t>
@@ -173,7 +173,7 @@
     <t>T4-THYRO 50 MCG 100 TABS.</t>
   </si>
   <si>
-    <t>4:0</t>
+    <t>3:0</t>
   </si>
   <si>
     <t>41.00</t>
@@ -203,9 +203,6 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>96.00</t>
   </si>
   <si>
@@ -215,9 +212,6 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>19:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -233,7 +227,7 @@
     <t>صوفي طويل جدا</t>
   </si>
   <si>
-    <t>16:0</t>
+    <t>15:0</t>
   </si>
   <si>
     <t>55.00</t>
@@ -245,7 +239,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 1:05 PM</t>
+    <t>Thursday, 29 May, 2025 1:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1183,7 +1177,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1282,7 +1276,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1348,7 +1342,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1358,11 +1352,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1374,20 +1368,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1407,7 +1401,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1420,18 +1414,18 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1440,28 +1434,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1473,7 +1467,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1486,7 +1480,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1508,7 +1502,7 @@
     </row>
     <row r="27" ht="16.5" customHeight="1">
       <c t="s" r="A27" s="14">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -1516,13 +1510,13 @@
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c t="s" r="G27" s="15">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
       <c r="J27" s="16"/>
       <c t="s" r="K27" s="17">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L27" s="17"/>
       <c r="M27" s="17"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -209,12 +209,18 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>ايفا كريم 170 جم</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>ايفا كريم 20 جم</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -239,7 +245,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 1:13 PM</t>
+    <t>Thursday, 29 May, 2025 1:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1375,7 +1381,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1385,11 +1391,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1418,14 +1424,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1434,14 +1440,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1451,11 +1457,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1467,7 +1473,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1484,49 +1490,115 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>73</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>74</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>67</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>75</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>77</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>30</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>67</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>14</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q25" s="12">
+      <c t="s" r="Q27" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>1017.59</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
-        <v>76</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
-        <v>77</v>
-      </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>1092.5899999999999</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
         <v>78</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>79</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>80</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1630,10 +1702,20 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -245,7 +245,10 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 1:32 PM</t>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 29 May, 2025 1:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1560,21 +1563,21 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
       <c r="P28" s="13">
-        <v>1092.5899999999999</v>
+        <v>1107.5899999999999</v>
       </c>
       <c r="Q28" s="13"/>
     </row>
     <row r="29" ht="16.5" customHeight="1">
       <c t="s" r="A29" s="14">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -1582,13 +1585,13 @@
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c t="s" r="G29" s="15">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
       <c r="J29" s="16"/>
       <c t="s" r="K29" s="17">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -110,6 +110,18 @@
     <t>188.0000</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>FORTAZEDIM 1 GM VIAL</t>
   </si>
   <si>
@@ -227,7 +239,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>12.0000</t>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>9:0</t>
   </si>
   <si>
     <t>صوفي طويل جدا</t>
@@ -248,7 +263,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 1:35 PM</t>
+    <t>Thursday, 29 May, 2025 1:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1071,7 +1086,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1087,7 +1102,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1097,14 +1112,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1120,7 +1135,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1137,7 +1152,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1146,14 +1161,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1163,11 +1178,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1179,14 +1194,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1196,14 +1211,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1212,14 +1227,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1236,7 +1251,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1269,7 +1284,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1285,7 +1300,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1295,14 +1310,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1311,14 +1326,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1328,14 +1343,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1344,14 +1359,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1361,11 +1376,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1377,28 +1392,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1410,28 +1425,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1443,20 +1458,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1476,31 +1491,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1509,20 +1524,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1533,7 +1548,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1542,66 +1557,99 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>1107.5899999999999</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
-        <v>79</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
-        <v>80</v>
-      </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
-        <v>81</v>
-      </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>82</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>30</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>71</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>14</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>1198.5899999999999</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>84</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>85</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>86</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1715,10 +1763,15 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -146,6 +146,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
   </si>
   <si>
@@ -188,12 +197,6 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
     <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
   </si>
   <si>
@@ -260,10 +263,10 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>Thursday, 29 May, 2025 1:55 PM</t>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 29 May, 2025 1:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1168,7 +1171,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1201,7 +1204,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1211,11 +1214,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1227,14 +1230,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1244,14 +1247,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1267,7 +1270,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1277,11 +1280,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>44</v>
@@ -1293,14 +1296,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1310,14 +1313,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1326,14 +1329,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1343,14 +1346,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1359,14 +1362,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1376,14 +1379,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1392,14 +1395,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1409,11 +1412,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1425,28 +1428,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1458,28 +1461,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1498,13 +1501,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1531,24 +1534,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1557,31 +1560,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1590,66 +1593,99 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
         <v>83</v>
       </c>
-      <c t="s" r="Q28" s="12">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>1198.5899999999999</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>30</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>72</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>14</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
         <v>84</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
+      <c t="s" r="Q29" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>1254.5899999999999</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
         <v>85</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
         <v>86</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>87</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1768,10 +1804,15 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -110,6 +110,30 @@
     <t>188.0000</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -143,9 +167,6 @@
     <t>27.7200</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
   </si>
   <si>
@@ -242,10 +263,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>9:0</t>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>11:0</t>
   </si>
   <si>
     <t>صوفي طويل جدا</t>
@@ -266,7 +287,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 1:58 PM</t>
+    <t>Thursday, 29 May, 2025 2:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1089,7 +1110,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1122,7 +1143,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1138,7 +1159,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1148,14 +1169,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1171,7 +1192,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1181,14 +1202,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1197,14 +1218,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1214,14 +1235,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1230,14 +1251,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1247,11 +1268,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1263,7 +1284,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1280,14 +1301,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1296,14 +1317,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1313,14 +1334,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1336,7 +1357,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1346,14 +1367,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1362,14 +1383,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1379,14 +1400,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1395,14 +1416,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1412,11 +1433,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1428,14 +1449,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1445,14 +1466,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1461,28 +1482,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1494,28 +1515,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1527,28 +1548,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1560,7 +1581,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1573,18 +1594,18 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1593,28 +1614,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1626,7 +1647,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1639,53 +1660,119 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>1254.5899999999999</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
-        <v>85</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
         <v>86</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
         <v>87</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>79</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>88</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>90</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>30</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>79</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>14</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1317.4949999999999</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>92</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>93</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>94</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1809,10 +1896,20 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -257,6 +257,18 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>48:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -269,6 +281,15 @@
     <t>11:0</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -287,7 +308,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 2:01 PM</t>
+    <t>Thursday, 29 May, 2025 2:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1654,7 +1675,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1664,14 +1685,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>85</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1687,7 +1708,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1697,14 +1718,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>89</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1730,49 +1751,115 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>93</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>94</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>79</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>95</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>97</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>30</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>79</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>14</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>68</v>
       </c>
     </row>
-    <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1317.4949999999999</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
-        <v>92</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
-        <v>93</v>
-      </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
-        <v>94</v>
-      </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>1363.4949999999999</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>99</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>100</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>101</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1906,10 +1993,20 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -257,6 +257,12 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -290,6 +296,15 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>47:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -308,7 +323,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 2:13 PM</t>
+    <t>Thursday, 29 May, 2025 2:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1642,7 +1657,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1656,10 +1671,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1668,14 +1683,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1685,11 +1700,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>46</v>
@@ -1701,7 +1716,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1718,14 +1733,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1734,7 +1749,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1751,11 +1766,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>46</v>
@@ -1767,14 +1782,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1784,11 +1799,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1800,14 +1815,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1817,49 +1832,82 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>102</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>30</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>79</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>14</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>68</v>
       </c>
     </row>
-    <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>1363.4949999999999</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
-        <v>99</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
-        <v>100</v>
-      </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
-        <v>101</v>
-      </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1384.4949999999999</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>104</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>105</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>106</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2003,10 +2051,15 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -323,7 +323,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 2:15 PM</t>
+    <t>Thursday, 29 May, 2025 2:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -323,7 +323,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 2:22 PM</t>
+    <t>Thursday, 29 May, 2025 2:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -146,6 +146,18 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>FORTAZEDIM 1 GM VIAL</t>
   </si>
   <si>
@@ -185,6 +197,15 @@
     <t>109.0000</t>
   </si>
   <si>
+    <t>NACTALIA 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>230.0000</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -323,7 +344,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 2:35 PM</t>
+    <t>Thursday, 29 May, 2025 2:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1245,7 +1266,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1261,7 +1282,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1271,14 +1292,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1287,14 +1308,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1304,14 +1325,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1320,14 +1341,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1337,11 +1358,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1353,14 +1374,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1370,11 +1391,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1386,7 +1407,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1403,14 +1424,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1419,14 +1440,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1436,14 +1457,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1459,7 +1480,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1469,14 +1490,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1485,14 +1506,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1502,11 +1523,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>34</v>
@@ -1518,14 +1539,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1535,11 +1556,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1551,14 +1572,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1568,14 +1589,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1584,28 +1605,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1617,28 +1638,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1650,31 +1671,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1683,31 +1704,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1723,24 +1744,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>91</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1749,20 +1770,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1773,7 +1794,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1789,24 +1810,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1815,20 +1836,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1839,7 +1860,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1855,59 +1876,125 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1384.4949999999999</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
-        <v>104</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>105</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
         <v>106</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>86</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>107</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>109</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>30</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>86</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>14</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1662.4949999999999</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>111</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>112</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>113</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2056,10 +2143,20 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -98,12 +98,24 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>188.00</t>
   </si>
   <si>
@@ -113,9 +125,6 @@
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>142.50</t>
   </si>
   <si>
@@ -158,6 +167,18 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>FORTAZEDIM 1 GM VIAL</t>
   </si>
   <si>
@@ -212,15 +233,12 @@
     <t>4:0</t>
   </si>
   <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>PANTOPI 40MG 14 TAB</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -344,7 +362,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 2:37 PM</t>
+    <t>Thursday, 29 May, 2025 5:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1134,7 +1152,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1143,14 +1161,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1167,7 +1185,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1183,7 +1201,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1193,14 +1211,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1209,14 +1227,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1226,14 +1244,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1242,14 +1260,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1259,11 +1277,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1275,14 +1293,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1292,14 +1310,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1308,14 +1326,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1332,7 +1350,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1348,7 +1366,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1358,14 +1376,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1374,14 +1392,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1391,14 +1409,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1407,14 +1425,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1424,11 +1442,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1440,14 +1458,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1457,11 +1475,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1473,7 +1491,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1490,14 +1508,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1506,14 +1524,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1523,14 +1541,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1546,7 +1564,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1556,11 +1574,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1572,14 +1590,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1589,14 +1607,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1605,14 +1623,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1622,14 +1640,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1638,14 +1656,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1655,11 +1673,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1671,31 +1689,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1704,28 +1722,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1744,24 +1762,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1777,24 +1795,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1803,7 +1821,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1816,18 +1834,18 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1836,31 +1854,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1869,31 +1887,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1902,31 +1920,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1935,7 +1953,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1948,53 +1966,152 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>108</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>109</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>92</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
         <v>110</v>
       </c>
-      <c t="s" r="Q36" s="12">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1662.4949999999999</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>111</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
         <v>112</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>92</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
         <v>113</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>115</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>30</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>92</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>14</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1735.4949999999999</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>117</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>118</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>119</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2153,10 +2270,25 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -179,12 +179,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>FLAVICEF 100MG/5ML PD. FOR ORAL SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>FORTAZEDIM 1 GM VIAL</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>59.00</t>
   </si>
   <si>
@@ -209,6 +212,18 @@
     <t>41.0000</t>
   </si>
   <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
   </si>
   <si>
@@ -230,9 +245,6 @@
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -275,6 +287,18 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8714:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -317,9 +341,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>22.0000</t>
   </si>
   <si>
@@ -359,10 +380,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>Thursday, 29 May, 2025 5:40 PM</t>
+    <t>Thursday, 29 May, 2025 5:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1376,14 +1394,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1392,14 +1410,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1409,14 +1427,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1425,14 +1443,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1442,14 +1460,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1458,14 +1476,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1475,11 +1493,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1491,14 +1509,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1508,11 +1526,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1524,14 +1542,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1541,11 +1559,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1564,7 +1582,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1574,11 +1592,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1590,14 +1608,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1607,14 +1625,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1623,14 +1641,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1640,14 +1658,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1656,14 +1674,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1673,14 +1691,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1689,14 +1707,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1706,11 +1724,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>33</v>
@@ -1722,14 +1740,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1739,11 +1757,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1755,14 +1773,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1772,14 +1790,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1788,28 +1806,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1821,28 +1839,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1854,31 +1872,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1887,31 +1905,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1933,18 +1951,18 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1953,28 +1971,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>57</v>
@@ -1986,31 +2004,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2019,31 +2037,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2052,7 +2070,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2065,53 +2083,152 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>115</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
         <v>116</v>
       </c>
-      <c t="s" r="Q39" s="12">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1735.4949999999999</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>100</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
         <v>117</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>118</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
         <v>119</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>100</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>120</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>122</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>30</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>100</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>14</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1825.4949999999999</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>123</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>124</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>125</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2285,10 +2402,25 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -155,6 +155,18 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>DEVAROL-S 200000 I.U AMPOULE</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -182,9 +194,6 @@
     <t>FLAVICEF 100MG/5ML PD. FOR ORAL SUSP. 30ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>FORTAZEDIM 1 GM VIAL</t>
   </si>
   <si>
@@ -242,6 +251,18 @@
     <t>230.0000</t>
   </si>
   <si>
+    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>128.0000</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -251,6 +272,15 @@
     <t>PANTOPI 40MG 14 TAB</t>
   </si>
   <si>
+    <t>SIDERAL FOLIC 20 ORODISPERSIBLE STICKS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -377,10 +407,22 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>فرشه اسنان دكتور فريش كبار</t>
+  </si>
+  <si>
+    <t>-2:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 5:43 PM</t>
+    <t>معجون كلوز اب اخضر الكبير</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>Thursday, 29 May, 2025 5:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1394,11 +1436,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1410,14 +1452,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1427,14 +1469,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1450,7 +1492,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1467,7 +1509,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1483,7 +1525,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1500,7 +1542,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1516,7 +1558,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1526,11 +1568,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1542,14 +1584,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1615,7 +1657,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1625,11 +1667,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1641,14 +1683,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1658,11 +1700,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1674,14 +1716,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1691,14 +1733,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1707,14 +1749,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1724,14 +1766,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1740,14 +1782,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1757,14 +1799,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1773,14 +1815,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1790,14 +1832,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1806,14 +1848,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1823,14 +1865,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1839,14 +1881,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1856,11 +1898,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1879,7 +1921,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1896,7 +1938,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1912,21 +1954,21 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1938,28 +1980,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1971,31 +2013,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2004,31 +2046,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2037,7 +2079,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2050,18 +2092,18 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2077,24 +2119,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2116,7 +2158,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2124,10 +2166,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2136,31 +2178,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>121</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2182,53 +2224,218 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>85</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1825.4949999999999</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
-        <v>123</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>125</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>126</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>110</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>127</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
         <v>124</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
-        <v>125</v>
-      </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>128</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>129</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>110</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>130</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>132</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>133</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>110</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>14</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>134</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>30</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>110</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>14</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>135</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>136</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>110</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>130</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>2282.4949999999999</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>137</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>138</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>139</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2417,10 +2624,35 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -410,7 +410,7 @@
     <t>فرشه اسنان دكتور فريش كبار</t>
   </si>
   <si>
-    <t>-2:0</t>
+    <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -422,7 +422,7 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 5:46 PM</t>
+    <t>Thursday, 29 May, 2025 6:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2317,7 +2317,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2331,10 +2331,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2343,14 +2343,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2376,14 +2376,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2393,49 +2393,82 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>135</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>136</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>110</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>130</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
         <v>131</v>
       </c>
-      <c t="s" r="Q47" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
         <v>2282.4949999999999</v>
       </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
         <v>137</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
         <v>138</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
         <v>139</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2649,10 +2682,15 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -167,6 +167,18 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>DIASMECT 3GM 10 SACHETS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>2.1000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -191,6 +203,18 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>FLAVICEF 100MG/5ML PD. FOR ORAL SUSP. 30ML</t>
   </si>
   <si>
@@ -368,6 +392,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -380,9 +413,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>6.0000</t>
   </si>
   <si>
@@ -422,7 +452,7 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 6:05 PM</t>
+    <t>Thursday, 29 May, 2025 6:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1410,7 +1440,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1459,7 +1489,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1469,11 +1499,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1485,14 +1515,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1502,14 +1532,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1518,14 +1548,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1535,14 +1565,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1551,14 +1581,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1568,14 +1598,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1584,14 +1614,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1601,14 +1631,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1617,14 +1647,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1634,11 +1664,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1650,14 +1680,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1667,11 +1697,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1683,14 +1713,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1700,11 +1730,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1716,14 +1746,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1733,11 +1763,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1749,14 +1779,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1766,11 +1796,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1782,14 +1812,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1799,14 +1829,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1815,14 +1845,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1832,11 +1862,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1848,14 +1878,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1865,11 +1895,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>33</v>
@@ -1881,14 +1911,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1898,11 +1928,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1914,14 +1944,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1931,11 +1961,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>33</v>
@@ -1947,14 +1977,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1964,11 +1994,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1980,14 +2010,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1997,14 +2027,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2013,14 +2043,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2030,11 +2060,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2046,28 +2076,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2079,28 +2109,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2112,31 +2142,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2145,31 +2175,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2178,31 +2208,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>121</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2211,28 +2241,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>49</v>
@@ -2244,28 +2274,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2277,31 +2307,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2310,31 +2340,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2343,31 +2373,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2376,31 +2406,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2409,66 +2439,165 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>2282.4949999999999</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
-        <v>137</v>
-      </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
-        <v>138</v>
-      </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
-        <v>139</v>
-      </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>143</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>18</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>118</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>14</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>144</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>30</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>118</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>14</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>145</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>146</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>118</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>140</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>2313.5949999999998</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>147</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>148</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>149</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2687,10 +2816,25 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -62,6 +62,15 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -380,6 +389,12 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 5سم</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -416,6 +431,18 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">شاش 7 سم </t>
   </si>
   <si>
@@ -428,9 +455,6 @@
     <t>صوفي طويل جدا</t>
   </si>
   <si>
-    <t>15:0</t>
-  </si>
-  <si>
     <t>55.00</t>
   </si>
   <si>
@@ -449,10 +473,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>Thursday, 29 May, 2025 6:33 PM</t>
+    <t>Thursday, 29 May, 2025 6:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1126,7 +1147,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1136,11 +1157,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -1152,14 +1173,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1169,11 +1190,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -1185,14 +1206,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1202,11 +1223,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1218,14 +1239,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1235,14 +1256,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1251,14 +1272,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1268,14 +1289,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>36</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1308,7 +1329,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1324,7 +1345,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1334,14 +1355,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1350,14 +1371,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1367,14 +1388,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1383,14 +1404,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1400,11 +1421,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1416,14 +1437,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1433,14 +1454,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1449,14 +1470,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1466,14 +1487,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1482,14 +1503,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1499,11 +1520,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1515,14 +1536,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1532,11 +1553,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1548,14 +1569,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1565,11 +1586,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1581,14 +1602,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1598,14 +1619,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1621,7 +1642,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1638,7 +1659,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1654,7 +1675,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1671,7 +1692,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1687,7 +1708,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1697,11 +1718,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1713,14 +1734,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1753,7 +1774,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1786,7 +1807,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1796,11 +1817,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1812,14 +1833,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1829,11 +1850,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1845,14 +1866,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1862,11 +1883,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1878,14 +1899,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1895,14 +1916,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1911,14 +1932,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1928,14 +1949,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1951,7 +1972,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1961,14 +1982,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1977,14 +1998,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1994,14 +2015,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2010,14 +2031,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2027,14 +2048,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2050,7 +2071,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2067,7 +2088,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2083,7 +2104,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2093,11 +2114,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2109,14 +2130,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2149,21 +2170,21 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2175,28 +2196,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2208,20 +2229,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2229,10 +2250,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2254,18 +2275,18 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2274,28 +2295,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2307,31 +2328,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>132</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2340,31 +2361,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2380,24 +2401,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>136</v>
+        <v>33</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2413,24 +2434,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2439,28 +2460,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2472,31 +2493,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2505,31 +2526,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2538,66 +2559,165 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>2313.5949999999998</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
-        <v>147</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>151</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>21</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>121</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>14</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>152</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>33</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>121</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>14</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>153</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>127</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>121</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
         <v>148</v>
       </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
         <v>149</v>
       </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>2453.5949999999998</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>154</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>155</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>156</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2831,10 +2951,25 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -473,7 +473,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 6:35 PM</t>
+    <t>Thursday, 29 May, 2025 6:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -83,6 +83,15 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -413,7 +422,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -473,7 +482,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 6:43 PM</t>
+    <t>Thursday, 29 May, 2025 7:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1213,7 +1222,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1223,11 +1232,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1239,14 +1248,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1256,11 +1265,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1272,14 +1281,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1289,14 +1298,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1305,14 +1314,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1322,14 +1331,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>39</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1362,7 +1371,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1378,7 +1387,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1388,14 +1397,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1404,14 +1413,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1421,14 +1430,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1437,14 +1446,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1454,11 +1463,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1470,14 +1479,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1487,14 +1496,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1503,14 +1512,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1520,14 +1529,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1536,14 +1545,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1553,11 +1562,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1569,14 +1578,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1586,11 +1595,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1602,14 +1611,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1619,11 +1628,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1635,14 +1644,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1652,14 +1661,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1675,7 +1684,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1692,7 +1701,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1708,7 +1717,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1725,7 +1734,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1741,7 +1750,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1751,11 +1760,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1767,14 +1776,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1807,7 +1816,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1840,7 +1849,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1850,11 +1859,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1866,14 +1875,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1883,11 +1892,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1899,14 +1908,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1916,11 +1925,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1932,14 +1941,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1949,14 +1958,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1965,14 +1974,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1982,14 +1991,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2005,7 +2014,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2015,14 +2024,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2031,14 +2040,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2048,14 +2057,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2064,14 +2073,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2081,14 +2090,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2104,7 +2113,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2121,7 +2130,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2137,7 +2146,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2147,11 +2156,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2163,14 +2172,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2203,21 +2212,21 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2229,28 +2238,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2262,20 +2271,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2283,10 +2292,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2308,18 +2317,18 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2328,31 +2337,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2361,20 +2370,20 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2385,7 +2394,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2401,24 +2410,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2434,24 +2443,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>52</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2460,31 +2469,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2493,28 +2502,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2533,21 +2542,21 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2566,21 +2575,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2592,20 +2601,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2613,10 +2622,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2625,20 +2634,20 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2646,10 +2655,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2658,66 +2667,99 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>2453.5949999999998</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
-        <v>154</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
-        <v>155</v>
-      </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
         <v>156</v>
       </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>130</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>124</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>151</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>2472.5949999999998</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>157</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>158</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>159</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2966,10 +3008,15 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -482,7 +482,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 7:02 PM</t>
+    <t>Thursday, 29 May, 2025 7:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -104,6 +104,21 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>CLOZAPEX 25MG 50 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CONCOR COR 2.5MG 30 TABLETS</t>
   </si>
   <si>
@@ -122,15 +137,9 @@
     <t>0:0</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
     <t>25.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
   </si>
   <si>
@@ -284,6 +293,15 @@
     <t>109.0000</t>
   </si>
   <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t>NACTALIA 2 MILK 400 GM</t>
   </si>
   <si>
@@ -329,10 +347,10 @@
     <t>0:2</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>12.8700</t>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.0000</t>
   </si>
   <si>
     <t>T4-THYRO 50 MCG 100 TABS.</t>
@@ -422,16 +440,10 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>9.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>11:0</t>
+    <t>12:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1305,7 +1317,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1314,14 +1326,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1331,14 +1343,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1354,7 +1366,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1364,14 +1376,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1387,7 +1399,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1404,7 +1416,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1420,7 +1432,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1430,14 +1442,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1446,14 +1458,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1463,14 +1475,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1479,14 +1491,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1496,11 +1508,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1512,14 +1524,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1529,14 +1541,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1545,14 +1557,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1562,14 +1574,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1578,14 +1590,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1595,11 +1607,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1611,14 +1623,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1628,11 +1640,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1644,14 +1656,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1661,11 +1673,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1677,14 +1689,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1694,14 +1706,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1717,7 +1729,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1734,7 +1746,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1750,7 +1762,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1767,7 +1779,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1783,7 +1795,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1793,11 +1805,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1809,14 +1821,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1849,7 +1861,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1882,7 +1894,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1892,14 +1904,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1908,14 +1920,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1925,11 +1937,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1941,14 +1953,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1958,11 +1970,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1974,14 +1986,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1991,14 +2003,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2007,14 +2019,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2024,11 +2036,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2040,14 +2052,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2057,14 +2069,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2073,14 +2085,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2090,11 +2102,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2113,7 +2125,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2123,14 +2135,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2139,14 +2151,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2156,11 +2168,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2172,14 +2184,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2189,11 +2201,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2205,14 +2217,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2222,14 +2234,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2238,28 +2250,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2271,28 +2283,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2311,24 +2323,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2344,21 +2356,21 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2377,24 +2389,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2403,31 +2415,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>109</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2436,31 +2448,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>140</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2469,31 +2481,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2502,31 +2514,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2535,31 +2547,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2568,31 +2580,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2601,28 +2613,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2634,31 +2646,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2667,31 +2679,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>36</v>
+        <v>148</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2700,66 +2712,165 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>2472.5949999999998</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
-        <v>157</v>
-      </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
         <v>158</v>
       </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>21</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>130</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>14</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
         <v>159</v>
       </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>41</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>130</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>14</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>160</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>136</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>130</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>155</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>2524.4650000000001</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
+        <v>161</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>162</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>163</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3013,10 +3124,25 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -161,39 +161,48 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>5:3</t>
+    <t>5:1</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DEVAROL-S 200000 I.U AMPOULE</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
     <t>11.8800</t>
   </si>
   <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>DEVAROL-S 200000 I.U AMPOULE</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
     <t>DIASMECT 3GM 10 SACHETS</t>
   </si>
   <si>
@@ -221,9 +230,6 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>5:1</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -329,6 +335,15 @@
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>PANTOPI 40MG 14 TAB</t>
   </si>
   <si>
@@ -443,36 +458,39 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>12:0</t>
+    <t>13:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>47:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
     <t>6.0000</t>
   </si>
   <si>
-    <t>شاش 15 سم</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>47:0</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -494,7 +512,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 7:07 PM</t>
+    <t>Thursday, 29 May, 2025 7:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1482,7 +1500,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1491,14 +1509,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1508,11 +1526,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1524,14 +1542,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1541,11 +1559,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1557,14 +1575,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1574,11 +1592,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>35</v>
@@ -1590,14 +1608,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1607,14 +1625,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1623,14 +1641,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1640,11 +1658,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1656,14 +1674,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1673,11 +1691,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1689,14 +1707,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1706,11 +1724,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1722,14 +1740,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1739,14 +1757,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1755,14 +1773,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1772,14 +1790,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1788,14 +1806,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1805,14 +1823,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1821,14 +1839,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1838,11 +1856,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1854,14 +1872,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1871,11 +1889,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1887,14 +1905,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1904,14 +1922,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1920,14 +1938,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1937,14 +1955,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1953,14 +1971,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1970,11 +1988,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1986,14 +2004,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2003,11 +2021,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2019,14 +2037,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2036,11 +2054,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2052,14 +2070,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2069,14 +2087,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2085,14 +2103,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2102,14 +2120,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2118,14 +2136,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2135,11 +2153,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>35</v>
@@ -2168,11 +2186,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2184,14 +2202,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2201,14 +2219,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2217,14 +2235,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2234,14 +2252,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2257,7 +2275,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2267,11 +2285,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2283,14 +2301,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2300,14 +2318,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2316,14 +2334,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2333,11 +2351,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2349,28 +2367,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2389,21 +2407,21 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2415,31 +2433,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2448,28 +2466,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2494,18 +2512,18 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2514,31 +2532,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>136</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2547,31 +2565,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>144</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2580,7 +2598,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2593,18 +2611,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>58</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2613,31 +2631,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2646,31 +2664,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2679,28 +2697,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2712,28 +2730,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2745,31 +2763,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>90</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2778,20 +2796,20 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2799,10 +2817,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2811,66 +2829,132 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>2524.4650000000001</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>165</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>41</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>135</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>14</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>166</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>141</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>135</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
         <v>161</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
         <v>162</v>
       </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
-        <v>163</v>
-      </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>2588.105</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>167</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>168</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>169</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3139,10 +3223,20 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -239,225 +239,240 @@
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
-    <t>7:0</t>
+    <t>5:0</t>
   </si>
   <si>
     <t>26.00</t>
   </si>
   <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>FLAVICEF 100MG/5ML PD. FOR ORAL SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>FORTAZEDIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>118.0000</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>NACTALIA 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>230.0000</t>
+  </si>
+  <si>
+    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>128.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>PANTOPI 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>SIDERAL FOLIC 20 ORODISPERSIBLE STICKS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>T4-THYRO 50 MCG 100 TABS.</t>
+  </si>
+  <si>
+    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8714:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>ايفا كريم 170 جم</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>ايفا كريم 20 جم</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 5سم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>48:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
     <t>26.0000</t>
   </si>
   <si>
-    <t>FLAVICEF 100MG/5ML PD. FOR ORAL SUSP. 30ML</t>
-  </si>
-  <si>
-    <t>FORTAZEDIM 1 GM VIAL</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>118.0000</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>109.00</t>
-  </si>
-  <si>
-    <t>109.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>NACTALIA 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>230.00</t>
-  </si>
-  <si>
-    <t>230.0000</t>
-  </si>
-  <si>
-    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>128.00</t>
-  </si>
-  <si>
-    <t>128.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>PANTOPI 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>SIDERAL FOLIC 20 ORODISPERSIBLE STICKS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>T4-THYRO 50 MCG 100 TABS.</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8714:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>ايفا كريم 170 جم</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>ايفا كريم 20 جم</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 5سم</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>48:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
     <t>13:0</t>
   </si>
   <si>
@@ -512,7 +527,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 7:24 PM</t>
+    <t>Thursday, 29 May, 2025 7:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1731,7 +1746,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1740,7 +1755,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1773,7 +1788,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1790,11 +1805,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>59</v>
@@ -1806,7 +1821,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1823,11 +1838,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>35</v>
@@ -1839,7 +1854,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1856,11 +1871,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1872,14 +1887,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1889,11 +1904,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1905,7 +1920,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1922,11 +1937,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1938,7 +1953,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1955,11 +1970,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>35</v>
@@ -1971,7 +1986,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1988,11 +2003,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2004,14 +2019,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2021,11 +2036,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2037,14 +2052,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2070,14 +2085,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2087,14 +2102,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2103,14 +2118,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2120,14 +2135,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2136,14 +2151,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2153,11 +2168,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>35</v>
@@ -2169,7 +2184,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2186,14 +2201,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2202,14 +2217,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2219,14 +2234,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2235,14 +2250,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2252,14 +2267,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2268,14 +2283,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2285,11 +2300,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2301,14 +2316,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2318,14 +2333,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2334,14 +2349,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2351,14 +2366,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2367,14 +2382,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2407,7 +2422,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2417,11 +2432,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2433,28 +2448,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2466,28 +2481,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2499,20 +2514,20 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2520,10 +2535,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2532,31 +2547,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2565,31 +2580,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2598,20 +2613,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2619,10 +2634,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>141</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2631,7 +2646,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2644,18 +2659,18 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>149</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2664,7 +2679,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2677,18 +2692,18 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>120</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2697,31 +2712,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2730,28 +2745,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2763,28 +2778,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2796,28 +2811,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2829,20 +2844,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2850,10 +2865,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2862,20 +2877,20 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -2883,10 +2898,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>120</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2895,66 +2910,99 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>2588.105</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>171</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>76</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>139</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>166</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
         <v>167</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
-        <v>168</v>
-      </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
-        <v>169</v>
-      </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>2647.105</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>172</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>173</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>174</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3233,10 +3281,15 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -527,7 +527,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 7:26 PM</t>
+    <t>Thursday, 29 May, 2025 7:27 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -464,7 +464,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>18.0000</t>
+    <t>7:0</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -2667,10 +2667,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q52" s="12">
         <v>151</v>
-      </c>
-      <c t="s" r="Q52" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2972,7 +2972,7 @@
     </row>
     <row r="62" ht="25.5" customHeight="1">
       <c r="P62" s="13">
-        <v>2647.105</v>
+        <v>2650.105</v>
       </c>
       <c r="Q62" s="13"/>
     </row>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -527,7 +527,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 7:27 PM</t>
+    <t>Thursday, 29 May, 2025 7:40 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -527,7 +527,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 7:40 PM</t>
+    <t>Thursday, 29 May, 2025 7:41 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -218,13 +218,13 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>4:2</t>
+    <t>3:2</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>48.0000</t>
+    <t>96.0000</t>
   </si>
   <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
@@ -356,7 +356,10 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>23.0000</t>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>PANTOPI 40MG 14 TAB</t>
@@ -374,9 +377,6 @@
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -404,6 +404,15 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>VERSERC 24MG 30 TAB</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -422,9 +431,6 @@
     <t>96.00</t>
   </si>
   <si>
-    <t>96.0000</t>
-  </si>
-  <si>
     <t>ايفا كريم 170 جم</t>
   </si>
   <si>
@@ -527,7 +533,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 7:41 PM</t>
+    <t>Thursday, 29 May, 2025 8:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1680,7 +1686,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2158,7 +2164,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2175,7 +2181,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>35</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2184,7 +2190,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2217,7 +2223,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2234,11 +2240,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2250,14 +2256,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2422,7 +2428,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2432,14 +2438,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2448,14 +2454,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2488,21 +2494,21 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2521,21 +2527,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2547,20 +2553,20 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2568,10 +2574,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2580,31 +2586,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2613,31 +2619,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2646,31 +2652,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>151</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2679,7 +2685,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2692,18 +2698,18 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q53" s="12">
         <v>153</v>
-      </c>
-      <c t="s" r="Q53" s="12">
-        <v>154</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2712,7 +2718,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2725,18 +2731,18 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>156</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>79</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2752,24 +2758,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>158</v>
+        <v>41</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2778,28 +2784,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2811,28 +2817,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2844,28 +2850,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2877,20 +2883,20 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -2898,10 +2904,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2910,20 +2916,20 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -2943,66 +2949,99 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>2650.105</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
-        <v>172</v>
-      </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
         <v>173</v>
       </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>76</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>141</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>168</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>2760.7049999999999</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
         <v>174</v>
       </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>175</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>176</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3286,10 +3325,15 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -272,6 +272,15 @@
     <t>27.7200</t>
   </si>
   <si>
+    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>303.00</t>
+  </si>
+  <si>
+    <t>99.9900</t>
+  </si>
+  <si>
     <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
   </si>
   <si>
@@ -281,6 +290,15 @@
     <t>41.0000</t>
   </si>
   <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
@@ -533,7 +551,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 8:20 PM</t>
+    <t>Thursday, 29 May, 2025 8:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1867,7 +1885,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1884,7 +1902,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1900,7 +1918,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1910,11 +1928,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1926,7 +1944,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1943,11 +1961,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1959,14 +1977,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1983,7 +2001,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2032,7 +2050,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2042,14 +2060,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2058,14 +2076,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2075,11 +2093,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2091,14 +2109,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2108,14 +2126,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2124,14 +2142,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2141,11 +2159,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2157,14 +2175,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2174,14 +2192,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>116</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2190,14 +2208,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2207,14 +2225,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2223,14 +2241,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2240,14 +2258,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2256,14 +2274,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2273,11 +2291,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>35</v>
@@ -2289,7 +2307,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2306,11 +2324,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2322,14 +2340,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2339,14 +2357,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2355,14 +2373,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2372,14 +2390,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2388,14 +2406,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2405,11 +2423,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2428,7 +2446,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2461,7 +2479,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2471,11 +2489,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2487,14 +2505,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2504,14 +2522,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2527,21 +2545,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2553,28 +2571,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2586,31 +2604,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2619,28 +2637,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2652,28 +2670,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>59</v>
@@ -2685,31 +2703,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>153</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2718,31 +2736,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>156</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2764,18 +2782,18 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>79</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2784,31 +2802,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q56" s="12">
         <v>162</v>
-      </c>
-      <c t="s" r="Q56" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2824,24 +2842,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2850,28 +2868,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2883,28 +2901,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2916,31 +2934,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2949,20 +2967,20 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -2970,10 +2988,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2982,66 +3000,132 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>2760.7049999999999</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>178</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>41</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>147</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>14</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>179</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>76</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>147</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
         <v>174</v>
       </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
         <v>175</v>
       </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
-        <v>176</v>
-      </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>2916.6950000000002</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>180</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>181</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>182</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3330,10 +3414,20 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -62,6 +62,33 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>BIVATRACIN 150MG POWDER SPRAY</t>
   </si>
   <si>
@@ -116,7 +143,13 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>0:1</t>
+    <t>COBAL F 500/200MCG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
   </si>
   <si>
     <t>CONCOR COR 2.5MG 30 TABLETS</t>
@@ -167,9 +200,6 @@
     <t>36.00</t>
   </si>
   <si>
-    <t>35.6400</t>
-  </si>
-  <si>
     <t>0:3</t>
   </si>
   <si>
@@ -188,9 +218,6 @@
     <t>DEVAROL-S 200000 I.U AMPOULE</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>34.00</t>
   </si>
   <si>
@@ -227,6 +254,15 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>386.00</t>
+  </si>
+  <si>
+    <t>127.3800</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -377,9 +413,6 @@
     <t>46.0000</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>PANTOPI 40MG 14 TAB</t>
   </si>
   <si>
@@ -425,9 +458,6 @@
     <t>VERSERC 24MG 30 TAB</t>
   </si>
   <si>
-    <t>120.00</t>
-  </si>
-  <si>
     <t>39.6000</t>
   </si>
   <si>
@@ -494,10 +524,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>13:0</t>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>25:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -551,7 +581,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 8:27 PM</t>
+    <t>Thursday, 29 May, 2025 8:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1225,7 +1255,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1235,14 +1265,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1251,14 +1281,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1268,11 +1298,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -1284,14 +1314,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1301,11 +1331,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1317,14 +1347,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1334,11 +1364,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1350,14 +1380,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1367,14 +1397,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1433,14 +1463,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1449,14 +1479,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1466,14 +1496,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1482,14 +1512,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1499,14 +1529,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1515,14 +1545,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1532,14 +1562,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1555,7 +1585,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1565,11 +1595,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1581,14 +1611,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1598,14 +1628,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1614,14 +1644,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1631,14 +1661,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>63</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>35</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1671,7 +1701,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1687,7 +1717,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1697,14 +1727,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1713,14 +1743,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1730,14 +1760,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1746,14 +1776,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1763,14 +1793,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1779,14 +1809,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1796,14 +1826,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1819,7 +1849,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1836,7 +1866,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1852,7 +1882,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1869,7 +1899,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1885,7 +1915,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1895,14 +1925,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>35</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1911,14 +1941,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1928,11 +1958,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1951,7 +1981,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1968,7 +1998,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1984,7 +2014,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1994,14 +2024,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2010,14 +2040,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2027,14 +2057,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2043,14 +2073,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2060,14 +2090,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2076,14 +2106,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2093,11 +2123,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2109,14 +2139,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2126,11 +2156,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2142,14 +2172,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2159,11 +2189,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2175,14 +2205,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2199,7 +2229,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2215,7 +2245,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2225,11 +2255,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2241,14 +2271,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2258,14 +2288,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>122</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2274,14 +2304,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2291,14 +2321,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2307,14 +2337,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2324,14 +2354,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2340,14 +2370,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2357,14 +2387,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2373,7 +2403,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2390,14 +2420,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2406,14 +2436,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2423,14 +2453,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2439,14 +2469,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2456,14 +2486,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2472,14 +2502,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2489,14 +2519,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2505,14 +2535,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2522,14 +2552,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2538,14 +2568,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2555,11 +2585,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2571,14 +2601,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2588,14 +2618,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2604,28 +2634,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2644,24 +2674,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2670,31 +2700,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2703,28 +2733,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2736,31 +2766,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>49</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2769,31 +2799,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>159</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2802,31 +2832,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>162</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2835,31 +2865,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2868,31 +2898,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2901,31 +2931,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2934,31 +2964,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2967,31 +2997,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3000,31 +3030,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3033,31 +3063,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3066,66 +3096,198 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>2916.6950000000002</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
-        <v>180</v>
-      </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
-        <v>181</v>
-      </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
-        <v>182</v>
-      </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>186</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>16</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>157</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>14</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>187</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>30</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>157</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>14</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>188</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>52</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>157</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>14</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>189</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>88</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>157</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>184</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>3254.4050000000002</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>190</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>191</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>192</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3424,10 +3586,30 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -74,9 +86,6 @@
     <t>30.6900</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>BECOZYME I.M./I.V. 12 AMP</t>
   </si>
   <si>
@@ -290,6 +299,15 @@
     <t>FLAVICEF 100MG/5ML PD. FOR ORAL SUSP. 30ML</t>
   </si>
   <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>FORTAZEDIM 1 GM VIAL</t>
   </si>
   <si>
@@ -473,6 +491,15 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t>XANTHISTOP 80 MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>48.5100</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -581,7 +608,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 8:34 PM</t>
+    <t>Thursday, 29 May, 2025 8:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1255,7 +1282,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1265,14 +1292,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1281,14 +1308,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1298,14 +1325,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1314,14 +1341,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1354,7 +1381,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1364,11 +1391,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1380,14 +1407,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1420,7 +1447,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1430,11 +1457,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1446,14 +1473,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1463,14 +1490,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1479,14 +1506,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1503,7 +1530,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1519,7 +1546,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1529,14 +1556,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1545,14 +1572,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1562,14 +1589,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1585,7 +1612,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1595,14 +1622,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1618,7 +1645,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1635,7 +1662,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1651,7 +1678,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1661,14 +1688,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1677,14 +1704,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1694,14 +1721,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1710,14 +1737,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1750,7 +1777,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1760,14 +1787,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1776,14 +1803,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1793,14 +1820,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1809,14 +1836,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1826,14 +1853,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1842,14 +1869,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1866,7 +1893,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1882,7 +1909,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1899,7 +1926,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1915,7 +1942,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1925,14 +1952,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1941,14 +1968,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1958,14 +1985,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1974,14 +2001,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1991,14 +2018,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2014,7 +2041,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2031,7 +2058,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2047,7 +2074,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2064,7 +2091,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2080,7 +2107,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2097,7 +2124,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2113,7 +2140,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2130,7 +2157,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2146,7 +2173,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2156,11 +2183,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2172,14 +2199,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2189,11 +2216,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2205,14 +2232,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2229,7 +2256,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2245,7 +2272,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2278,7 +2305,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2288,14 +2315,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2304,14 +2331,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2321,11 +2348,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2337,14 +2364,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2354,14 +2381,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2370,14 +2397,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2387,11 +2414,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2403,14 +2430,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2420,14 +2447,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2436,14 +2463,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2453,14 +2480,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2469,14 +2496,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2486,14 +2513,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2502,14 +2529,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2519,14 +2546,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2535,14 +2562,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2552,11 +2579,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2568,14 +2595,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2585,14 +2612,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2601,14 +2628,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2618,14 +2645,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2634,14 +2661,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2651,11 +2678,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2674,7 +2701,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2684,14 +2711,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2700,14 +2727,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2740,7 +2767,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2750,14 +2777,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2773,21 +2800,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2799,31 +2826,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2832,31 +2859,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2865,28 +2892,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2898,31 +2925,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2931,31 +2958,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>169</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2964,31 +2991,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2997,31 +3024,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>91</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3030,20 +3057,20 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>176</v>
+        <v>55</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3051,10 +3078,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q62" s="12">
         <v>178</v>
-      </c>
-      <c t="s" r="Q62" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3070,24 +3097,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3096,31 +3123,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>176</v>
+        <v>55</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3129,28 +3156,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3162,31 +3189,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>30</v>
+        <v>189</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3195,31 +3222,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>52</v>
+        <v>185</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3228,66 +3255,165 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>184</v>
+        <v>14</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>3254.4050000000002</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
-        <v>190</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
-        <v>191</v>
-      </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
-        <v>192</v>
-      </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>196</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>33</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>166</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>14</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>197</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>55</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>166</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>14</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>198</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>91</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>166</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>193</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>3368.2550000000001</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>199</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>200</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>201</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3606,10 +3732,25 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -365,6 +365,12 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
   </si>
   <si>
@@ -443,6 +449,18 @@
     <t>180.0000</t>
   </si>
   <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -452,6 +470,15 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
     <t>T4-THYRO 50 MCG 100 TABS.</t>
   </si>
   <si>
@@ -545,7 +572,10 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>7:0</t>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>9:0</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -608,7 +638,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 8:36 PM</t>
+    <t>Thursday, 29 May, 2025 8:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2272,7 +2302,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2282,14 +2312,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2298,14 +2328,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2315,14 +2345,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2331,14 +2361,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2348,14 +2378,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2364,14 +2394,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2381,11 +2411,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2397,14 +2427,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2414,11 +2444,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2430,14 +2460,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2447,14 +2477,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2463,14 +2493,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2480,14 +2510,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2496,14 +2526,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2513,14 +2543,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2529,14 +2559,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2546,14 +2576,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2562,7 +2592,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2579,14 +2609,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2595,14 +2625,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2612,14 +2642,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2628,14 +2658,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2645,14 +2675,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2661,14 +2691,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2678,14 +2708,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2694,14 +2724,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2711,14 +2741,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2727,14 +2757,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2744,14 +2774,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2760,14 +2790,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2777,14 +2807,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2793,14 +2823,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2817,7 +2847,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2833,7 +2863,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2850,7 +2880,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2866,7 +2896,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2876,14 +2906,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2899,21 +2929,21 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2925,31 +2955,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2958,31 +2988,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2991,28 +3021,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3024,31 +3054,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>173</v>
+        <v>55</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3057,31 +3087,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>178</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3090,31 +3120,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>181</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3123,31 +3153,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>55</v>
+        <v>182</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>94</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3156,20 +3186,20 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>185</v>
+        <v>55</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3180,7 +3210,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3189,31 +3219,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>189</v>
+        <v>55</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q66" s="12">
         <v>191</v>
-      </c>
-      <c t="s" r="Q66" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3229,24 +3259,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>185</v>
+        <v>55</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3255,28 +3285,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>14</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>15</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3288,31 +3318,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>117</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3321,31 +3351,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>55</v>
+        <v>195</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>117</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3354,66 +3384,165 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>194</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>3368.2550000000001</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
-        <v>199</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
-        <v>200</v>
-      </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
-        <v>201</v>
-      </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>206</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>33</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>175</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>14</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>207</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>55</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>175</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>14</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>208</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>91</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>175</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>203</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>3460.8800000000001</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
+        <v>209</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>210</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>211</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3747,10 +3876,25 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -182,6 +182,18 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
   </si>
   <si>
@@ -356,204 +368,207 @@
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>NACTALIA 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>230.0000</t>
+  </si>
+  <si>
+    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>128.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>45.00</t>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>PANTOPI 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>SIDERAL FOLIC 20 ORODISPERSIBLE STICKS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
+    <t>T4-THYRO 50 MCG 100 TABS.</t>
+  </si>
+  <si>
+    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>VERSERC 24MG 30 TAB</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8714:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>XANTHISTOP 80 MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>48.5100</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>ايفا كريم 170 جم</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>ايفا كريم 20 جم</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 5سم</t>
   </si>
   <si>
     <t>45.0000</t>
   </si>
   <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>109.00</t>
-  </si>
-  <si>
-    <t>109.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>NACTALIA 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>230.00</t>
-  </si>
-  <si>
-    <t>230.0000</t>
-  </si>
-  <si>
-    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>128.00</t>
-  </si>
-  <si>
-    <t>128.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>7:3</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>PANTOPI 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>SIDERAL FOLIC 20 ORODISPERSIBLE STICKS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>45.0450</t>
-  </si>
-  <si>
-    <t>T4-THYRO 50 MCG 100 TABS.</t>
-  </si>
-  <si>
-    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>VERSERC 24MG 30 TAB</t>
-  </si>
-  <si>
-    <t>39.6000</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8714:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>XANTHISTOP 80 MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>147.00</t>
-  </si>
-  <si>
-    <t>48.5100</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>ايفا كريم 170 جم</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>ايفا كريم 20 جم</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 5سم</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -596,9 +611,6 @@
     <t>شاش 15 سم</t>
   </si>
   <si>
-    <t>15:0</t>
-  </si>
-  <si>
     <t>12.00</t>
   </si>
   <si>
@@ -638,7 +650,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 8:38 PM</t>
+    <t>Thursday, 29 May, 2025 8:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1675,7 +1687,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1685,11 +1697,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1701,14 +1713,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1718,14 +1730,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1734,14 +1746,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1755,10 +1767,10 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1788,10 +1800,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>70</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1807,7 +1819,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1817,11 +1829,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1833,7 +1845,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1850,14 +1862,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1866,14 +1878,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1883,7 +1895,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -1923,7 +1935,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1939,7 +1951,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1949,14 +1961,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1965,14 +1977,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1982,14 +1994,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1998,14 +2010,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2022,7 +2034,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2031,14 +2043,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2048,14 +2060,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2064,14 +2076,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2081,14 +2093,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2097,14 +2109,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2114,14 +2126,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2130,14 +2142,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2147,14 +2159,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2163,7 +2175,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2180,11 +2192,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2196,14 +2208,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2213,14 +2225,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2229,14 +2241,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2246,11 +2258,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2262,14 +2274,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2302,7 +2314,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2312,14 +2324,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2328,14 +2340,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2345,14 +2357,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2368,7 +2380,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2385,7 +2397,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2401,7 +2413,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2418,7 +2430,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2434,7 +2446,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2444,11 +2456,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2460,14 +2472,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2477,11 +2489,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2493,14 +2505,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2510,14 +2522,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2533,7 +2545,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2543,14 +2555,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2559,14 +2571,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2576,14 +2588,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2592,14 +2604,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2609,14 +2621,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2625,7 +2637,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2642,14 +2654,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2658,14 +2670,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2682,7 +2694,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2698,7 +2710,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2708,11 +2720,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -2724,14 +2736,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2741,14 +2753,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2757,14 +2769,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2774,14 +2786,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2790,14 +2802,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2807,14 +2819,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>110</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2823,14 +2835,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2840,14 +2852,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2856,14 +2868,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2873,14 +2885,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2889,7 +2901,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2906,14 +2918,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2922,14 +2934,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2939,14 +2951,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2962,7 +2974,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2972,14 +2984,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2988,14 +3000,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3005,14 +3017,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3021,28 +3033,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>52</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3054,28 +3066,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3087,20 +3099,20 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>178</v>
+        <v>55</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3108,10 +3120,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3120,31 +3132,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3153,31 +3165,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>182</v>
+        <v>95</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3186,31 +3198,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>188</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3219,7 +3231,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3232,18 +3244,18 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3252,7 +3264,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3265,18 +3277,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>94</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3285,31 +3297,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>195</v>
+        <v>55</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3318,20 +3330,20 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>199</v>
+        <v>58</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3358,21 +3370,21 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3384,28 +3396,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>15</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3417,20 +3429,20 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3438,10 +3450,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3450,20 +3462,20 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3471,10 +3483,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>117</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3483,66 +3495,99 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>203</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>3460.8800000000001</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
-        <v>209</v>
-      </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
-        <v>210</v>
-      </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
-        <v>211</v>
-      </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>212</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>95</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>179</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>207</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>208</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>3538.8800000000001</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>213</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>214</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>215</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3891,10 +3936,15 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -107,6 +107,15 @@
     <t>83.0000</t>
   </si>
   <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -164,9 +173,6 @@
     <t>CONCOR COR 2.5MG 30 TABLETS</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -203,6 +209,18 @@
     <t>188.0000</t>
   </si>
   <si>
+    <t>COXORIZET CAPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
+    <t>82.1700</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -263,6 +281,15 @@
     <t>2.1000</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -284,6 +311,15 @@
     <t>127.3800</t>
   </si>
   <si>
+    <t>ESMOPUMP 40 MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>172.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -320,15 +356,6 @@
     <t>28.7100</t>
   </si>
   <si>
-    <t>FORTAZEDIM 1 GM VIAL</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>118.0000</t>
-  </si>
-  <si>
     <t>GAST-REG 200 MG 30 TABS.</t>
   </si>
   <si>
@@ -506,9 +533,6 @@
     <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
   </si>
   <si>
-    <t>70.00</t>
-  </si>
-  <si>
     <t>70.0000</t>
   </si>
   <si>
@@ -548,9 +572,6 @@
     <t>ايفا كريم 170 جم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>ايفا كريم 20 جم</t>
   </si>
   <si>
@@ -596,10 +617,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>25:0</t>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>26:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -650,7 +671,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 8:42 PM</t>
+    <t>Thursday, 29 May, 2025 8:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1466,14 +1487,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1482,14 +1503,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1522,7 +1543,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1532,11 +1553,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1548,14 +1569,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1565,14 +1586,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1581,14 +1602,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1605,7 +1626,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1621,7 +1642,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1631,14 +1652,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1647,14 +1668,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1664,14 +1685,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1680,14 +1701,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1697,14 +1718,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1713,14 +1734,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1730,11 +1751,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1746,14 +1767,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1763,14 +1784,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1779,31 +1800,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1812,14 +1833,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1829,14 +1850,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1845,14 +1866,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1862,14 +1883,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1878,14 +1899,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1895,14 +1916,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1911,14 +1932,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1935,7 +1956,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1951,7 +1972,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1961,14 +1982,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1977,14 +1998,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1994,11 +2015,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -2010,14 +2031,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2027,14 +2048,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2043,14 +2064,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2060,14 +2081,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>98</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2076,14 +2097,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2093,14 +2114,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2116,7 +2137,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2149,7 +2170,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2166,7 +2187,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2182,7 +2203,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2192,14 +2213,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2208,14 +2229,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2225,14 +2246,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2248,7 +2269,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2265,7 +2286,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2281,7 +2302,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2298,7 +2319,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2314,7 +2335,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2331,7 +2352,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2347,7 +2368,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2357,14 +2378,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2373,14 +2394,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2390,11 +2411,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2406,14 +2427,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2423,14 +2444,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2439,14 +2460,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2456,14 +2477,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2479,7 +2500,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2489,11 +2510,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2505,14 +2526,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2522,14 +2543,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2545,7 +2566,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2555,14 +2576,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2571,14 +2592,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2588,11 +2609,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2604,14 +2625,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2621,14 +2642,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2637,14 +2658,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>55</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2654,11 +2675,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2670,14 +2691,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2687,11 +2708,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2703,14 +2724,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2720,14 +2741,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2736,14 +2757,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2753,11 +2774,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2769,14 +2790,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2786,11 +2807,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2802,14 +2823,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2819,11 +2840,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2835,14 +2856,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2852,14 +2873,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2868,14 +2889,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2885,14 +2906,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2901,14 +2922,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2918,14 +2939,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2934,14 +2955,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2951,14 +2972,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2967,14 +2988,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2991,7 +3012,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3007,7 +3028,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3017,14 +3038,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>91</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3033,14 +3054,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3050,14 +3071,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3066,28 +3087,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>52</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>53</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3099,31 +3120,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3132,31 +3153,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3165,28 +3186,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3198,31 +3219,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3231,31 +3252,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>55</v>
+        <v>189</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>14</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>193</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3264,31 +3285,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>196</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3297,31 +3318,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>55</v>
+        <v>194</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>98</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3330,31 +3351,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3363,31 +3384,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>57</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3396,31 +3417,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3429,28 +3450,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>15</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3462,31 +3483,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3495,31 +3516,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3528,66 +3549,165 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>3538.8800000000001</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
-        <v>213</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>217</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>36</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>67</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>14</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>218</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>57</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>67</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>14</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>219</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>107</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>67</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
         <v>214</v>
       </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
         <v>215</v>
       </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>3645.25</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
+        <v>220</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>221</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>222</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3941,10 +4061,25 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -401,6 +401,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -416,6 +425,9 @@
     <t>109.0000</t>
   </si>
   <si>
+    <t>MICONAZ 2% CREAM 20 GM</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -617,10 +629,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>26:0</t>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>31:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -671,7 +683,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 8:50 PM</t>
+    <t>Thursday, 29 May, 2025 9:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2467,7 +2479,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2477,14 +2489,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2493,14 +2505,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2510,14 +2522,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2533,7 +2545,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2550,7 +2562,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2576,11 +2588,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2592,14 +2604,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2609,14 +2621,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2625,14 +2637,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>57</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2642,11 +2654,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2658,14 +2670,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2675,14 +2687,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2691,14 +2703,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2708,11 +2720,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2724,14 +2736,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2748,7 +2760,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2764,7 +2776,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2774,14 +2786,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2797,7 +2809,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2814,7 +2826,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2830,7 +2842,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2840,11 +2852,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>48</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2856,14 +2868,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2873,14 +2885,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2889,14 +2901,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2906,14 +2918,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2922,14 +2934,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2939,11 +2951,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -2955,14 +2967,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2972,11 +2984,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2995,7 +3007,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3028,7 +3040,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3038,11 +3050,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3054,14 +3066,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3071,7 +3083,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3094,7 +3106,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3104,11 +3116,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>91</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3120,14 +3132,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3137,11 +3149,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>27</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3153,14 +3165,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3170,11 +3182,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3186,31 +3198,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>54</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3219,28 +3231,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3252,14 +3264,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3269,14 +3281,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3292,7 +3304,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3302,11 +3314,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3318,14 +3330,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3335,11 +3347,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>22</v>
@@ -3351,14 +3363,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3368,14 +3380,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>128</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>200</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3384,14 +3396,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>57</v>
+        <v>198</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3401,14 +3413,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>203</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3417,7 +3429,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3434,14 +3446,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>110</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3450,14 +3462,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3467,14 +3479,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3483,14 +3495,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>57</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3500,14 +3512,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3516,7 +3528,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3533,11 +3545,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3549,14 +3561,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3566,11 +3578,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3589,7 +3601,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3599,14 +3611,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3615,14 +3627,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3636,10 +3648,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3648,14 +3660,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3665,49 +3677,115 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>214</v>
+        <v>14</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>3645.25</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
-        <v>220</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
-        <v>221</v>
-      </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
         <v>222</v>
       </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>57</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>67</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>14</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>223</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>107</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>67</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>218</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>3688.25</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
+        <v>224</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
+        <v>225</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
+        <v>226</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4076,10 +4154,20 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -107,6 +107,15 @@
     <t>83.0000</t>
   </si>
   <si>
+    <t>BLOKATENS 5/80MG 28 F.C. TAB</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>61.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -290,15 +299,21 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>DOLCYL 2MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
     <t>3:2</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>96.0000</t>
   </si>
   <si>
@@ -413,9 +428,6 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>15.8400</t>
-  </si>
-  <si>
     <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
   </si>
   <si>
@@ -437,6 +449,9 @@
     <t>12.8700</t>
   </si>
   <si>
+    <t>MOODAPEX 50MG 30 F.C.TAB.</t>
+  </si>
+  <si>
     <t>NACTALIA 2 MILK 400 GM</t>
   </si>
   <si>
@@ -683,7 +698,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 9:02 PM</t>
+    <t>Thursday, 29 May, 2025 9:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1489,7 +1504,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1499,7 +1514,7 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
@@ -1532,14 +1547,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1548,14 +1563,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1588,7 +1603,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1598,11 +1613,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1614,14 +1629,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1631,14 +1646,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1647,14 +1662,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1671,7 +1686,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1687,7 +1702,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1704,7 +1719,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1720,7 +1735,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1730,14 +1745,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1763,14 +1778,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1779,14 +1794,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1819,24 +1834,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1845,7 +1860,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1858,7 +1873,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1885,7 +1900,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1895,14 +1910,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1911,14 +1926,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1928,14 +1943,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1944,14 +1959,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1994,14 +2009,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2010,14 +2025,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2027,11 +2042,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -2043,14 +2058,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2083,7 +2098,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2093,14 +2108,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2109,14 +2124,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2126,11 +2141,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -2142,14 +2157,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2159,14 +2174,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2175,14 +2190,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2192,14 +2207,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2208,14 +2223,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2225,14 +2240,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2241,14 +2256,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2258,11 +2273,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2274,14 +2289,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2298,7 +2313,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2307,14 +2322,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2324,14 +2339,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2340,14 +2355,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2357,11 +2372,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2373,14 +2388,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2390,14 +2405,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2406,14 +2421,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2423,14 +2438,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2439,14 +2454,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2456,14 +2471,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2472,14 +2487,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2489,11 +2504,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2505,14 +2520,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2522,14 +2537,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2545,7 +2560,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2578,7 +2593,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2588,14 +2603,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2611,7 +2626,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2628,7 +2643,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2644,7 +2659,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2654,11 +2669,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2670,14 +2685,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2687,14 +2702,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2703,14 +2718,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2720,14 +2735,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2736,14 +2751,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2753,14 +2768,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2769,14 +2784,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2786,11 +2801,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2802,14 +2817,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>47</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2819,14 +2834,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>47</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2835,14 +2850,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2852,11 +2867,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2875,7 +2890,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2885,11 +2900,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2901,14 +2916,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>50</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2918,14 +2933,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2934,14 +2949,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2951,11 +2966,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -2967,14 +2982,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2984,11 +2999,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3000,14 +3015,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3017,11 +3032,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3033,14 +3048,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3050,14 +3065,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3066,14 +3081,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3083,14 +3098,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3099,14 +3114,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3116,14 +3131,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3132,14 +3147,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3149,14 +3164,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3165,14 +3180,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3182,14 +3197,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3198,14 +3213,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3215,14 +3230,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3231,14 +3246,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3248,14 +3263,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>96</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3264,28 +3279,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>54</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>55</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3297,31 +3312,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3330,31 +3345,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3370,21 +3385,21 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3396,31 +3411,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>198</v>
+        <v>60</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3429,31 +3444,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>57</v>
+        <v>198</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>14</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>204</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3462,31 +3477,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>207</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3495,31 +3510,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>57</v>
+        <v>203</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>110</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3528,7 +3543,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3541,18 +3556,18 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>209</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3561,31 +3576,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>214</v>
+        <v>60</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3594,7 +3609,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3607,18 +3622,18 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3627,28 +3642,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3660,31 +3675,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>36</v>
+        <v>219</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3700,24 +3715,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>14</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3726,66 +3741,165 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>219</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>3688.25</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>226</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>39</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>70</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>14</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>227</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>60</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>70</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>14</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>228</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>112</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>70</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>223</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
         <v>224</v>
       </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
-        <v>225</v>
-      </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
-        <v>226</v>
-      </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>3801.7199999999998</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
+        <v>229</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>230</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>231</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4164,10 +4278,25 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -119,9 +131,6 @@
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>19.2000</t>
   </si>
   <si>
@@ -158,6 +167,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
     <t>CLOZAPEX 25MG 50 TAB</t>
   </si>
   <si>
@@ -182,9 +200,6 @@
     <t>CONCOR COR 2.5MG 30 TABLETS</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>60.0000</t>
   </si>
   <si>
@@ -506,6 +521,15 @@
     <t>PANTOPI 40MG 14 TAB</t>
   </si>
   <si>
+    <t>PAROFEN 30 OBLONG TAB.</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t>SIDERAL FOLIC 20 ORODISPERSIBLE STICKS</t>
   </si>
   <si>
@@ -698,7 +722,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 9:08 PM</t>
+    <t>Thursday, 29 May, 2025 9:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1455,7 +1479,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1471,7 +1495,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1481,11 +1505,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1497,7 +1521,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1514,14 +1538,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1530,14 +1554,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1547,11 +1571,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>20</v>
@@ -1563,14 +1587,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1580,14 +1604,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1596,14 +1620,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1636,7 +1660,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1646,11 +1670,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1662,14 +1686,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1679,14 +1703,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1695,14 +1719,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1712,14 +1736,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1728,14 +1752,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1752,7 +1776,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1768,7 +1792,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1778,14 +1802,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1801,7 +1825,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1811,11 +1835,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1827,14 +1851,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1844,14 +1868,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1860,31 +1884,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1893,14 +1917,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1910,14 +1934,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1926,31 +1950,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1959,14 +1983,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1976,14 +2000,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1992,14 +2016,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2009,14 +2033,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2025,14 +2049,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2042,14 +2066,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2065,7 +2089,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2075,14 +2099,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2091,14 +2115,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2108,11 +2132,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -2124,14 +2148,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2141,11 +2165,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -2157,14 +2181,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2174,14 +2198,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2190,14 +2214,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2207,11 +2231,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2223,14 +2247,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2240,14 +2264,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2256,14 +2280,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2273,14 +2297,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2289,14 +2313,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2306,14 +2330,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>115</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2322,14 +2346,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2339,11 +2363,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2355,14 +2379,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2379,7 +2403,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2388,14 +2412,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2405,14 +2429,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2421,14 +2445,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2438,11 +2462,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2454,14 +2478,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2471,14 +2495,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2487,14 +2511,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2504,14 +2528,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2520,14 +2544,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2537,14 +2561,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2553,14 +2577,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2570,11 +2594,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2586,14 +2610,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2603,14 +2627,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2619,14 +2643,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2636,11 +2660,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2652,14 +2676,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2669,14 +2693,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2685,14 +2709,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2702,14 +2726,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2718,14 +2742,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2735,14 +2759,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2751,14 +2775,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2768,14 +2792,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2784,14 +2808,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2801,14 +2825,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2817,14 +2841,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2834,11 +2858,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2850,14 +2874,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2867,14 +2891,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2883,14 +2907,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2900,11 +2924,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2923,7 +2947,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2933,14 +2957,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2949,14 +2973,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2966,14 +2990,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2982,14 +3006,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2999,14 +3023,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3015,14 +3039,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3032,11 +3056,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>57</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3048,14 +3072,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3065,11 +3089,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3088,7 +3112,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3098,11 +3122,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3114,14 +3138,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3131,11 +3155,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3147,14 +3171,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3164,14 +3188,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3180,14 +3204,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3197,14 +3221,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3213,14 +3237,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3230,14 +3254,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>94</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3246,14 +3270,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3263,14 +3287,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>185</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3279,14 +3303,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3303,7 +3327,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3319,7 +3343,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3329,14 +3353,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>99</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3345,14 +3369,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3362,14 +3386,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>31</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>101</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3378,28 +3402,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>57</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>58</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3411,31 +3435,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3444,31 +3468,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>199</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3477,28 +3501,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>201</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3510,31 +3534,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>203</v>
+        <v>65</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>205</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3543,31 +3567,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>60</v>
+        <v>206</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>209</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3576,31 +3600,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>212</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3609,31 +3633,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>60</v>
+        <v>211</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>115</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3642,31 +3666,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q77" s="12">
         <v>217</v>
-      </c>
-      <c t="s" r="Q77" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3682,24 +3706,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>219</v>
+        <v>65</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3708,31 +3732,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3741,28 +3765,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>14</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>15</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3781,24 +3805,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>39</v>
+        <v>227</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3807,31 +3831,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3840,66 +3864,165 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>223</v>
+        <v>14</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>3801.7199999999998</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
-        <v>229</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
-        <v>230</v>
-      </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>234</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>42</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>75</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>14</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>235</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>65</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>75</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>14</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>236</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>117</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>75</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
         <v>231</v>
       </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>3887.1900000000001</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>237</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>238</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>239</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4293,10 +4416,25 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -77,60 +77,63 @@
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>BLOKATENS 5/80MG 28 F.C. TAB</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>61.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
-    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>BECOZYME I.M./I.V. 12 AMP</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>BIVATRACIN 150MG POWDER SPRAY</t>
-  </si>
-  <si>
-    <t>83.00</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t>BLOKATENS 5/80MG 28 F.C. TAB</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>61.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
     <t>19.2000</t>
   </si>
   <si>
@@ -206,27 +209,30 @@
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
-  </si>
-  <si>
     <t>188.00</t>
   </si>
   <si>
@@ -326,7 +332,7 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>3:2</t>
+    <t>8:2</t>
   </si>
   <si>
     <t>96.0000</t>
@@ -371,9 +377,6 @@
     <t>78.0000</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>FLAVICEF 100MG/5ML PD. FOR ORAL SUSP. 30ML</t>
   </si>
   <si>
@@ -512,6 +515,9 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
+    <t>6:1</t>
+  </si>
+  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -542,9 +548,6 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -722,7 +725,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 9:16 PM</t>
+    <t>Thursday, 29 May, 2025 9:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1594,7 +1597,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1608,7 +1611,7 @@
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>20</v>
@@ -1620,14 +1623,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1637,11 +1640,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1653,7 +1656,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1670,11 +1673,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1686,14 +1689,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1703,11 +1706,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1719,7 +1722,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1736,11 +1739,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>20</v>
@@ -1752,14 +1755,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1769,11 +1772,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>20</v>
@@ -1785,7 +1788,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1802,11 +1805,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>30</v>
@@ -1818,14 +1821,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1839,7 +1842,7 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1851,14 +1854,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1868,11 +1871,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -1884,14 +1887,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1901,11 +1904,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1917,14 +1920,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1934,11 +1937,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1950,7 +1953,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1963,15 +1966,15 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -1983,14 +1986,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2000,11 +2003,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -2016,14 +2019,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2033,14 +2036,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2049,14 +2052,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2066,11 +2069,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2082,7 +2085,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2099,11 +2102,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2115,7 +2118,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2132,11 +2135,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -2148,14 +2151,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2165,11 +2168,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -2181,14 +2184,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2198,11 +2201,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -2214,14 +2217,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2231,11 +2234,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2247,14 +2250,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2264,11 +2267,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>26</v>
@@ -2280,7 +2283,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2297,11 +2300,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2313,7 +2316,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2330,11 +2333,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2346,14 +2349,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2363,11 +2366,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2379,14 +2382,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2396,14 +2399,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>120</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2412,7 +2415,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2429,11 +2432,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2445,7 +2448,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2462,11 +2465,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2478,14 +2481,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2495,11 +2498,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2511,14 +2514,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2528,11 +2531,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2544,7 +2547,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2561,11 +2564,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2577,14 +2580,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2594,11 +2597,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2610,14 +2613,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2627,11 +2630,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>26</v>
@@ -2643,14 +2646,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2660,11 +2663,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2676,14 +2679,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2693,11 +2696,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2709,14 +2712,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2726,11 +2729,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2742,14 +2745,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2775,14 +2778,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2792,11 +2795,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -2808,7 +2811,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2841,14 +2844,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2858,11 +2861,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2874,14 +2877,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2891,11 +2894,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2907,14 +2910,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2924,11 +2927,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2940,14 +2943,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2957,11 +2960,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -2973,7 +2976,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2990,11 +2993,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3006,14 +3009,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3023,11 +3026,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>30</v>
@@ -3039,14 +3042,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3056,11 +3059,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3072,14 +3075,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3089,11 +3092,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3105,14 +3108,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3122,11 +3125,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3138,14 +3141,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3155,11 +3158,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3171,7 +3174,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3188,11 +3191,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3204,14 +3207,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3221,11 +3224,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3237,7 +3240,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3254,11 +3257,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3270,14 +3273,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3287,11 +3290,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3303,7 +3306,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3320,11 +3323,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3336,7 +3339,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3353,11 +3356,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3369,7 +3372,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3390,7 +3393,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3402,14 +3405,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3419,11 +3422,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3435,7 +3438,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3452,11 +3455,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3468,7 +3471,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3485,11 +3488,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3501,7 +3504,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3514,7 +3517,7 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3522,7 +3525,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3534,20 +3537,20 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3567,20 +3570,20 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3588,7 +3591,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>26</v>
@@ -3600,28 +3603,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3633,28 +3636,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>26</v>
@@ -3666,31 +3669,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3699,31 +3702,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3732,31 +3735,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>120</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3765,28 +3768,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3798,28 +3801,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3831,28 +3834,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3864,7 +3867,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3877,7 +3880,7 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -3897,20 +3900,20 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -3918,10 +3921,10 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>120</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3930,20 +3933,20 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
@@ -3951,10 +3954,10 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>120</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3963,28 +3966,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -3998,7 +4001,7 @@
     </row>
     <row r="88" ht="16.5" customHeight="1">
       <c t="s" r="A88" s="14">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -4006,13 +4009,13 @@
       <c r="E88" s="14"/>
       <c r="F88" s="14"/>
       <c t="s" r="G88" s="15">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H88" s="15"/>
       <c r="I88" s="15"/>
       <c r="J88" s="16"/>
       <c t="s" r="K88" s="17">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L88" s="17"/>
       <c r="M88" s="17"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -725,7 +725,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 9:35 PM</t>
+    <t>Thursday, 29 May, 2025 9:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -479,6 +479,15 @@
     <t>230.0000</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
     <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
   </si>
   <si>
@@ -623,21 +632,33 @@
     <t>96.00</t>
   </si>
   <si>
+    <t>192.0000</t>
+  </si>
+  <si>
     <t>ايفا كريم 170 جم</t>
   </si>
   <si>
     <t>ايفا كريم 20 جم</t>
   </si>
   <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
     <t>18:0</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>بلاستر مترسيلك 5سم</t>
   </si>
   <si>
@@ -665,16 +686,19 @@
     <t>27.0000</t>
   </si>
   <si>
-    <t>9:0</t>
+    <t>زيت فاتيكا وسط 90 مل</t>
+  </si>
+  <si>
+    <t>25.00</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>31:0</t>
+    <t>64.0000</t>
+  </si>
+  <si>
+    <t>32:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -720,6 +744,18 @@
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>ماكنيه حلاقه ناسيت</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>35.00</t>
   </si>
   <si>
     <t>معجون كلوز اب اخضر الكبير</t>
@@ -2884,7 +2920,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>66</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2894,14 +2930,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2910,14 +2946,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2927,11 +2963,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2943,14 +2979,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2960,14 +2996,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2976,14 +3012,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2993,14 +3029,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3009,14 +3045,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3026,14 +3062,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3042,14 +3078,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3059,14 +3095,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>58</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3075,14 +3111,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3092,11 +3128,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3115,7 +3151,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3132,7 +3168,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3148,7 +3184,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3165,7 +3201,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3181,7 +3217,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3191,11 +3227,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3207,14 +3243,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3224,14 +3260,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3240,14 +3276,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3257,14 +3293,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3280,7 +3316,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3290,14 +3326,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3306,14 +3342,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3323,14 +3359,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3346,7 +3382,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3356,14 +3392,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>101</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3372,7 +3408,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3389,14 +3425,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3405,14 +3441,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>196</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3422,14 +3458,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>31</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3438,14 +3474,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>30</v>
+        <v>199</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3462,7 +3498,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3478,7 +3514,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3492,10 +3528,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>108</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3504,31 +3540,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>23</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>64</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3537,14 +3573,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3554,11 +3590,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3570,14 +3606,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>207</v>
+        <v>73</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3591,10 +3627,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3603,14 +3639,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>119</v>
+        <v>211</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3620,11 +3656,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>139</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3636,14 +3672,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3653,11 +3689,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>213</v>
+        <v>14</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>26</v>
@@ -3669,14 +3705,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3686,14 +3722,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>216</v>
+        <v>139</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>218</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3702,14 +3738,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3719,14 +3755,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>221</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3752,14 +3788,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>66</v>
+        <v>211</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3768,14 +3804,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3785,11 +3821,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3808,7 +3844,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>228</v>
+        <v>73</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3818,14 +3854,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3834,14 +3870,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3851,14 +3887,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3867,14 +3903,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3884,11 +3920,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>15</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3907,7 +3943,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>43</v>
+        <v>236</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3917,14 +3953,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>14</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3933,14 +3969,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3950,14 +3986,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3966,14 +4002,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -3983,49 +4019,214 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>232</v>
+        <v>14</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>233</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>3887.1900000000001</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
-        <v>238</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
-        <v>239</v>
-      </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>243</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>43</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>77</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>14</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>244</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>73</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>77</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>14</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>245</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>246</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>77</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>14</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>247</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>69</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>77</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>248</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>249</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>119</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>77</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
         <v>240</v>
       </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>4100.75</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>250</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>251</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>252</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4434,10 +4635,35 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -470,6 +470,15 @@
     <t>MOODAPEX 50MG 30 F.C.TAB.</t>
   </si>
   <si>
+    <t>MUCO S.R 75MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>NACTALIA 2 MILK 400 GM</t>
   </si>
   <si>
@@ -572,6 +581,15 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>SPOTLESS FACE CREAM 18 GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -599,6 +617,9 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>ULTRA FEET CREAM 50 GM</t>
+  </si>
+  <si>
     <t>VERSERC 24MG 30 TAB</t>
   </si>
   <si>
@@ -617,6 +638,15 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>189.00</t>
+  </si>
+  <si>
+    <t>94.5000</t>
+  </si>
+  <si>
     <t>XANTHISTOP 80 MG 30 TABLETS</t>
   </si>
   <si>
@@ -647,12 +677,6 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -746,6 +770,24 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>كريم فاتيكا 190 مل</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>كريم فيرند لافلي الصغير</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>ماكنيه حلاقه ناسيت</t>
   </si>
   <si>
@@ -761,7 +803,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 9:42 PM</t>
+    <t>Thursday, 29 May, 2025 9:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2904,7 +2946,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2920,7 +2962,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2937,7 +2979,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2953,7 +2995,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2963,14 +3005,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2979,14 +3021,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2996,11 +3038,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3012,14 +3054,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3029,14 +3071,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>51</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3045,14 +3087,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3062,14 +3104,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3078,14 +3120,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3095,14 +3137,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3111,14 +3153,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3128,14 +3170,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>58</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>67</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3144,14 +3186,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3161,11 +3203,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3184,7 +3226,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3201,7 +3243,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3217,7 +3259,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3234,7 +3276,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3250,7 +3292,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3260,11 +3302,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3276,14 +3318,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3293,14 +3335,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3309,14 +3351,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3326,14 +3368,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3349,21 +3391,21 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3375,14 +3417,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3392,11 +3434,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3408,14 +3450,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3425,11 +3467,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3441,14 +3483,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3458,11 +3500,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>31</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3474,14 +3516,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3491,7 +3533,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3514,7 +3556,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3524,14 +3566,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3540,14 +3582,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3557,14 +3599,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>31</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3573,28 +3615,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>206</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>23</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>64</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3613,24 +3655,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3639,31 +3681,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>211</v>
+        <v>30</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3672,28 +3714,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>215</v>
+        <v>119</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>26</v>
@@ -3705,14 +3747,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3722,11 +3764,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3738,14 +3780,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3755,14 +3797,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>14</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3771,14 +3813,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3788,14 +3830,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>211</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3804,14 +3846,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>119</v>
+        <v>223</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3821,14 +3863,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3837,14 +3879,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3854,14 +3896,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>229</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3870,14 +3912,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>73</v>
+        <v>227</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3887,14 +3929,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>66</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3903,14 +3945,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3920,14 +3962,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>221</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3936,14 +3978,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>236</v>
+        <v>119</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3953,11 +3995,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3969,14 +4011,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3986,14 +4028,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4002,14 +4044,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4019,14 +4061,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>15</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4035,14 +4077,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4052,14 +4094,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4068,14 +4110,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>73</v>
+        <v>244</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4085,14 +4127,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>14</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4101,14 +4143,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>246</v>
+        <v>69</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4118,11 +4160,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>14</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4134,14 +4176,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4151,11 +4193,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>248</v>
+        <v>14</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4167,14 +4209,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4184,49 +4226,247 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>240</v>
+        <v>14</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>4100.75</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
-        <v>250</v>
-      </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
-        <v>251</v>
-      </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
         <v>252</v>
       </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>73</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>77</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>14</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>253</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>254</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>77</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>255</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>256</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>257</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>221</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>77</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>228</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>258</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>259</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>260</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>77</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>14</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>261</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>69</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>77</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>262</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>263</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>119</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>77</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>248</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="P98" s="13">
+        <v>4372.25</v>
+      </c>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c t="s" r="A99" s="14">
+        <v>264</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c t="s" r="G99" s="15">
+        <v>265</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c t="s" r="K99" s="17">
+        <v>266</v>
+      </c>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="467">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4660,10 +4900,40 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="K99:Q99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -332,10 +332,13 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>8:2</t>
-  </si>
-  <si>
-    <t>96.0000</t>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>111.8400</t>
+  </si>
+  <si>
+    <t>2:1</t>
   </si>
   <si>
     <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
@@ -803,7 +806,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 9:43 PM</t>
+    <t>Thursday, 29 May, 2025 9:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2352,7 +2355,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2361,7 +2364,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2378,11 +2381,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2394,7 +2397,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2411,11 +2414,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2427,7 +2430,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2444,11 +2447,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2460,14 +2463,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2477,11 +2480,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>66</v>
@@ -2493,7 +2496,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2526,7 +2529,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2543,11 +2546,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2559,7 +2562,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2576,11 +2579,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2592,7 +2595,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2609,11 +2612,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2625,7 +2628,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2642,11 +2645,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2658,7 +2661,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2675,11 +2678,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2691,7 +2694,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2708,11 +2711,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>26</v>
@@ -2724,14 +2727,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2741,11 +2744,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2757,7 +2760,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2790,7 +2793,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2807,11 +2810,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2823,7 +2826,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2856,7 +2859,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2873,11 +2876,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -2889,7 +2892,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2922,7 +2925,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2939,11 +2942,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2955,7 +2958,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2972,11 +2975,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2988,7 +2991,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3005,11 +3008,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3021,14 +3024,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3038,11 +3041,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3054,14 +3057,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3087,14 +3090,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3104,11 +3107,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3120,7 +3123,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3137,11 +3140,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3153,14 +3156,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3170,11 +3173,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>30</v>
@@ -3186,7 +3189,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3219,7 +3222,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3236,11 +3239,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3252,7 +3255,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3269,11 +3272,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3285,7 +3288,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3302,11 +3305,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3318,7 +3321,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3335,11 +3338,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3351,7 +3354,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3372,7 +3375,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3384,7 +3387,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3401,11 +3404,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3417,7 +3420,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3434,11 +3437,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3450,7 +3453,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3467,11 +3470,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3483,7 +3486,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3500,11 +3503,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3516,7 +3519,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3537,7 +3540,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3549,7 +3552,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3566,11 +3569,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3582,7 +3585,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3603,7 +3606,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3615,14 +3618,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3632,11 +3635,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3648,7 +3651,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3665,11 +3668,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3681,7 +3684,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3698,11 +3701,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3714,14 +3717,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3731,11 +3734,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>26</v>
@@ -3747,7 +3750,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3780,7 +3783,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3813,14 +3816,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3830,11 +3833,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3846,14 +3849,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3867,7 +3870,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>26</v>
@@ -3879,14 +3882,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3896,11 +3899,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3912,14 +3915,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3929,11 +3932,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>26</v>
@@ -3945,7 +3948,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3962,14 +3965,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3978,14 +3981,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3995,7 +3998,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4011,7 +4014,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4028,14 +4031,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4044,7 +4047,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4061,11 +4064,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>66</v>
@@ -4077,7 +4080,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4094,11 +4097,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4110,14 +4113,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4127,11 +4130,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4143,7 +4146,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4160,11 +4163,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4176,7 +4179,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4209,7 +4212,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4230,7 +4233,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>66</v>
@@ -4242,7 +4245,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4263,7 +4266,7 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>66</v>
@@ -4275,14 +4278,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4292,11 +4295,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4308,14 +4311,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4325,11 +4328,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4341,14 +4344,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4374,7 +4377,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4391,7 +4394,7 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -4407,14 +4410,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4424,11 +4427,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4436,13 +4439,13 @@
     </row>
     <row r="98" ht="24.75" customHeight="1">
       <c r="P98" s="13">
-        <v>4372.25</v>
+        <v>4388.0900000000001</v>
       </c>
       <c r="Q98" s="13"/>
     </row>
     <row r="99" ht="16.5" customHeight="1">
       <c t="s" r="A99" s="14">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -4450,13 +4453,13 @@
       <c r="E99" s="14"/>
       <c r="F99" s="14"/>
       <c t="s" r="G99" s="15">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H99" s="15"/>
       <c r="I99" s="15"/>
       <c r="J99" s="16"/>
       <c t="s" r="K99" s="17">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L99" s="17"/>
       <c r="M99" s="17"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -806,7 +806,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 9:44 PM</t>
+    <t>Thursday, 29 May, 2025 9:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -731,7 +731,7 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>9.0000</t>
+    <t>12.0000</t>
   </si>
   <si>
     <t>شاش 15 سم</t>
@@ -740,9 +740,6 @@
     <t>12.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">شاش 7 سم </t>
   </si>
   <si>
@@ -806,7 +803,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 9:45 PM</t>
+    <t>Thursday, 29 May, 2025 9:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4071,7 +4068,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>66</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4101,7 +4098,7 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4113,14 +4110,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4130,11 +4127,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4146,7 +4143,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4163,11 +4160,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4179,7 +4176,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4212,7 +4209,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4245,7 +4242,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4278,14 +4275,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4295,11 +4292,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4311,7 +4308,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4332,7 +4329,7 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4344,14 +4341,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4377,7 +4374,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4394,7 +4391,7 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -4410,7 +4407,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4427,11 +4424,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4439,13 +4436,13 @@
     </row>
     <row r="98" ht="24.75" customHeight="1">
       <c r="P98" s="13">
-        <v>4388.0900000000001</v>
+        <v>4391.0900000000001</v>
       </c>
       <c r="Q98" s="13"/>
     </row>
     <row r="99" ht="16.5" customHeight="1">
       <c t="s" r="A99" s="14">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -4453,13 +4450,13 @@
       <c r="E99" s="14"/>
       <c r="F99" s="14"/>
       <c t="s" r="G99" s="15">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H99" s="15"/>
       <c r="I99" s="15"/>
       <c r="J99" s="16"/>
       <c t="s" r="K99" s="17">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L99" s="17"/>
       <c r="M99" s="17"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -803,7 +803,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 9:49 PM</t>
+    <t>Thursday, 29 May, 2025 9:51 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -161,363 +161,366 @@
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
-    <t>19:0</t>
+    <t>18:0</t>
   </si>
   <si>
     <t>31.00</t>
   </si>
   <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>CLOZAPEX 25MG 50 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>COBAL F 500/200MCG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>CONCOR COR 2.5MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
+    <t>COXORIZET CAPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
+    <t>82.1700</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DEVAROL-S 200000 I.U AMPOULE</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DIASMECT 3GM 10 SACHETS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>2.1000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOLCYL 2MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>111.8400</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>386.00</t>
+  </si>
+  <si>
+    <t>127.3800</t>
+  </si>
+  <si>
+    <t>ESMOPUMP 40 MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>172.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>FLAVICEF 100MG/5ML PD. FOR ORAL SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>303.00</t>
+  </si>
+  <si>
+    <t>99.9900</t>
+  </si>
+  <si>
+    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>MICONAZ 2% CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>MOODAPEX 50MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>MUCO S.R 75MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>NACTALIA 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>230.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
+    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>128.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>31.0000</t>
   </si>
   <si>
-    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>42.9000</t>
-  </si>
-  <si>
-    <t>CLOZAPEX 25MG 50 TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>COBAL F 500/200MCG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>CONCOR COR 2.5MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>188.00</t>
-  </si>
-  <si>
-    <t>188.0000</t>
-  </si>
-  <si>
-    <t>COXORIZET CAPS</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>249.00</t>
-  </si>
-  <si>
-    <t>82.1700</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>DEVAROL-S 200000 I.U AMPOULE</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DIASMECT 3GM 10 SACHETS</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>2.1000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOLCYL 2MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>8:1</t>
-  </si>
-  <si>
-    <t>111.8400</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>386.00</t>
-  </si>
-  <si>
-    <t>127.3800</t>
-  </si>
-  <si>
-    <t>ESMOPUMP 40 MG 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>172.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>FLAVICEF 100MG/5ML PD. FOR ORAL SUSP. 30ML</t>
-  </si>
-  <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>303.00</t>
-  </si>
-  <si>
-    <t>99.9900</t>
-  </si>
-  <si>
-    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>HYACARENOL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>109.00</t>
-  </si>
-  <si>
-    <t>109.0000</t>
-  </si>
-  <si>
-    <t>MICONAZ 2% CREAM 20 GM</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>MOODAPEX 50MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>MUCO S.R 75MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>64.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>NACTALIA 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>230.00</t>
-  </si>
-  <si>
-    <t>230.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>10.5600</t>
-  </si>
-  <si>
-    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>128.00</t>
-  </si>
-  <si>
-    <t>128.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -683,9 +686,6 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>18:0</t>
-  </si>
-  <si>
     <t>بلاستر مترسيلك 5سم</t>
   </si>
   <si>
@@ -803,7 +803,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 9:51 PM</t>
+    <t>Thursday, 29 May, 2025 9:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1791,7 +1791,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -3075,7 +3075,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3087,14 +3087,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3104,11 +3104,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3153,14 +3153,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3170,11 +3170,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>30</v>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3236,11 +3236,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3252,7 +3252,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3269,11 +3269,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3302,11 +3302,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3384,7 +3384,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3401,11 +3401,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3434,11 +3434,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3483,7 +3483,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3500,11 +3500,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3566,11 +3566,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3603,7 +3603,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3615,14 +3615,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3632,11 +3632,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3648,7 +3648,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3665,11 +3665,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3698,11 +3698,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3714,7 +3714,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3731,11 +3731,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>26</v>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3813,14 +3813,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3830,11 +3830,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3846,14 +3846,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>224</v>
+        <v>50</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>26</v>
@@ -3969,7 +3969,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4315,7 +4315,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4436,7 +4436,7 @@
     </row>
     <row r="98" ht="24.75" customHeight="1">
       <c r="P98" s="13">
-        <v>4391.0900000000001</v>
+        <v>4422.0900000000001</v>
       </c>
       <c r="Q98" s="13"/>
     </row>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -803,7 +803,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 9:57 PM</t>
+    <t>Thursday, 29 May, 2025 10:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2170,7 +2170,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -380,6 +380,12 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t>FLAVICEF 100MG/5ML PD. FOR ORAL SUSP. 30ML</t>
   </si>
   <si>
@@ -473,6 +479,15 @@
     <t>MOODAPEX 50MG 30 F.C.TAB.</t>
   </si>
   <si>
+    <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>43.5600</t>
+  </si>
+  <si>
     <t>MUCO S.R 75MG 20 CAPS.</t>
   </si>
   <si>
@@ -482,6 +497,15 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>NACTALIA 2 MILK 400 GM</t>
   </si>
   <si>
@@ -500,6 +524,15 @@
     <t>10.5600</t>
   </si>
   <si>
+    <t>NORGESIC 20 TAB.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
   </si>
   <si>
@@ -560,6 +593,24 @@
     <t>22.7700</t>
   </si>
   <si>
+    <t>PROTOZOLE 500 MG 12 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>3.9600</t>
+  </si>
+  <si>
+    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>SIDERAL FOLIC 20 ORODISPERSIBLE STICKS</t>
   </si>
   <si>
@@ -632,6 +683,15 @@
     <t>39.6000</t>
   </si>
   <si>
+    <t>VONDALOUS 20MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -686,24 +746,24 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 5سم</t>
   </si>
   <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>48:0</t>
+    <t>47:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -731,21 +791,15 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
     <t>12.0000</t>
   </si>
   <si>
-    <t>شاش 15 سم</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">شاش 7 سم </t>
   </si>
   <si>
-    <t>47:0</t>
-  </si>
-  <si>
     <t>6.00</t>
   </si>
   <si>
@@ -794,6 +848,9 @@
     <t>21:0</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
@@ -803,7 +860,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 10:08 PM</t>
+    <t>Thursday, 29 May, 2025 10:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2500,7 +2557,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2510,14 +2567,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2526,14 +2583,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2543,14 +2600,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2559,14 +2616,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2576,11 +2633,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2592,7 +2649,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2609,11 +2666,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2625,14 +2682,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2642,14 +2699,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2658,14 +2715,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2675,11 +2732,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2691,14 +2748,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2708,14 +2765,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2724,14 +2781,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2741,14 +2798,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2757,14 +2814,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2774,14 +2831,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2790,14 +2847,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2807,14 +2864,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2823,7 +2880,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2840,11 +2897,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2856,14 +2913,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2873,14 +2930,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2889,14 +2946,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2906,11 +2963,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2922,14 +2979,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2939,11 +2996,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2955,14 +3012,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2972,14 +3029,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2988,14 +3045,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3005,11 +3062,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3021,14 +3078,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3038,14 +3095,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3054,14 +3111,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3071,11 +3128,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>51</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3087,14 +3144,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3104,11 +3161,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3120,14 +3177,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3137,11 +3194,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3153,14 +3210,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3170,14 +3227,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3186,14 +3243,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>73</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3203,14 +3260,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3219,14 +3276,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>57</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3236,11 +3293,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3252,14 +3309,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3269,11 +3326,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>117</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3292,7 +3349,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3302,14 +3359,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3318,14 +3375,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3335,11 +3392,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3351,14 +3408,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3368,14 +3425,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3384,31 +3441,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3417,14 +3474,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3434,14 +3491,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3450,14 +3507,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3467,11 +3524,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>134</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>135</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3483,14 +3540,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3500,11 +3557,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3516,14 +3573,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3533,14 +3590,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3549,7 +3606,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3566,11 +3623,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>193</v>
+        <v>98</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3582,7 +3639,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3595,18 +3652,18 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>31</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3615,14 +3672,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>208</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3632,14 +3689,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3648,14 +3705,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3665,14 +3722,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3681,14 +3738,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3698,11 +3755,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3714,14 +3771,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3731,14 +3788,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3747,28 +3804,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>64</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3780,31 +3837,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>15</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3813,31 +3870,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>223</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3846,31 +3903,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>50</v>
+        <v>228</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3879,31 +3936,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>140</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3912,31 +3969,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>228</v>
+        <v>30</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3945,31 +4002,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>223</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3978,14 +4035,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3995,11 +4052,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4011,7 +4068,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4028,14 +4085,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>238</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4044,14 +4101,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>73</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4061,14 +4118,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>168</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4077,14 +4134,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>69</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4094,14 +4151,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>14</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4110,14 +4167,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>244</v>
+        <v>120</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4127,7 +4184,7 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>142</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
@@ -4143,14 +4200,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>69</v>
+        <v>249</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4160,14 +4217,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4176,14 +4233,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4193,14 +4250,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>14</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>15</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>243</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4209,14 +4266,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4226,14 +4283,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4242,7 +4299,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4259,14 +4316,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>66</v>
+        <v>258</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4275,14 +4332,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>254</v>
+        <v>73</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4292,14 +4349,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>256</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4308,14 +4365,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>223</v>
+        <v>69</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4325,11 +4382,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4341,14 +4398,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4358,11 +4415,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>14</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>15</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4374,7 +4431,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4391,11 +4448,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>102</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4407,14 +4464,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4424,49 +4481,313 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>248</v>
+        <v>14</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>249</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
-      <c r="P98" s="13">
-        <v>4422.0900000000001</v>
-      </c>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c t="s" r="A99" s="14">
-        <v>264</v>
-      </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c t="s" r="G99" s="15">
-        <v>265</v>
-      </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c t="s" r="K99" s="17">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>269</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>43</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>77</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>14</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>270</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>73</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>77</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>14</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>271</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>272</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>77</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>273</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>274</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>275</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>243</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>77</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>250</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>276</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>277</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>278</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>77</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>14</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>279</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>66</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>77</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>117</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>280</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>69</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>77</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>281</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>282</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>120</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>77</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
         <v>266</v>
       </c>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>267</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>4837.6099999999997</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>283</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>284</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>285</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="467">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4930,10 +5251,50 @@
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
     <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -425,6 +425,24 @@
     <t>41.0000</t>
   </si>
   <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
     <t>HYACARENOL EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -722,6 +740,15 @@
     <t>48.5100</t>
   </si>
   <si>
+    <t>ZURCAL 20 MG 14 GASTRO-RESISTANT TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -860,7 +887,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 10:09 PM</t>
+    <t>Thursday, 29 May, 2025 10:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2755,7 +2782,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2788,7 +2815,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2805,7 +2832,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2821,7 +2848,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2854,7 +2881,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2864,14 +2891,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2880,14 +2907,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2897,11 +2924,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2913,14 +2940,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2930,14 +2957,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2946,14 +2973,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2963,14 +2990,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2979,14 +3006,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2996,14 +3023,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3012,14 +3039,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3029,11 +3056,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -3045,14 +3072,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3062,11 +3089,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3085,7 +3112,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3135,7 +3162,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3151,7 +3178,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3184,7 +3211,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3217,7 +3244,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>66</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3227,14 +3254,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3243,14 +3270,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3260,11 +3287,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3276,14 +3303,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3293,14 +3320,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3309,14 +3336,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3326,11 +3353,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>118</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3342,14 +3369,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3359,14 +3386,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3375,14 +3402,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3392,14 +3419,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3408,14 +3435,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3425,14 +3452,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3441,14 +3468,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3458,11 +3485,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>58</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3481,7 +3508,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3498,7 +3525,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3514,7 +3541,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3531,7 +3558,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3547,7 +3574,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3564,7 +3591,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3580,7 +3607,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3590,14 +3617,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3606,14 +3633,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3623,14 +3650,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>98</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3639,31 +3666,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3672,14 +3699,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3689,14 +3716,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>98</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3712,21 +3739,21 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3738,14 +3765,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3755,11 +3782,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3771,14 +3798,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3788,11 +3815,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3804,14 +3831,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3821,14 +3848,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3837,7 +3864,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3854,14 +3881,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3870,14 +3897,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3887,14 +3914,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3903,14 +3930,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>228</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3920,14 +3947,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>31</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3936,7 +3963,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3953,11 +3980,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -3969,14 +3996,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3993,7 +4020,7 @@
         <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4009,7 +4036,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4026,7 +4053,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4042,24 +4069,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>23</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>64</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4068,28 +4095,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4101,31 +4128,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>120</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4134,14 +4161,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>26</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4151,14 +4178,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4167,14 +4194,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4184,11 +4211,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4200,14 +4227,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4217,14 +4244,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>64</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4233,14 +4260,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>73</v>
+        <v>254</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4250,14 +4277,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>14</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>243</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4266,7 +4293,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4283,11 +4310,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>148</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>67</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4299,14 +4326,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>73</v>
+        <v>258</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4316,14 +4343,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>258</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4332,7 +4359,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4349,14 +4376,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>15</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>120</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4365,14 +4392,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4382,11 +4409,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>195</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4398,14 +4425,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>249</v>
+        <v>73</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4415,14 +4442,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>267</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4431,14 +4458,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4448,14 +4475,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4464,14 +4491,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4481,11 +4508,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>15</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4497,14 +4524,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>43</v>
+        <v>258</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4514,14 +4541,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>14</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4530,14 +4557,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4547,14 +4574,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>14</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>64</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>179</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4563,14 +4590,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>272</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4580,11 +4607,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>274</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4596,14 +4623,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>243</v>
+        <v>43</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4613,14 +4640,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>250</v>
+        <v>14</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4629,14 +4656,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>278</v>
+        <v>73</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4650,10 +4677,10 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>185</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4662,14 +4689,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>66</v>
+        <v>281</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4679,11 +4706,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>117</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>118</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4695,14 +4722,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>69</v>
+        <v>252</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4712,11 +4739,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>102</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4728,14 +4755,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>120</v>
+        <v>287</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4745,49 +4772,148 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>266</v>
+        <v>14</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>267</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>4837.6099999999997</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
-        <v>283</v>
-      </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
-        <v>284</v>
-      </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
-        <v>285</v>
-      </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>288</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>66</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>77</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>117</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>289</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>69</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>77</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>290</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>291</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>120</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>77</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>275</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>276</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>5245.1099999999997</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>292</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>293</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>294</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5291,10 +5417,25 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -887,7 +887,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 10:12 PM</t>
+    <t>Thursday, 29 May, 2025 10:25 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -636,6 +636,9 @@
   </si>
   <si>
     <t>180.0000</t>
+  </si>
+  <si>
+    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
   </si>
   <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
@@ -3640,7 +3643,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3650,14 +3653,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>117</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3666,14 +3669,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3683,11 +3686,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3706,7 +3709,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3716,14 +3719,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3732,28 +3735,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>98</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3765,31 +3768,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3798,14 +3801,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3815,14 +3818,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>136</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>137</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3838,7 +3841,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3848,14 +3851,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>136</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3864,14 +3867,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3881,14 +3884,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>101</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3897,14 +3900,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3914,11 +3917,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>216</v>
+        <v>101</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3937,7 +3940,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3947,14 +3950,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>31</v>
+        <v>217</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3963,7 +3966,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3980,11 +3983,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>31</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -3996,14 +3999,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>234</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4013,14 +4016,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4029,14 +4032,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4046,14 +4049,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4062,14 +4065,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4079,11 +4082,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4095,14 +4098,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4112,14 +4115,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4128,14 +4131,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4145,14 +4148,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4161,31 +4164,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>23</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>64</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4201,7 +4204,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4211,11 +4214,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4234,7 +4237,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>252</v>
+        <v>73</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4244,11 +4247,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>216</v>
+        <v>14</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4260,14 +4263,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4277,14 +4280,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4293,14 +4296,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>120</v>
+        <v>255</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4310,14 +4313,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4333,7 +4336,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>258</v>
+        <v>120</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4343,14 +4346,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>148</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4359,14 +4362,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>73</v>
+        <v>259</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4376,14 +4379,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>252</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4392,14 +4395,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4409,14 +4412,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>67</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>253</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4425,14 +4428,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4442,14 +4445,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>267</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4458,7 +4461,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4475,14 +4478,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>120</v>
+        <v>268</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4498,7 +4501,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4508,14 +4511,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>201</v>
+        <v>262</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4524,14 +4527,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>258</v>
+        <v>69</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4541,11 +4544,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>201</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4557,14 +4560,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>69</v>
+        <v>259</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4574,11 +4577,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4590,14 +4593,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4607,11 +4610,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>14</v>
+        <v>276</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>15</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4630,7 +4633,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4644,10 +4647,10 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>255</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4663,7 +4666,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4677,10 +4680,10 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>185</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4696,7 +4699,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>281</v>
+        <v>73</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4706,14 +4709,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>14</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>283</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>185</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4722,14 +4725,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4739,11 +4742,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4755,14 +4758,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4772,11 +4775,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>14</v>
+        <v>260</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>15</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4788,14 +4791,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>66</v>
+        <v>288</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4805,11 +4808,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4828,7 +4831,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4838,11 +4841,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>290</v>
+        <v>117</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4854,14 +4857,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4871,49 +4874,82 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>292</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>120</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>77</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
         <v>276</v>
       </c>
-      <c t="s" r="Q108" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>5245.1099999999997</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>292</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>277</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>5269.1099999999997</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
         <v>293</v>
       </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
         <v>294</v>
       </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>295</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5432,10 +5468,15 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -890,7 +890,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 10:25 PM</t>
+    <t>Thursday, 29 May, 2025 10:27 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -128,6 +128,15 @@
     <t>61.0000</t>
   </si>
   <si>
+    <t>BRONCHONEER 30 TAB</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>48.5100</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -350,6 +359,18 @@
     <t>127.3800</t>
   </si>
   <si>
+    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
     <t>ESMOPUMP 40 MG 14 F.C. TABS.</t>
   </si>
   <si>
@@ -371,9 +392,6 @@
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -620,6 +638,15 @@
     <t>3.9600</t>
   </si>
   <si>
+    <t>QUIBRON T/SR 300MG 100 TAB</t>
+  </si>
+  <si>
+    <t>0:25</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
     <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
   </si>
   <si>
@@ -629,6 +656,15 @@
     <t>110.0000</t>
   </si>
   <si>
+    <t>SEDOKAST 10MG 10 F.C. TAB</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
     <t>SIDERAL FOLIC 20 ORODISPERSIBLE STICKS</t>
   </si>
   <si>
@@ -735,12 +771,6 @@
   </si>
   <si>
     <t>XANTHISTOP 80 MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>147.00</t>
-  </si>
-  <si>
-    <t>48.5100</t>
   </si>
   <si>
     <t>ZURCAL 20 MG 14 GASTRO-RESISTANT TABS.</t>
@@ -1762,7 +1792,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1772,7 +1802,7 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
@@ -1805,14 +1835,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1821,14 +1851,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1861,7 +1891,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1871,14 +1901,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1887,14 +1917,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1911,7 +1941,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1927,7 +1957,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1937,11 +1967,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>20</v>
@@ -1953,14 +1983,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1977,7 +2007,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1993,7 +2023,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2003,14 +2033,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2019,14 +2049,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2036,14 +2066,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2069,14 +2099,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2085,14 +2115,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2102,11 +2132,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2118,31 +2148,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2151,20 +2181,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2191,7 +2221,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2201,14 +2231,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>86</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2217,14 +2247,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2234,14 +2264,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2250,14 +2280,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2290,7 +2320,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2300,14 +2330,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2316,14 +2346,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2333,11 +2363,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -2349,14 +2379,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2389,7 +2419,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2422,7 +2452,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2432,14 +2462,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2448,14 +2478,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2465,14 +2495,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>112</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2488,7 +2518,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2521,7 +2551,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2531,11 +2561,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2547,14 +2577,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2571,7 +2601,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2587,7 +2617,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2597,14 +2627,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2613,14 +2643,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2630,14 +2660,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2646,14 +2676,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2663,11 +2693,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2679,14 +2709,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2696,14 +2726,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2719,7 +2749,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2752,7 +2782,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2769,7 +2799,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2785,7 +2815,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2802,7 +2832,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2818,7 +2848,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2835,7 +2865,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2851,7 +2881,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2884,7 +2914,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2901,7 +2931,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2917,7 +2947,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2950,7 +2980,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2960,14 +2990,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2976,14 +3006,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2993,11 +3023,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3009,14 +3039,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3026,14 +3056,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3042,14 +3072,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3059,14 +3089,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3075,14 +3105,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3092,14 +3122,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3108,14 +3138,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3125,11 +3155,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -3141,14 +3171,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3158,11 +3188,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3181,7 +3211,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3214,7 +3244,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3231,7 +3261,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3247,7 +3277,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3280,7 +3310,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3313,7 +3343,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3323,14 +3353,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3339,14 +3369,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3356,11 +3386,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3372,14 +3402,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3389,14 +3419,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3405,14 +3435,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3422,11 +3452,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3438,14 +3468,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3455,14 +3485,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3471,14 +3501,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3488,14 +3518,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3504,14 +3534,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>57</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3521,14 +3551,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3537,14 +3567,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3554,11 +3584,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>61</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3577,7 +3607,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3594,7 +3624,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3610,7 +3640,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3627,7 +3657,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3643,7 +3673,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3653,11 +3683,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3669,14 +3699,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3686,14 +3716,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3702,14 +3732,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3719,14 +3749,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3735,14 +3765,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3752,11 +3782,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3768,28 +3798,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>124</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3801,14 +3831,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3818,11 +3848,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3834,14 +3864,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3851,14 +3881,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3867,14 +3897,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3884,14 +3914,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>101</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3900,7 +3930,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3913,15 +3943,15 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>101</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3933,14 +3963,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3950,14 +3980,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3966,14 +3996,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3983,14 +4013,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3999,14 +4029,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4016,11 +4046,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4032,14 +4062,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>235</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4049,11 +4079,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>104</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4065,14 +4095,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4082,14 +4112,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4105,7 +4135,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4115,11 +4145,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>31</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4131,14 +4161,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4148,14 +4178,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4164,14 +4194,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>120</v>
+        <v>247</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4188,7 +4218,7 @@
         <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4204,24 +4234,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>23</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>64</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4230,31 +4260,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4263,28 +4293,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4296,31 +4326,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>255</v>
+        <v>117</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>14</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>66</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4329,28 +4359,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4362,31 +4392,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>259</v>
+        <v>76</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>14</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4395,31 +4425,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>73</v>
+        <v>263</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>253</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4435,24 +4465,24 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>120</v>
+        <v>265</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>14</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>67</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4461,31 +4491,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>236</v>
+        <v>154</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>268</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4494,31 +4524,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>73</v>
+        <v>269</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4527,31 +4557,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>201</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>263</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4560,28 +4590,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>259</v>
+        <v>117</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>274</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4593,31 +4623,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>278</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4626,31 +4656,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>14</v>
+        <v>272</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>15</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4659,31 +4689,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>14</v>
+        <v>207</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4692,31 +4722,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>73</v>
+        <v>269</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>14</v>
+        <v>283</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>64</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>185</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4725,28 +4755,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>282</v>
+        <v>72</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4758,28 +4788,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>253</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>260</v>
+        <v>14</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>286</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4791,20 +4821,20 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>288</v>
+        <v>46</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
@@ -4812,10 +4842,10 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4824,31 +4854,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>191</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4857,28 +4887,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>69</v>
+        <v>292</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>102</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4890,66 +4920,198 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>120</v>
+        <v>263</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>5269.1099999999997</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
-        <v>293</v>
-      </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
-        <v>294</v>
-      </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
-        <v>295</v>
-      </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>297</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>298</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>80</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>14</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>299</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>69</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>80</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>124</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>300</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>72</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>80</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>301</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>302</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>117</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>80</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>286</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>287</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>5612.6199999999999</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
+        <v>303</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
+        <v>304</v>
+      </c>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>305</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5473,10 +5635,30 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -920,7 +920,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 10:27 PM</t>
+    <t>Thursday, 29 May, 2025 10:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -590,6 +590,9 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -647,6 +650,18 @@
     <t>132.0000</t>
   </si>
   <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:14</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
     <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
   </si>
   <si>
@@ -851,6 +866,9 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>سلاكه اسنان بلاستك</t>
+  </si>
+  <si>
     <t>شاش 15 سم</t>
   </si>
   <si>
@@ -920,7 +938,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 10:30 PM</t>
+    <t>Thursday, 29 May, 2025 10:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3475,7 +3493,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3485,14 +3503,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>124</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3501,14 +3519,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3518,14 +3536,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3541,7 +3559,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3551,14 +3569,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3567,14 +3585,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3584,14 +3602,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>61</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>70</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3607,7 +3625,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3617,11 +3635,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>61</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3633,14 +3651,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3650,11 +3668,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3666,14 +3684,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3683,14 +3701,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3699,14 +3717,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3716,14 +3734,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>169</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3732,14 +3750,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3749,14 +3767,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3765,14 +3783,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3782,14 +3800,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3798,14 +3816,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3815,11 +3833,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>124</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>125</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3831,14 +3849,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3848,14 +3866,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3864,14 +3882,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3881,14 +3899,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3897,14 +3915,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3914,14 +3932,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>101</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3930,31 +3948,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3970,7 +3988,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3980,14 +3998,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>101</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3996,28 +4014,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>143</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4029,14 +4047,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4046,11 +4064,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4062,14 +4080,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4079,11 +4097,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4102,7 +4120,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4112,14 +4130,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4128,7 +4146,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4145,14 +4163,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4161,14 +4179,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4178,14 +4196,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4201,7 +4219,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>247</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4211,14 +4229,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>31</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4227,7 +4245,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4244,11 +4262,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4260,14 +4278,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>30</v>
+        <v>252</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4277,14 +4295,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>40</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>41</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4293,14 +4311,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4310,14 +4328,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4326,14 +4344,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4343,14 +4361,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>40</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4359,28 +4377,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>23</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4392,31 +4410,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>14</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>15</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4425,14 +4443,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>263</v>
+        <v>26</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4442,11 +4460,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>229</v>
+        <v>23</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>230</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4458,14 +4476,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>265</v>
+        <v>76</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4479,10 +4497,10 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4498,7 +4516,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>117</v>
+        <v>268</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4508,11 +4526,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>154</v>
+        <v>234</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4524,14 +4542,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4541,11 +4559,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>14</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>67</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>69</v>
@@ -4557,14 +4575,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4574,14 +4592,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>154</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>263</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4590,14 +4608,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>117</v>
+        <v>274</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4611,10 +4629,10 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4640,14 +4658,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4663,7 +4681,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4673,14 +4691,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4689,14 +4707,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4706,14 +4724,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>207</v>
+        <v>253</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>283</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4722,14 +4740,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>269</v>
+        <v>76</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4739,14 +4757,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>284</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4762,7 +4780,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4772,11 +4790,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>286</v>
+        <v>14</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>287</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4788,14 +4806,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4805,11 +4823,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>15</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4821,14 +4839,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>46</v>
+        <v>274</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4838,14 +4856,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4854,14 +4872,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4871,14 +4889,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>14</v>
+        <v>292</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>67</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>191</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4887,14 +4905,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>292</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4904,11 +4922,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>293</v>
+        <v>14</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>294</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4927,7 +4945,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4937,14 +4955,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>270</v>
+        <v>14</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4953,14 +4971,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4974,10 +4992,10 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>191</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4986,14 +5004,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>69</v>
+        <v>298</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5003,11 +5021,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>124</v>
+        <v>299</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>125</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5019,14 +5037,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>72</v>
+        <v>268</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5036,11 +5054,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>105</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5052,14 +5070,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>117</v>
+        <v>304</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5069,49 +5087,148 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>286</v>
+        <v>14</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>287</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>5612.6199999999999</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
-        <v>303</v>
-      </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
-        <v>304</v>
-      </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
         <v>305</v>
       </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>69</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>80</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>124</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>306</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>72</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>80</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>307</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>308</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>117</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>80</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>292</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>293</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>5658.6700000000001</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
+        <v>309</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>310</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>311</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5655,10 +5772,25 @@
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -378,6 +378,15 @@
   </si>
   <si>
     <t>86.0000</t>
+  </si>
+  <si>
+    <t>EXEEDOGAST 40 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
   </si>
   <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
@@ -2635,7 +2644,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2668,7 +2677,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2685,7 +2694,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2701,7 +2710,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2711,14 +2720,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2727,14 +2736,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2744,14 +2753,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2760,14 +2769,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2777,14 +2786,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2800,7 +2809,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2866,7 +2875,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2883,7 +2892,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2932,7 +2941,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2949,7 +2958,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2965,7 +2974,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2982,7 +2991,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2998,7 +3007,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3015,7 +3024,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3031,7 +3040,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3048,7 +3057,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3064,7 +3073,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3074,14 +3083,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3090,14 +3099,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3107,14 +3116,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3140,11 +3149,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3156,14 +3165,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3173,14 +3182,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3196,7 +3205,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3206,11 +3215,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3222,7 +3231,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3239,11 +3248,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3262,7 +3271,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3295,7 +3304,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3328,7 +3337,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3345,7 +3354,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3361,7 +3370,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3378,7 +3387,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3394,7 +3403,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3411,7 +3420,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3427,7 +3436,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3437,11 +3446,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3453,14 +3462,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3470,7 +3479,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>54</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3493,7 +3502,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3503,11 +3512,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3519,14 +3528,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3536,14 +3545,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>127</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3552,14 +3561,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3569,14 +3578,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>124</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3585,14 +3594,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3602,14 +3611,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>127</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3618,14 +3627,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3635,14 +3644,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>61</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>70</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3651,14 +3660,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3668,11 +3677,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>61</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3691,7 +3700,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3724,7 +3733,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>30</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3734,14 +3743,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3767,14 +3776,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>172</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3783,14 +3792,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>43</v>
+        <v>217</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3807,7 +3816,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3823,7 +3832,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3840,7 +3849,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3856,7 +3865,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3889,7 +3898,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3899,11 +3908,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3915,14 +3924,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3932,14 +3941,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3955,7 +3964,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3965,11 +3974,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>165</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3981,14 +3990,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3998,14 +4007,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4014,24 +4023,24 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>101</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4054,13 +4063,13 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -4071,7 +4080,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4087,7 +4096,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4097,14 +4106,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>142</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>143</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4113,14 +4122,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4130,14 +4139,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>145</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4153,7 +4162,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4163,14 +4172,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>104</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4179,14 +4188,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4196,11 +4205,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>234</v>
+        <v>104</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4212,14 +4221,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4229,14 +4238,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>31</v>
+        <v>237</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4245,7 +4254,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4262,7 +4271,7 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>31</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
@@ -4285,7 +4294,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>252</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4295,14 +4304,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4311,14 +4320,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>255</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4335,7 +4344,7 @@
         <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4351,7 +4360,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4361,11 +4370,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>40</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>41</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4377,14 +4386,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4394,14 +4403,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4417,7 +4426,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4434,7 +4443,7 @@
         <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4450,24 +4459,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>23</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>67</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4476,14 +4485,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4493,11 +4502,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4509,14 +4518,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>268</v>
+        <v>76</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4526,11 +4535,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>234</v>
+        <v>14</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>235</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4542,14 +4551,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4559,14 +4568,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>14</v>
+        <v>237</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4582,7 +4591,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>117</v>
+        <v>273</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4592,14 +4601,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4608,14 +4617,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>274</v>
+        <v>117</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4625,14 +4634,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>157</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>67</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4648,7 +4657,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4658,14 +4667,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>268</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4681,7 +4690,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4695,10 +4704,10 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>70</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>271</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4707,14 +4716,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4724,14 +4733,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>282</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>283</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4757,14 +4766,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>15</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>117</v>
+        <v>286</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4773,14 +4782,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4790,14 +4799,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>14</v>
+        <v>280</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>15</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4806,14 +4815,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4823,11 +4832,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>287</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4839,14 +4848,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>274</v>
+        <v>72</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4856,7 +4865,7 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>289</v>
+        <v>211</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
@@ -4879,7 +4888,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>72</v>
+        <v>277</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4912,7 +4921,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4922,11 +4931,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>14</v>
+        <v>295</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4938,14 +4947,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4959,10 +4968,10 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>271</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4971,14 +4980,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4992,10 +5001,10 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>67</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>191</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5004,14 +5013,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5021,14 +5030,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>299</v>
+        <v>14</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>300</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>194</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5037,14 +5046,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5054,11 +5063,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5070,14 +5079,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5087,11 +5096,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>14</v>
+        <v>278</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>15</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5103,14 +5112,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>69</v>
+        <v>307</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5120,11 +5129,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5136,14 +5145,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5153,11 +5162,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>307</v>
+        <v>127</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5169,14 +5178,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5186,49 +5195,82 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>293</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
-      <c r="P117" s="13">
-        <v>5658.6700000000001</v>
-      </c>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
-        <v>309</v>
-      </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
-        <v>310</v>
-      </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
         <v>311</v>
       </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>117</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>80</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>295</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>296</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="P118" s="13">
+        <v>5826.6700000000001</v>
+      </c>
+      <c r="Q118" s="13"/>
+    </row>
+    <row r="119" ht="16.5" customHeight="1">
+      <c t="s" r="A119" s="14">
+        <v>312</v>
+      </c>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c t="s" r="G119" s="15">
+        <v>313</v>
+      </c>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c t="s" r="K119" s="17">
+        <v>314</v>
+      </c>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="567">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5787,10 +5829,15 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="K119:Q119"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -209,6 +209,15 @@
     <t>35.6400</t>
   </si>
   <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>CONCOR COR 2.5MG 30 TABLETS</t>
   </si>
   <si>
@@ -341,75 +350,78 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>8:1</t>
-  </si>
-  <si>
-    <t>111.8400</t>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>159.8400</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>386.00</t>
+  </si>
+  <si>
+    <t>127.3800</t>
+  </si>
+  <si>
+    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
+    <t>ESMOPUMP 40 MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>172.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>EXEEDOGAST 40 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
   </si>
   <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>386.00</t>
-  </si>
-  <si>
-    <t>127.3800</t>
-  </si>
-  <si>
-    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>104.00</t>
-  </si>
-  <si>
-    <t>104.0000</t>
-  </si>
-  <si>
-    <t>ESMOPUMP 40 MG 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>172.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>EXEEDOGAST 40 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>168.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
     <t>17.0000</t>
   </si>
   <si>
@@ -434,6 +446,15 @@
     <t>27.7200</t>
   </si>
   <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -569,6 +590,15 @@
     <t>10.5600</t>
   </si>
   <si>
+    <t>NEXIUM 40MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>488.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
     <t>NORGESIC 20 TAB.</t>
   </si>
   <si>
@@ -701,6 +731,12 @@
     <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
   </si>
   <si>
+    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -764,6 +800,15 @@
     <t>39.6000</t>
   </si>
   <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
     <t>VONDALOUS 20MG 20 F.C. TAB</t>
   </si>
   <si>
@@ -797,6 +842,9 @@
     <t>XANTHISTOP 80 MG 30 TABLETS</t>
   </si>
   <si>
+    <t>XORAXON 1GM I.V. VIAL</t>
+  </si>
+  <si>
     <t>ZURCAL 20 MG 14 GASTRO-RESISTANT TABS.</t>
   </si>
   <si>
@@ -842,51 +890,57 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
+    <t>46:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>زيت فاتيكا وسط 90 مل</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
+    <t>32:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>سلاكه اسنان بلاستك</t>
+  </si>
+  <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
     <t>47:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>زيت فاتيكا وسط 90 مل</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>64.0000</t>
-  </si>
-  <si>
-    <t>32:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>سلاكه اسنان بلاستك</t>
-  </si>
-  <si>
-    <t>شاش 15 سم</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
     <t>6.00</t>
   </si>
   <si>
@@ -911,6 +965,9 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>كريم فاتيكا 190 مل</t>
   </si>
   <si>
@@ -936,6 +993,9 @@
   </si>
   <si>
     <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>48.0000</t>
   </si>
   <si>
     <t>معجون سيجنال 50 مل</t>
@@ -2093,14 +2153,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2109,14 +2169,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2126,14 +2186,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2159,14 +2219,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2175,14 +2235,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2192,11 +2252,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2208,31 +2268,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2241,20 +2301,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -2281,7 +2341,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2291,14 +2351,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2307,14 +2367,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2324,14 +2384,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2340,14 +2400,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2380,7 +2440,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2390,14 +2450,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2406,14 +2466,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2423,11 +2483,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -2439,14 +2499,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2512,7 +2572,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2522,14 +2582,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>112</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2538,14 +2598,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2555,14 +2615,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>115</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2578,7 +2638,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2588,14 +2648,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2604,14 +2664,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2628,7 +2688,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2644,7 +2704,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2661,7 +2721,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2677,7 +2737,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2710,7 +2770,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2727,7 +2787,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2743,7 +2803,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2753,14 +2813,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2769,14 +2829,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2786,14 +2846,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>48</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2802,14 +2862,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2819,14 +2879,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2835,14 +2895,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2852,11 +2912,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2868,7 +2928,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2885,11 +2945,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2901,14 +2961,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2918,14 +2978,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2934,14 +2994,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2951,14 +3011,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2967,14 +3027,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2984,14 +3044,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3000,14 +3060,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3017,11 +3077,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3033,14 +3093,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3050,14 +3110,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3066,14 +3126,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3083,11 +3143,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3099,14 +3159,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3116,14 +3176,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3132,14 +3192,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3149,11 +3209,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3165,14 +3225,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3182,14 +3242,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3198,14 +3258,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3215,14 +3275,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3231,14 +3291,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3248,14 +3308,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3264,14 +3324,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3281,11 +3341,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3297,14 +3357,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3314,11 +3374,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3330,14 +3390,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3347,11 +3407,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3363,14 +3423,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3380,14 +3440,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3396,14 +3456,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3413,11 +3473,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3429,14 +3489,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3446,11 +3506,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3462,14 +3522,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>72</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3486,7 +3546,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3502,7 +3562,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3512,14 +3572,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>54</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3535,7 +3595,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3545,11 +3605,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3561,14 +3621,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3578,14 +3638,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3594,14 +3654,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3611,11 +3671,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>128</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3627,14 +3687,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3644,14 +3704,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3660,14 +3720,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3677,11 +3737,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>61</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3693,14 +3753,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3710,14 +3770,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>130</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3726,14 +3786,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>30</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3743,14 +3803,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3759,14 +3819,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3776,14 +3836,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3792,14 +3852,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>217</v>
+        <v>60</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3832,7 +3892,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3849,7 +3909,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3865,7 +3925,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3875,7 +3935,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3898,7 +3958,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3908,14 +3968,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3924,14 +3984,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3941,14 +4001,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>127</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>128</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3957,14 +4017,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3974,14 +4034,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3990,14 +4050,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4007,14 +4067,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>168</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>169</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4023,14 +4083,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4040,11 +4100,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4056,31 +4116,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4089,14 +4149,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4106,11 +4166,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4122,14 +4182,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4139,14 +4199,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4155,14 +4215,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4172,14 +4232,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>104</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4188,7 +4248,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4201,15 +4261,15 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>104</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4221,14 +4281,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4238,14 +4298,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4254,14 +4314,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4271,14 +4331,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4287,14 +4347,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4304,11 +4364,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4320,14 +4380,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4337,11 +4397,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>107</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4353,14 +4413,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4370,14 +4430,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4393,7 +4453,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4403,11 +4463,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>41</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4419,14 +4479,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4436,14 +4496,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4452,14 +4512,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4469,14 +4529,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4485,28 +4545,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>23</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4518,31 +4578,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>14</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>15</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4551,31 +4611,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>271</v>
+        <v>30</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>237</v>
+        <v>40</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>238</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4584,31 +4644,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>273</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4617,28 +4677,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>157</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4650,31 +4710,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>277</v>
+        <v>120</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>67</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>69</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4683,31 +4743,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>23</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>271</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4716,28 +4776,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>14</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4749,31 +4809,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>286</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4782,31 +4842,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>280</v>
+        <v>14</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>117</v>
+        <v>72</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4815,28 +4875,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4848,31 +4908,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>72</v>
+        <v>293</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>211</v>
+        <v>294</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>204</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4881,31 +4941,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>287</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4914,28 +4974,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>296</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4947,31 +5007,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>14</v>
+        <v>271</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>303</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4980,31 +5040,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>14</v>
+        <v>297</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>274</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5013,20 +5073,20 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
@@ -5034,10 +5094,10 @@
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>194</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5046,28 +5106,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>301</v>
+        <v>75</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>302</v>
+        <v>221</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5079,28 +5139,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5112,28 +5172,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>307</v>
+        <v>75</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>15</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5145,28 +5205,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5178,31 +5238,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>310</v>
+        <v>14</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>105</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5211,66 +5271,264 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>295</v>
+        <v>14</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
-      <c r="P118" s="13">
-        <v>5826.6700000000001</v>
-      </c>
-      <c r="Q118" s="13"/>
-    </row>
-    <row r="119" ht="16.5" customHeight="1">
-      <c t="s" r="A119" s="14">
-        <v>312</v>
-      </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c t="s" r="G119" s="15">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>319</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>320</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>83</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>321</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>322</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>323</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>287</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>83</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>294</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>324</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>325</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>326</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>83</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>14</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>327</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>26</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>83</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>130</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>328</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>329</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>75</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>83</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>330</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>331</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>120</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>83</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
         <v>313</v>
       </c>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="16"/>
-      <c t="s" r="K119" s="17">
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
         <v>314</v>
       </c>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
+      <c t="s" r="Q123" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>6315.3199999999997</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
+        <v>332</v>
+      </c>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
+        <v>333</v>
+      </c>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>334</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="567">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5834,10 +6092,40 @@
     <mergeCell ref="H117:K117"/>
     <mergeCell ref="L117:M117"/>
     <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="K119:Q119"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -1007,7 +1007,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 10:35 PM</t>
+    <t>Thursday, 29 May, 2025 10:41 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -1007,7 +1007,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 10:41 PM</t>
+    <t>Thursday, 29 May, 2025 10:50 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -350,309 +350,315 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>159.8400</t>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>207.8400</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>386.00</t>
+  </si>
+  <si>
+    <t>127.3800</t>
+  </si>
+  <si>
+    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
+    <t>ESMOPUMP 40 MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>172.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>EXEEDOGAST 40 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>FLAVICEF 100MG/5ML PD. FOR ORAL SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>303.00</t>
+  </si>
+  <si>
+    <t>99.9900</t>
+  </si>
+  <si>
+    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>MICONAZ 2% CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>MOODAPEX 50MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>43.5600</t>
+  </si>
+  <si>
+    <t>MUCO S.R 75MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>NACTALIA 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>230.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
+    <t>NEXIUM 40MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>488.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>NORGESIC 20 TAB.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>128.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
   </si>
   <si>
     <t>3:1</t>
   </si>
   <si>
-    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>386.00</t>
-  </si>
-  <si>
-    <t>127.3800</t>
-  </si>
-  <si>
-    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>104.00</t>
-  </si>
-  <si>
-    <t>104.0000</t>
-  </si>
-  <si>
-    <t>ESMOPUMP 40 MG 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>172.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>EXEEDOGAST 40 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>168.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>FLAVICEF 100MG/5ML PD. FOR ORAL SUSP. 30ML</t>
-  </si>
-  <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>303.00</t>
-  </si>
-  <si>
-    <t>99.9900</t>
-  </si>
-  <si>
-    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>HYACARENOL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>109.00</t>
-  </si>
-  <si>
-    <t>109.0000</t>
-  </si>
-  <si>
-    <t>MICONAZ 2% CREAM 20 GM</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>MOODAPEX 50MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>43.5600</t>
-  </si>
-  <si>
-    <t>MUCO S.R 75MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>64.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>MUCOSTA 100MG 20 TAB</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>NACTALIA 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>230.00</t>
-  </si>
-  <si>
-    <t>230.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>10.5600</t>
-  </si>
-  <si>
-    <t>NEXIUM 40MG 28 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>488.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>NORGESIC 20 TAB.</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>128.00</t>
-  </si>
-  <si>
-    <t>128.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>ORACURE ORAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>7:3</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+    <t>62.00</t>
   </si>
   <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>6:1</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -1007,7 +1013,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 10:50 PM</t>
+    <t>Thursday, 29 May, 2025 10:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3799,7 +3805,7 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3807,10 +3813,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3819,14 +3825,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3836,14 +3842,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>73</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3852,14 +3858,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3869,11 +3875,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>61</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3885,14 +3891,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3902,11 +3908,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3918,14 +3924,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>224</v>
+        <v>30</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3935,14 +3941,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3951,14 +3957,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3968,14 +3974,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3984,14 +3990,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4001,14 +4007,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4017,14 +4023,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4034,14 +4040,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4050,14 +4056,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4067,11 +4073,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4083,14 +4089,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4100,11 +4106,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>130</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>131</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4116,14 +4122,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4133,14 +4139,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>130</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4156,7 +4162,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4170,7 +4176,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4182,14 +4188,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4199,11 +4205,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>175</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4215,14 +4221,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4232,14 +4238,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4255,21 +4261,21 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>104</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4281,31 +4287,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4314,14 +4320,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4331,14 +4337,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>152</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>153</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4347,14 +4353,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4364,14 +4370,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>152</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4380,14 +4386,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4397,14 +4403,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>107</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4420,7 +4426,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4430,11 +4436,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>249</v>
+        <v>107</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4446,14 +4452,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4463,14 +4469,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>31</v>
+        <v>251</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4486,7 +4492,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4496,11 +4502,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>31</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4512,14 +4518,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4529,11 +4535,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4545,14 +4551,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>270</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4562,14 +4568,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4578,14 +4584,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>272</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4595,14 +4601,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4611,14 +4617,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4628,11 +4634,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>40</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>41</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4644,14 +4650,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4661,14 +4667,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4677,14 +4683,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4694,14 +4700,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>161</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4710,14 +4716,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4727,14 +4733,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4743,31 +4749,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>23</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>70</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4776,14 +4782,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4793,11 +4799,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4809,14 +4815,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4826,11 +4832,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4859,14 +4865,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4875,14 +4881,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>120</v>
+        <v>291</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4892,14 +4898,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4908,14 +4914,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>293</v>
+        <v>120</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4925,14 +4931,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>294</v>
+        <v>164</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>204</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4941,14 +4947,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4958,14 +4964,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>287</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4974,14 +4980,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4991,14 +4997,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>73</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>289</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5014,7 +5020,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5024,14 +5030,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>303</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5040,7 +5046,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5057,14 +5063,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>168</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>305</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5073,14 +5079,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5090,14 +5096,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>14</v>
+        <v>299</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5106,14 +5112,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5123,11 +5129,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>307</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5146,7 +5152,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>309</v>
+        <v>75</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5156,11 +5162,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>310</v>
+        <v>223</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5172,14 +5178,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>75</v>
+        <v>311</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5189,11 +5195,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5205,14 +5211,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5222,11 +5228,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>14</v>
+        <v>315</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>15</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5238,14 +5244,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5259,10 +5265,10 @@
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>290</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5271,14 +5277,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5292,10 +5298,10 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>120</v>
+        <v>72</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5311,7 +5317,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>320</v>
+        <v>79</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5321,14 +5327,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>321</v>
+        <v>14</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5337,14 +5343,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5354,7 +5360,7 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
@@ -5377,7 +5383,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5387,11 +5393,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>14</v>
+        <v>296</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>15</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5410,7 +5416,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>26</v>
+        <v>328</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5420,14 +5426,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>328</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5443,7 +5449,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5453,14 +5459,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>330</v>
+        <v>130</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>108</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5476,7 +5482,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5486,49 +5492,82 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>314</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
-      <c r="P124" s="13">
-        <v>6315.3199999999997</v>
-      </c>
-      <c r="Q124" s="13"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="14">
-        <v>332</v>
-      </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c t="s" r="G125" s="15">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
         <v>333</v>
       </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="16"/>
-      <c t="s" r="K125" s="17">
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>120</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>83</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>315</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>316</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="P125" s="13">
+        <v>6425.3199999999997</v>
+      </c>
+      <c r="Q125" s="13"/>
+    </row>
+    <row r="126" ht="16.5" customHeight="1">
+      <c t="s" r="A126" s="14">
         <v>334</v>
       </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
-      <c r="Q125" s="17"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c t="s" r="G126" s="15">
+        <v>335</v>
+      </c>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16"/>
+      <c t="s" r="K126" s="17">
+        <v>336</v>
+      </c>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+      <c r="N126" s="17"/>
+      <c r="O126" s="17"/>
+      <c r="P126" s="17"/>
+      <c r="Q126" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="597">
+  <mergeCells count="602">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6122,10 +6161,15 @@
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
     <mergeCell ref="N123:O123"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="K126:Q126"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -137,6 +137,18 @@
     <t>48.5100</t>
   </si>
   <si>
+    <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -248,9 +260,6 @@
     <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>188.00</t>
   </si>
   <si>
@@ -563,6 +572,15 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>MUCOBRAVE 600 MG 10 SACHETS</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>MUCOSTA 100MG 20 TAB</t>
   </si>
   <si>
@@ -695,6 +713,15 @@
     <t>132.0000</t>
   </si>
   <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -806,6 +833,12 @@
     <t>39.6000</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
@@ -971,9 +1004,6 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>75.0000</t>
-  </si>
-  <si>
     <t>كريم فاتيكا 190 مل</t>
   </si>
   <si>
@@ -1013,7 +1043,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 10:51 PM</t>
+    <t>Thursday, 29 May, 2025 10:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1928,14 +1958,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1944,14 +1974,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1961,14 +1991,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1984,7 +2014,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1994,11 +2024,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -2010,14 +2040,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2034,7 +2064,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2050,7 +2080,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2060,14 +2090,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2076,14 +2106,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2116,7 +2146,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2126,14 +2156,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2142,14 +2172,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2159,14 +2189,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2175,14 +2205,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2192,14 +2222,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2208,14 +2238,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2225,14 +2255,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2241,14 +2271,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2258,14 +2288,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2314,24 +2344,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2340,20 +2370,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2380,7 +2410,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2390,14 +2420,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>92</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2406,14 +2436,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2423,14 +2453,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2439,14 +2469,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2479,7 +2509,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2489,14 +2519,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2505,14 +2535,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2522,11 +2552,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2538,14 +2568,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2578,7 +2608,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2611,7 +2641,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2621,14 +2651,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>115</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2637,14 +2667,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2654,14 +2684,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>118</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2677,7 +2707,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2687,14 +2717,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2703,14 +2733,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2727,7 +2757,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2743,7 +2773,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2760,7 +2790,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2776,7 +2806,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2809,7 +2839,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2826,7 +2856,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2842,7 +2872,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2852,14 +2882,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2875,7 +2905,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2885,14 +2915,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2901,14 +2931,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2918,14 +2948,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2941,7 +2971,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2974,7 +3004,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2984,7 +3014,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -3007,7 +3037,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3017,7 +3047,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>68</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -3040,7 +3070,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3057,7 +3087,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3106,7 +3136,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3123,7 +3153,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3139,7 +3169,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3156,7 +3186,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3172,7 +3202,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3189,7 +3219,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3205,7 +3235,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3222,7 +3252,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3238,7 +3268,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3248,14 +3278,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3264,14 +3294,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3281,14 +3311,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3304,7 +3334,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3314,11 +3344,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3330,7 +3360,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3347,14 +3377,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>14</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3370,7 +3400,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3380,11 +3410,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3396,7 +3426,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3413,11 +3443,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>18</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3436,7 +3466,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3469,7 +3499,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3502,7 +3532,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3535,7 +3565,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3568,7 +3598,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3585,7 +3615,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3601,7 +3631,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3618,7 +3648,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3634,7 +3664,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3644,14 +3674,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3660,14 +3690,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3677,11 +3707,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3693,14 +3723,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>206</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3710,11 +3740,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>130</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3726,14 +3756,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3743,14 +3773,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>58</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3759,14 +3789,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3776,11 +3806,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3792,31 +3822,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>55</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3825,14 +3855,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3842,14 +3872,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>133</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3865,24 +3895,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>61</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3891,14 +3921,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3908,14 +3938,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3924,14 +3954,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3941,11 +3971,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>65</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3964,7 +3994,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>226</v>
+        <v>64</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3974,14 +4004,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3997,7 +4027,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4007,11 +4037,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -4023,14 +4053,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>43</v>
+        <v>232</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4040,14 +4070,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4056,14 +4086,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4073,11 +4103,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4089,14 +4119,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4113,7 +4143,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4129,7 +4159,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4139,14 +4169,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>130</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>131</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4155,14 +4185,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4172,14 +4202,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>65</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4188,14 +4218,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4205,14 +4235,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4221,14 +4251,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4238,14 +4268,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4254,14 +4284,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4271,14 +4301,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>104</v>
+        <v>252</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4287,31 +4317,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4320,14 +4350,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4337,11 +4367,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>178</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4353,14 +4383,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4370,11 +4400,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>153</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4386,31 +4416,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4419,14 +4449,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4436,14 +4466,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>107</v>
+        <v>263</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4452,14 +4482,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4469,11 +4499,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>251</v>
+        <v>155</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>252</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4485,14 +4515,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4502,11 +4532,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>31</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4518,14 +4548,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4535,14 +4565,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>110</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4551,14 +4581,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4568,14 +4598,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4584,14 +4614,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>272</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4601,14 +4631,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>31</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4617,14 +4647,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4634,14 +4664,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>136</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4650,14 +4680,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4667,11 +4697,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>40</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>41</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4700,14 +4730,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>161</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>128</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4716,14 +4746,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>20</v>
+        <v>283</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4733,11 +4763,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4749,14 +4779,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4766,14 +4796,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4782,31 +4812,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4815,31 +4845,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4848,28 +4878,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>252</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4881,31 +4911,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>291</v>
+        <v>123</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>14</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4914,28 +4944,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>164</v>
+        <v>23</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>292</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4947,31 +4977,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>295</v>
+        <v>43</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>296</v>
+        <v>14</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>297</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>204</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4980,31 +5010,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>79</v>
+        <v>300</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>289</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5020,24 +5050,24 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>120</v>
+        <v>302</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>302</v>
+        <v>14</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>73</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5046,31 +5076,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>273</v>
+        <v>167</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>305</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5079,31 +5109,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>79</v>
+        <v>306</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>168</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>210</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5112,31 +5142,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>14</v>
+        <v>310</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>15</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5145,28 +5175,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>223</v>
+        <v>313</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>309</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5178,31 +5208,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>311</v>
+        <v>43</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>316</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5211,31 +5241,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>316</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5244,20 +5274,20 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
@@ -5277,31 +5307,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5310,31 +5340,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>14</v>
+        <v>323</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5343,28 +5373,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5376,28 +5406,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>289</v>
+        <v>16</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>296</v>
+        <v>14</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>326</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5409,20 +5439,20 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>328</v>
+        <v>50</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
@@ -5430,10 +5460,10 @@
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>15</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5442,31 +5472,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>330</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>26</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5482,21 +5512,21 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>75</v>
+        <v>332</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>108</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5508,66 +5538,198 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
-      <c r="P125" s="13">
-        <v>6425.3199999999997</v>
-      </c>
-      <c r="Q125" s="13"/>
-    </row>
-    <row r="126" ht="16.5" customHeight="1">
-      <c t="s" r="A126" s="14">
-        <v>334</v>
-      </c>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c t="s" r="G126" s="15">
-        <v>335</v>
-      </c>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="16"/>
-      <c t="s" r="K126" s="17">
-        <v>336</v>
-      </c>
-      <c r="L126" s="17"/>
-      <c r="M126" s="17"/>
-      <c r="N126" s="17"/>
-      <c r="O126" s="17"/>
-      <c r="P126" s="17"/>
-      <c r="Q126" s="17"/>
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>337</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>338</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>86</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>14</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>339</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>26</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>86</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>133</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>340</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>341</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>79</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>86</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>342</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>343</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>123</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>86</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>326</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>327</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="P129" s="13">
+        <v>6628.3199999999997</v>
+      </c>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
+        <v>344</v>
+      </c>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
+        <v>345</v>
+      </c>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
+        <v>346</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="602">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6166,10 +6328,30 @@
     <mergeCell ref="H124:K124"/>
     <mergeCell ref="L124:M124"/>
     <mergeCell ref="N124:O124"/>
-    <mergeCell ref="P125:Q125"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="K126:Q126"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -860,15 +860,12 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8714:0</t>
+    <t>8713:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
-  </si>
-  <si>
     <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
   </si>
   <si>
@@ -929,13 +926,13 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>46:0</t>
+    <t>45:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
-    <t>80.0000</t>
+    <t>100.0000</t>
   </si>
   <si>
     <t>حبايه</t>
@@ -956,10 +953,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>64.0000</t>
-  </si>
-  <si>
-    <t>32:0</t>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>33:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1043,7 +1040,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 10:54 PM</t>
+    <t>Thursday, 29 May, 2025 10:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4767,10 +4764,10 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>285</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4779,7 +4776,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4796,11 +4793,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4812,7 +4809,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4845,7 +4842,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4878,7 +4875,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4895,11 +4892,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4911,7 +4908,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4928,11 +4925,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>26</v>
@@ -4944,7 +4941,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4977,7 +4974,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5010,14 +5007,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5043,14 +5040,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5064,7 +5061,7 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>76</v>
@@ -5076,7 +5073,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5097,7 +5094,7 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5109,14 +5106,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5126,14 +5123,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>210</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5142,7 +5139,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5159,14 +5156,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5175,7 +5172,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5192,7 +5189,7 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
@@ -5208,7 +5205,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5229,10 +5226,10 @@
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
+        <v>314</v>
+      </c>
+      <c t="s" r="Q114" s="12">
         <v>315</v>
-      </c>
-      <c t="s" r="Q114" s="12">
-        <v>316</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5241,7 +5238,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5258,7 +5255,7 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
@@ -5274,7 +5271,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5307,7 +5304,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5328,7 +5325,7 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5340,14 +5337,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5357,11 +5354,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5373,7 +5370,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5390,11 +5387,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5406,7 +5403,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5439,7 +5436,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5460,7 +5457,7 @@
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>76</v>
@@ -5472,7 +5469,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5493,10 +5490,10 @@
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>123</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5505,14 +5502,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5522,11 +5519,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5538,14 +5535,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5555,11 +5552,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5571,14 +5568,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5604,7 +5601,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5625,7 +5622,7 @@
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>26</v>
@@ -5637,7 +5634,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5654,7 +5651,7 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
@@ -5670,7 +5667,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5687,11 +5684,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5699,13 +5696,13 @@
     </row>
     <row r="129" ht="25.5" customHeight="1">
       <c r="P129" s="13">
-        <v>6628.3199999999997</v>
+        <v>6667.3199999999997</v>
       </c>
       <c r="Q129" s="13"/>
     </row>
     <row r="130" ht="16.5" customHeight="1">
       <c t="s" r="A130" s="14">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B130" s="14"/>
       <c r="C130" s="14"/>
@@ -5713,13 +5710,13 @@
       <c r="E130" s="14"/>
       <c r="F130" s="14"/>
       <c t="s" r="G130" s="15">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H130" s="15"/>
       <c r="I130" s="15"/>
       <c r="J130" s="16"/>
       <c t="s" r="K130" s="17">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L130" s="17"/>
       <c r="M130" s="17"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -1040,7 +1040,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 10:55 PM</t>
+    <t>Thursday, 29 May, 2025 10:56 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -110,6 +110,18 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>BIVATRACIN 150MG POWDER SPRAY</t>
   </si>
   <si>
@@ -215,9 +227,6 @@
     <t>COBAL F 500/200MCG 30 F.C. TAB</t>
   </si>
   <si>
-    <t>54.00</t>
-  </si>
-  <si>
     <t>35.6400</t>
   </si>
   <si>
@@ -398,6 +407,15 @@
     <t>86.0000</t>
   </si>
   <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>138.0000</t>
+  </si>
+  <si>
     <t>EXEEDOGAST 40 MG 20 CAPS.</t>
   </si>
   <si>
@@ -641,9 +659,6 @@
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>31.0000</t>
   </si>
   <si>
@@ -851,9 +866,6 @@
     <t>VONDALOUS 20MG 20 F.C. TAB</t>
   </si>
   <si>
-    <t>138.00</t>
-  </si>
-  <si>
     <t>69.0000</t>
   </si>
   <si>
@@ -941,9 +953,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t>زيت فاتيكا وسط 90 مل</t>
   </si>
   <si>
@@ -1040,7 +1049,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 10:56 PM</t>
+    <t>Thursday, 29 May, 2025 11:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1846,7 +1855,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1856,14 +1865,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1872,7 +1881,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1889,14 +1898,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1905,14 +1914,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1922,11 +1931,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>20</v>
@@ -1938,14 +1947,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1962,7 +1971,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1988,14 +1997,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2004,14 +2013,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2021,14 +2030,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2044,7 +2053,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2054,11 +2063,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -2070,14 +2079,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2094,7 +2103,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2110,7 +2119,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2120,14 +2129,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2136,14 +2145,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2176,7 +2185,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2186,14 +2195,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2202,14 +2211,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2219,14 +2228,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2242,7 +2251,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2252,14 +2261,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2268,14 +2277,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2285,14 +2294,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2318,14 +2327,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2334,14 +2343,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2374,24 +2383,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2400,20 +2409,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2440,7 +2449,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2450,14 +2459,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2466,14 +2475,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2483,14 +2492,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2499,14 +2508,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2539,7 +2548,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2549,14 +2558,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2565,14 +2574,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2582,11 +2591,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2598,14 +2607,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2638,7 +2647,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2671,7 +2680,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2681,14 +2690,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>118</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2697,14 +2706,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2714,14 +2723,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>121</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2737,7 +2746,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2747,14 +2756,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2763,14 +2772,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2787,7 +2796,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2803,7 +2812,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2820,7 +2829,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2836,7 +2845,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2869,7 +2878,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2886,7 +2895,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2902,7 +2911,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2912,14 +2921,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2935,7 +2944,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2945,14 +2954,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2961,14 +2970,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2978,11 +2987,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2994,14 +3003,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3011,14 +3020,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3034,7 +3043,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3044,7 +3053,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -3067,7 +3076,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3100,7 +3109,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3110,14 +3119,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>35</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3133,7 +3142,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3150,7 +3159,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3166,7 +3175,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3183,7 +3192,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3199,7 +3208,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3232,7 +3241,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3249,7 +3258,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3265,7 +3274,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3298,7 +3307,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3308,14 +3317,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3324,14 +3333,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3341,11 +3350,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3357,14 +3366,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3374,14 +3383,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3390,7 +3399,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3407,14 +3416,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3423,14 +3432,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3440,14 +3449,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3456,14 +3465,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3473,11 +3482,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3489,14 +3498,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3506,11 +3515,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3529,7 +3538,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3546,7 +3555,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3562,7 +3571,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3595,7 +3604,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3628,7 +3637,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3661,7 +3670,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3678,7 +3687,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3694,7 +3703,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3711,7 +3720,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3727,7 +3736,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3737,14 +3746,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3753,14 +3762,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>210</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3770,11 +3779,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>58</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3786,14 +3795,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>212</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3803,11 +3812,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>133</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>134</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3819,14 +3828,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>214</v>
+        <v>34</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3836,14 +3845,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>62</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3859,7 +3868,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3869,11 +3878,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3898,7 +3907,7 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3906,10 +3915,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>59</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3918,14 +3927,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3935,14 +3944,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>139</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3951,31 +3960,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>43</v>
+        <v>224</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>65</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3984,14 +3993,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4001,14 +4010,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4017,14 +4026,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4034,11 +4043,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>69</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -4050,14 +4059,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>232</v>
+        <v>68</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4067,14 +4076,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4083,14 +4092,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4100,14 +4109,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4116,14 +4125,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4133,14 +4142,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>188</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4149,7 +4158,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4166,14 +4175,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4182,14 +4191,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>243</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4199,14 +4208,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4215,14 +4224,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4232,14 +4241,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4248,14 +4257,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4265,11 +4274,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>133</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>134</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4281,14 +4290,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4298,14 +4307,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>69</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4314,14 +4323,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4331,14 +4340,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>254</v>
+        <v>139</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>255</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4364,11 +4373,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>178</v>
+        <v>257</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>179</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4380,14 +4389,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4397,14 +4406,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>107</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4413,31 +4422,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>184</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4453,7 +4462,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4463,14 +4472,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>263</v>
+        <v>110</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4479,28 +4488,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>155</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>156</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4512,14 +4521,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4529,11 +4538,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4545,14 +4554,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4562,11 +4571,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4585,7 +4594,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4595,14 +4604,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4611,7 +4620,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4628,14 +4637,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4644,14 +4653,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4661,11 +4670,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>136</v>
+        <v>265</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4677,14 +4686,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4694,7 +4703,7 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>31</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
@@ -4717,7 +4726,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4727,14 +4736,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>142</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4743,14 +4752,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>283</v>
+        <v>68</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4760,14 +4769,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>216</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4776,7 +4785,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4793,11 +4802,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>286</v>
+        <v>133</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4809,14 +4818,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>30</v>
+        <v>287</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4826,14 +4835,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>40</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4859,14 +4868,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>164</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>131</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4875,14 +4884,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4892,14 +4901,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>44</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4915,7 +4924,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4925,14 +4934,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>294</v>
+        <v>170</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>295</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>26</v>
+        <v>79</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4941,28 +4950,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>74</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4981,24 +4990,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>14</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5007,28 +5016,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>299</v>
+        <v>26</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5040,20 +5049,20 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>301</v>
+        <v>47</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
@@ -5061,10 +5070,10 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5073,28 +5082,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>123</v>
+        <v>303</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>167</v>
+        <v>265</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5119,18 +5128,18 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>306</v>
+        <v>14</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>123</v>
+        <v>79</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5139,31 +5148,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>309</v>
+        <v>173</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>299</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5172,31 +5181,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5205,31 +5214,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>314</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5238,31 +5247,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5271,31 +5280,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>14</v>
+        <v>288</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>15</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>318</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5304,31 +5313,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>229</v>
+        <v>313</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>319</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5344,21 +5353,21 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>321</v>
+        <v>26</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>322</v>
+        <v>14</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>323</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5370,28 +5379,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>325</v>
+        <v>234</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5403,28 +5412,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>16</v>
+        <v>324</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>14</v>
+        <v>325</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>15</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5436,31 +5445,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>14</v>
+        <v>328</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5469,20 +5478,20 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
@@ -5490,10 +5499,10 @@
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5502,31 +5511,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>331</v>
+        <v>54</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>332</v>
+        <v>14</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5535,31 +5544,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>299</v>
+        <v>47</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>306</v>
+        <v>14</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>335</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5568,28 +5577,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>14</v>
+        <v>335</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>15</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5601,31 +5610,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>26</v>
+        <v>303</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>133</v>
+        <v>310</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5634,28 +5643,28 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>341</v>
+        <v>14</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5667,66 +5676,132 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>325</v>
+        <v>139</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
-      <c r="P129" s="13">
-        <v>6667.3199999999997</v>
-      </c>
-      <c r="Q129" s="13"/>
-    </row>
-    <row r="130" ht="16.5" customHeight="1">
-      <c t="s" r="A130" s="14">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
         <v>343</v>
       </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c t="s" r="G130" s="15">
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>82</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>89</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
         <v>344</v>
       </c>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="16"/>
-      <c t="s" r="K130" s="17">
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
         <v>345</v>
       </c>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>126</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>89</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>328</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>329</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="P131" s="13">
+        <v>6832.3199999999997</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
+        <v>346</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
+        <v>347</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
+        <v>348</v>
+      </c>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="622">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6345,10 +6420,20 @@
     <mergeCell ref="H128:K128"/>
     <mergeCell ref="L128:M128"/>
     <mergeCell ref="N128:O128"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -962,10 +962,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>33:0</t>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>34:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -4429,7 +4429,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4443,10 +4443,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>185</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -5771,7 +5771,7 @@
     </row>
     <row r="131" ht="25.5" customHeight="1">
       <c r="P131" s="13">
-        <v>6832.3199999999997</v>
+        <v>6847.1899999999996</v>
       </c>
       <c r="Q131" s="13"/>
     </row>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -110,849 +110,858 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>BLOKATENS 5/80MG 28 F.C. TAB</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>61.0000</t>
+  </si>
+  <si>
+    <t>BRONCHONEER 30 TAB</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>48.5100</t>
+  </si>
+  <si>
+    <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>CLOZAPEX 25MG 50 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>COBAL F 500/200MCG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>CONCOR COR 2.5MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
+    <t>COXORIZET CAPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
+    <t>82.1700</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DEVAROL-S 200000 I.U AMPOULE</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DIASMECT 3GM 10 SACHETS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>2.1000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOLCYL 2MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>207.8400</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>386.00</t>
+  </si>
+  <si>
+    <t>127.3800</t>
+  </si>
+  <si>
+    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
+    <t>ESMOPUMP 40 MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>172.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>138.0000</t>
+  </si>
+  <si>
+    <t>EXEEDOGAST 40 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>FLAVICEF 100MG/5ML PD. FOR ORAL SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>303.00</t>
+  </si>
+  <si>
+    <t>99.9900</t>
+  </si>
+  <si>
+    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>KETOFAN 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>14.8500</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>MICONAZ 2% CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>MOODAPEX 50MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>43.5600</t>
+  </si>
+  <si>
+    <t>MUCO S.R 75MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>MUCOBRAVE 600 MG 10 SACHETS</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>NACTALIA 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>230.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
+    <t>NEXIUM 40MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>488.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>NORGESIC 20 TAB.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>128.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>54.00</t>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>PANTOPI 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>PAROFEN 30 OBLONG TAB.</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>PROTOZOLE 500 MG 12 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>3.9600</t>
+  </si>
+  <si>
+    <t>QUIBRON T/SR 300MG 100 TAB</t>
+  </si>
+  <si>
+    <t>0:25</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:14</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
+    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>SEDOKAST 10MG 10 F.C. TAB</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>SIDERAL FOLIC 20 ORODISPERSIBLE STICKS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
+  </si>
+  <si>
+    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>SPOTLESS FACE CREAM 18 GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
+    <t>T4-THYRO 50 MCG 100 TABS.</t>
+  </si>
+  <si>
+    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>ULTRA FEET CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>VERSERC 24MG 30 TAB</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>VONDALOUS 20MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8713:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>189.00</t>
+  </si>
+  <si>
+    <t>94.5000</t>
+  </si>
+  <si>
+    <t>XANTHISTOP 80 MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>XORAXON 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>ZURCAL 20 MG 14 GASTRO-RESISTANT TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
+    <t>ايفا كريم 170 جم</t>
+  </si>
+  <si>
+    <t>ايفا كريم 20 جم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 5سم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>45:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
   </si>
   <si>
     <t>27.0000</t>
   </si>
   <si>
-    <t>BIVATRACIN 150MG POWDER SPRAY</t>
-  </si>
-  <si>
-    <t>83.00</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t>BLOKATENS 5/80MG 28 F.C. TAB</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>61.0000</t>
-  </si>
-  <si>
-    <t>BRONCHONEER 30 TAB</t>
-  </si>
-  <si>
-    <t>147.00</t>
-  </si>
-  <si>
-    <t>48.5100</t>
-  </si>
-  <si>
-    <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>19.2000</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
-  </si>
-  <si>
-    <t>13.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>42.9000</t>
-  </si>
-  <si>
-    <t>CLOZAPEX 25MG 50 TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>COBAL F 500/200MCG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>CONCOR COR 2.5MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
-  </si>
-  <si>
-    <t>188.00</t>
-  </si>
-  <si>
-    <t>188.0000</t>
-  </si>
-  <si>
-    <t>COXORIZET CAPS</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>249.00</t>
-  </si>
-  <si>
-    <t>82.1700</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>DEVAROL-S 200000 I.U AMPOULE</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DIASMECT 3GM 10 SACHETS</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>2.1000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOLCYL 2MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>207.8400</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>386.00</t>
-  </si>
-  <si>
-    <t>127.3800</t>
-  </si>
-  <si>
-    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>104.00</t>
-  </si>
-  <si>
-    <t>104.0000</t>
-  </si>
-  <si>
-    <t>ESMOPUMP 40 MG 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>172.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>ESMORAP 40MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>138.0000</t>
-  </si>
-  <si>
-    <t>EXEEDOGAST 40 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>168.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>FLAVICEF 100MG/5ML PD. FOR ORAL SUSP. 30ML</t>
-  </si>
-  <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>303.00</t>
-  </si>
-  <si>
-    <t>99.9900</t>
-  </si>
-  <si>
-    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>HYACARENOL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>109.00</t>
-  </si>
-  <si>
-    <t>109.0000</t>
-  </si>
-  <si>
-    <t>MICONAZ 2% CREAM 20 GM</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>MOODAPEX 50MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>43.5600</t>
-  </si>
-  <si>
-    <t>MUCO S.R 75MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>64.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>MUCOBRAVE 600 MG 10 SACHETS</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>MUCOSTA 100MG 20 TAB</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>NACTALIA 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>230.00</t>
-  </si>
-  <si>
-    <t>230.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>10.5600</t>
-  </si>
-  <si>
-    <t>NEXIUM 40MG 28 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>488.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>NORGESIC 20 TAB.</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>128.00</t>
-  </si>
-  <si>
-    <t>128.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>ORACURE ORAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>7:3</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>PANADOL ACUTE HEAD COLD</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>PANTOPI 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>PAROFEN 30 OBLONG TAB.</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>PROTOZOLE 500 MG 12 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>3.9600</t>
-  </si>
-  <si>
-    <t>QUIBRON T/SR 300MG 100 TAB</t>
-  </si>
-  <si>
-    <t>0:25</t>
-  </si>
-  <si>
-    <t>132.0000</t>
-  </si>
-  <si>
-    <t>REPARIL-GEL N 40 GM</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:14</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>7.0500</t>
-  </si>
-  <si>
-    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
-  </si>
-  <si>
-    <t>275.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>SEDOKAST 10MG 10 F.C. TAB</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>59.0000</t>
-  </si>
-  <si>
-    <t>SIDERAL FOLIC 20 ORODISPERSIBLE STICKS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
-  </si>
-  <si>
-    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>SPOTLESS FACE CREAM 18 GM</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>45.0450</t>
-  </si>
-  <si>
-    <t>T4-THYRO 50 MCG 100 TABS.</t>
-  </si>
-  <si>
-    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>ULTRA FEET CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>VERSERC 24MG 30 TAB</t>
-  </si>
-  <si>
-    <t>39.6000</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>VONDALOUS 20MG 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8713:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>189.00</t>
-  </si>
-  <si>
-    <t>94.5000</t>
-  </si>
-  <si>
-    <t>XANTHISTOP 80 MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>XORAXON 1GM I.V. VIAL</t>
-  </si>
-  <si>
-    <t>ZURCAL 20 MG 14 GASTRO-RESISTANT TABS.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>192.0000</t>
-  </si>
-  <si>
-    <t>ايفا كريم 170 جم</t>
-  </si>
-  <si>
-    <t>ايفا كريم 20 جم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برفان القصاص </t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>17:0</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 5سم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>45:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>زيت فاتيكا وسط 90 مل</t>
   </si>
   <si>
@@ -1049,7 +1058,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 11:03 PM</t>
+    <t>Thursday, 29 May, 2025 11:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1855,7 +1864,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1865,14 +1874,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1881,7 +1890,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1898,14 +1907,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1914,14 +1923,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1931,11 +1940,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>20</v>
@@ -1947,14 +1956,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1971,7 +1980,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1997,14 +2006,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2013,14 +2022,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2030,14 +2039,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2053,7 +2062,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2063,11 +2072,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -2079,14 +2088,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2103,7 +2112,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2119,7 +2128,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2129,14 +2138,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2145,14 +2154,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2185,7 +2194,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2195,14 +2204,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2211,14 +2220,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2228,14 +2237,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2251,7 +2260,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2261,14 +2270,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2277,14 +2286,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2294,14 +2303,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2327,14 +2336,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2343,14 +2352,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2383,24 +2392,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2409,20 +2418,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2449,7 +2458,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2459,14 +2468,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2475,14 +2484,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2492,14 +2501,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2508,14 +2517,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2548,7 +2557,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2558,14 +2567,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2574,14 +2583,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2591,11 +2600,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2607,14 +2616,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2647,7 +2656,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2680,7 +2689,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2690,14 +2699,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2706,14 +2715,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2723,14 +2732,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>121</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2746,7 +2755,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2756,14 +2765,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2772,14 +2781,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2796,7 +2805,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2812,7 +2821,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2829,7 +2838,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2845,7 +2854,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2878,7 +2887,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2888,11 +2897,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2904,14 +2913,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2921,14 +2930,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2937,14 +2946,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2954,14 +2963,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2970,14 +2979,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2987,14 +2996,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3003,14 +3012,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3020,14 +3029,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3036,14 +3045,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3053,11 +3062,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -3069,14 +3078,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3086,11 +3095,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -3102,14 +3111,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>155</v>
+        <v>47</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3119,11 +3128,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -3135,14 +3144,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3152,14 +3161,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3168,7 +3177,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3185,11 +3194,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3201,14 +3210,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3218,14 +3227,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3234,14 +3243,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3251,14 +3260,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3267,14 +3276,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3284,14 +3293,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3300,14 +3309,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3317,14 +3326,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3340,7 +3349,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3373,7 +3382,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3383,11 +3392,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3406,7 +3415,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3439,7 +3448,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3472,7 +3481,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3571,7 +3580,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3604,7 +3613,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3637,7 +3646,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3670,7 +3679,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3703,7 +3712,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3835,7 +3844,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>34</v>
+        <v>216</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3845,11 +3854,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3861,7 +3870,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3878,11 +3887,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3894,14 +3903,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3911,11 +3920,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3927,7 +3936,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3944,11 +3953,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3960,28 +3969,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3993,14 +4002,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4010,11 +4019,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>30</v>
@@ -4026,14 +4035,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4043,11 +4052,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -4059,14 +4068,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4076,11 +4085,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -4092,7 +4101,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4109,11 +4118,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -4125,14 +4134,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4146,7 +4155,7 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4158,14 +4167,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4175,11 +4184,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4191,14 +4200,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4208,11 +4217,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4224,14 +4233,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4241,11 +4250,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>30</v>
@@ -4257,7 +4266,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4274,11 +4283,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4290,14 +4299,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4307,11 +4316,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4323,14 +4332,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4340,11 +4349,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4356,7 +4365,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4373,11 +4382,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4389,7 +4398,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4406,11 +4415,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4422,7 +4431,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4443,7 +4452,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>30</v>
@@ -4455,14 +4464,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4472,11 +4481,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4488,7 +4497,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4501,15 +4510,15 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4521,7 +4530,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4538,11 +4547,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4554,14 +4563,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4571,11 +4580,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4587,7 +4596,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4604,11 +4613,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4620,7 +4629,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4637,11 +4646,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4653,14 +4662,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4670,11 +4679,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4686,7 +4695,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4703,11 +4712,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4726,7 +4735,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4736,14 +4745,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4759,7 +4768,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4769,14 +4778,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>140</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4785,14 +4794,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4802,7 +4811,7 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>133</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
@@ -4825,7 +4834,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>287</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4835,14 +4844,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>130</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>221</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4851,14 +4860,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4872,10 +4881,10 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4884,14 +4893,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4901,11 +4910,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>44</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -4917,14 +4926,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4934,14 +4943,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4950,14 +4959,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4967,14 +4976,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>168</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4983,14 +4992,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5000,14 +5009,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5016,31 +5025,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>23</v>
+        <v>300</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5049,28 +5058,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5082,28 +5091,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>303</v>
+        <v>43</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>265</v>
+        <v>14</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5128,18 +5137,18 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>14</v>
+        <v>266</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5148,31 +5157,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>126</v>
+        <v>307</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5181,31 +5190,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>309</v>
+        <v>123</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>310</v>
+        <v>171</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5214,31 +5223,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>47</v>
+        <v>311</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>36</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>303</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5254,13 +5263,13 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
@@ -5268,10 +5277,10 @@
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>305</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5280,31 +5289,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>317</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>318</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5320,24 +5329,24 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>177</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>12</v>
+        <v>321</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5346,31 +5355,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>14</v>
+        <v>315</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5379,28 +5388,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>234</v>
+        <v>14</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>322</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5412,28 +5421,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>325</v>
+        <v>235</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5445,20 +5454,20 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>82</v>
+        <v>327</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
@@ -5485,21 +5494,21 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>14</v>
+        <v>331</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>15</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5511,20 +5520,20 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
@@ -5532,10 +5541,10 @@
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>306</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5544,20 +5553,20 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
@@ -5565,10 +5574,10 @@
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>174</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5577,31 +5586,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>334</v>
+        <v>43</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>335</v>
+        <v>14</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>336</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5610,28 +5619,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5643,28 +5652,28 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>14</v>
+        <v>312</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>15</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5676,31 +5685,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>26</v>
+        <v>343</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>342</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5709,31 +5718,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>344</v>
+        <v>137</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>114</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5742,66 +5751,99 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>329</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
-      <c r="P131" s="13">
-        <v>6847.1899999999996</v>
-      </c>
-      <c r="Q131" s="13"/>
-    </row>
-    <row r="132" ht="16.5" customHeight="1">
-      <c t="s" r="A132" s="14">
-        <v>346</v>
-      </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c t="s" r="G132" s="15">
-        <v>347</v>
-      </c>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="16"/>
-      <c t="s" r="K132" s="17">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
         <v>348</v>
       </c>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="17"/>
-      <c r="Q132" s="17"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>123</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>86</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>331</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>332</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="P132" s="13">
+        <v>6841.1599999999999</v>
+      </c>
+      <c r="Q132" s="13"/>
+    </row>
+    <row r="133" ht="16.5" customHeight="1">
+      <c t="s" r="A133" s="14">
+        <v>349</v>
+      </c>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c t="s" r="G133" s="15">
+        <v>350</v>
+      </c>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="16"/>
+      <c t="s" r="K133" s="17">
+        <v>351</v>
+      </c>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="17"/>
+      <c r="P133" s="17"/>
+      <c r="Q133" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="632">
+  <mergeCells count="637">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6430,10 +6472,15 @@
     <mergeCell ref="H130:K130"/>
     <mergeCell ref="L130:M130"/>
     <mergeCell ref="N130:O130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="P132:Q132"/>
+    <mergeCell ref="A133:F133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="K133:Q133"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -959,7 +959,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>27.0000</t>
+    <t>11:0</t>
   </si>
   <si>
     <t>زيت فاتيكا وسط 90 مل</t>
@@ -1058,7 +1058,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 11:09 PM</t>
+    <t>Thursday, 29 May, 2025 11:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5277,10 +5277,10 @@
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q115" s="12">
         <v>316</v>
-      </c>
-      <c t="s" r="Q115" s="12">
-        <v>305</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5813,7 +5813,7 @@
     </row>
     <row r="132" ht="25.5" customHeight="1">
       <c r="P132" s="13">
-        <v>6841.1599999999999</v>
+        <v>6847.1599999999999</v>
       </c>
       <c r="Q132" s="13"/>
     </row>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -1058,7 +1058,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 11:14 PM</t>
+    <t>Thursday, 29 May, 2025 11:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -1058,7 +1058,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 11:21 PM</t>
+    <t>Thursday, 29 May, 2025 11:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -278,6 +278,15 @@
     <t>82.1700</t>
   </si>
   <si>
+    <t>CURAM 1GM 12 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>182.00</t>
+  </si>
+  <si>
+    <t>60.0600</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -1058,7 +1067,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 11:22 PM</t>
+    <t>Thursday, 29 May, 2025 11:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2425,7 +2434,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2458,7 +2467,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2468,14 +2477,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2484,14 +2493,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2501,14 +2510,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2517,14 +2526,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2557,7 +2566,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2567,14 +2576,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2583,14 +2592,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2600,11 +2609,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2616,14 +2625,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2689,7 +2698,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2699,14 +2708,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>118</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2715,14 +2724,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2732,14 +2741,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>121</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2755,7 +2764,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2765,14 +2774,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2781,14 +2790,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2805,7 +2814,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2821,7 +2830,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2838,7 +2847,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2854,7 +2863,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2887,7 +2896,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2897,11 +2906,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2913,14 +2922,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2937,7 +2946,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2953,7 +2962,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2963,14 +2972,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2986,7 +2995,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2996,14 +3005,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3012,14 +3021,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3029,14 +3038,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3052,7 +3061,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3085,7 +3094,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3095,7 +3104,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -3118,7 +3127,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3128,7 +3137,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -3151,7 +3160,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3168,7 +3177,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3217,7 +3226,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3234,7 +3243,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3250,7 +3259,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3267,7 +3276,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3283,7 +3292,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3300,7 +3309,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3316,7 +3325,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3326,14 +3335,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3342,14 +3351,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3359,14 +3368,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3382,7 +3391,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3392,14 +3401,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>113</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3408,14 +3417,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3425,14 +3434,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3458,11 +3467,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3474,14 +3483,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3491,14 +3500,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>14</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3514,7 +3523,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3524,11 +3533,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3540,7 +3549,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3557,11 +3566,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3580,7 +3589,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3630,7 +3639,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3646,7 +3655,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3663,7 +3672,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3679,7 +3688,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3696,7 +3705,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3712,7 +3721,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3729,7 +3738,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3745,7 +3754,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3795,7 +3804,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3811,7 +3820,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3821,11 +3830,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3837,14 +3846,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3854,7 +3863,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>58</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3877,7 +3886,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>219</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3887,11 +3896,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>138</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3903,14 +3912,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3920,14 +3929,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3936,14 +3945,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3953,14 +3962,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>137</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>138</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3969,28 +3978,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>140</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4009,24 +4018,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>116</v>
+        <v>228</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4042,7 +4051,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4052,14 +4061,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>65</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4068,14 +4077,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4085,11 +4094,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>65</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -4108,7 +4117,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4141,7 +4150,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>238</v>
+        <v>30</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4151,14 +4160,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4174,7 +4183,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>43</v>
+        <v>241</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4184,7 +4193,7 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>191</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
@@ -4207,7 +4216,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>244</v>
+        <v>43</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4217,14 +4226,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4233,14 +4242,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>47</v>
+        <v>247</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4257,7 +4266,7 @@
         <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4273,7 +4282,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4290,7 +4299,7 @@
         <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4306,7 +4315,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4339,7 +4348,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4349,11 +4358,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>137</v>
+        <v>257</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>138</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4365,14 +4374,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4382,14 +4391,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>258</v>
+        <v>140</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4398,14 +4407,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4415,11 +4424,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>261</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4438,7 +4447,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4448,14 +4457,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4464,14 +4473,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4481,14 +4490,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>264</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4497,24 +4506,24 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>266</v>
+        <v>110</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
@@ -4537,13 +4546,13 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
@@ -4554,7 +4563,7 @@
         <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4570,7 +4579,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4580,14 +4589,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>160</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4596,14 +4605,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4613,14 +4622,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>273</v>
+        <v>162</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4636,7 +4645,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4646,14 +4655,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>110</v>
+        <v>276</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4662,14 +4671,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4679,11 +4688,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>113</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4695,14 +4704,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4712,14 +4721,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>94</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>177</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4728,7 +4737,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4745,11 +4754,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4761,14 +4770,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4778,14 +4787,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4794,14 +4803,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4811,14 +4820,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>143</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4834,7 +4843,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4844,11 +4853,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>130</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>20</v>
@@ -4860,14 +4869,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>289</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4877,14 +4886,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>133</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>222</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4900,7 +4909,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>292</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4910,14 +4919,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4933,7 +4942,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4943,11 +4952,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>40</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>41</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>20</v>
@@ -4959,14 +4968,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4976,14 +4985,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4992,14 +5001,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5009,14 +5018,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>297</v>
+        <v>171</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5032,7 +5041,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5049,7 +5058,7 @@
         <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5065,24 +5074,24 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>23</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>74</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5091,14 +5100,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5108,11 +5117,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5124,14 +5133,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>305</v>
+        <v>43</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5141,11 +5150,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>266</v>
+        <v>14</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>267</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5157,14 +5166,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5174,14 +5183,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>14</v>
+        <v>269</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5197,7 +5206,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>123</v>
+        <v>310</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5207,14 +5216,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5223,14 +5232,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>311</v>
+        <v>126</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5240,14 +5249,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>312</v>
+        <v>174</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5256,14 +5265,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>43</v>
+        <v>314</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5277,10 +5286,10 @@
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>81</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>316</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5296,7 +5305,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5310,10 +5319,10 @@
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5322,14 +5331,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5339,14 +5348,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>320</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>321</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5372,14 +5381,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>177</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>324</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5388,14 +5397,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5405,14 +5414,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>14</v>
+        <v>318</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5421,14 +5430,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5438,11 +5447,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>235</v>
+        <v>14</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>325</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5454,14 +5463,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>327</v>
+        <v>79</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5471,11 +5480,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>328</v>
+        <v>238</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5487,14 +5496,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5527,7 +5536,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5537,11 +5546,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>14</v>
+        <v>334</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>15</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5553,14 +5562,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5574,10 +5583,10 @@
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>308</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5586,14 +5595,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5607,10 +5616,10 @@
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>172</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5619,14 +5628,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>337</v>
+        <v>43</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5636,14 +5645,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>338</v>
+        <v>14</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>339</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5652,14 +5661,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5669,11 +5678,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5685,14 +5694,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5702,11 +5711,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>14</v>
+        <v>315</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>15</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5718,14 +5727,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>26</v>
+        <v>346</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5735,14 +5744,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>345</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5751,14 +5760,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5768,14 +5777,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>347</v>
+        <v>140</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>111</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5784,14 +5793,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5801,49 +5810,82 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>332</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
-      <c r="P132" s="13">
-        <v>6847.1599999999999</v>
-      </c>
-      <c r="Q132" s="13"/>
-    </row>
-    <row r="133" ht="16.5" customHeight="1">
-      <c t="s" r="A133" s="14">
-        <v>349</v>
-      </c>
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c t="s" r="G133" s="15">
-        <v>350</v>
-      </c>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="16"/>
-      <c t="s" r="K133" s="17">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
         <v>351</v>
       </c>
-      <c r="L133" s="17"/>
-      <c r="M133" s="17"/>
-      <c r="N133" s="17"/>
-      <c r="O133" s="17"/>
-      <c r="P133" s="17"/>
-      <c r="Q133" s="17"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>126</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>86</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>334</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>335</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="P133" s="13">
+        <v>6907.2200000000003</v>
+      </c>
+      <c r="Q133" s="13"/>
+    </row>
+    <row r="134" ht="16.5" customHeight="1">
+      <c t="s" r="A134" s="14">
+        <v>352</v>
+      </c>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c t="s" r="G134" s="15">
+        <v>353</v>
+      </c>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c t="s" r="K134" s="17">
+        <v>354</v>
+      </c>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="637">
+  <mergeCells count="642">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6477,10 +6519,15 @@
     <mergeCell ref="H131:K131"/>
     <mergeCell ref="L131:M131"/>
     <mergeCell ref="N131:O131"/>
-    <mergeCell ref="P132:Q132"/>
-    <mergeCell ref="A133:F133"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="K133:Q133"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="K134:Q134"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -98,12 +98,36 @@
     <t>30.6900</t>
   </si>
   <si>
+    <t xml:space="preserve">ANTODINE20    6 AMP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>BECOZYME I.M./I.V. 12 AMP</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>120.00</t>
   </si>
   <si>
@@ -269,9 +293,6 @@
     <t>COXORIZET CAPS</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>249.00</t>
   </si>
   <si>
@@ -332,21 +353,30 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>11.8800</t>
+    <t>0:3</t>
   </si>
   <si>
     <t>DIASMECT 3GM 10 SACHETS</t>
   </si>
   <si>
-    <t>1:3</t>
-  </si>
-  <si>
     <t>21.00</t>
   </si>
   <si>
     <t>2.1000</t>
   </si>
   <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -359,12 +389,6 @@
     <t>DOLCYL 2MG 30 TAB.</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -572,9 +596,6 @@
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
     <t>12.8700</t>
   </si>
   <si>
@@ -668,9 +689,6 @@
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>31.0000</t>
   </si>
   <si>
@@ -800,12 +818,6 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -941,27 +953,24 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>17:0</t>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 5سم</t>
   </si>
   <si>
     <t>45.0000</t>
   </si>
   <si>
-    <t>بلاستر مترسيلك 5سم</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>45:0</t>
+    <t>44:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
-    <t>100.0000</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -989,6 +998,9 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>8:0</t>
+  </si>
+  <si>
     <t>سلاكه اسنان بلاستك</t>
   </si>
   <si>
@@ -1028,12 +1040,15 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
     <t>كريم فاتيكا 190 مل</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>65.00</t>
   </si>
   <si>
@@ -1055,7 +1070,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>48.0000</t>
+    <t>96.0000</t>
   </si>
   <si>
     <t>معجون سيجنال 50 مل</t>
@@ -1067,7 +1082,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 11:23 PM</t>
+    <t>Thursday, 29 May, 2025 11:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1840,13 +1855,13 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1857,7 +1872,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1866,14 +1881,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1883,14 +1898,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1899,14 +1914,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1916,14 +1931,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1932,14 +1947,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1949,14 +1964,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1965,14 +1980,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1982,14 +1997,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1998,14 +2013,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2015,11 +2030,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>20</v>
@@ -2031,14 +2046,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2048,11 +2063,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -2064,14 +2079,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2081,14 +2096,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2097,14 +2112,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2114,14 +2129,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2130,14 +2145,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2147,14 +2162,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2163,14 +2178,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2180,14 +2195,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2196,14 +2211,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2213,14 +2228,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2229,14 +2244,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2246,11 +2261,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -2262,14 +2277,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2279,14 +2294,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2295,14 +2310,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2312,11 +2327,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -2328,14 +2343,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2345,11 +2360,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2361,14 +2376,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2378,14 +2393,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2394,31 +2409,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2427,14 +2442,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2444,14 +2459,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2460,28 +2475,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -2493,14 +2508,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2517,7 +2532,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2533,7 +2548,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2543,14 +2558,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2559,14 +2574,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2583,7 +2598,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2599,7 +2614,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2609,14 +2624,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2625,14 +2640,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2642,14 +2657,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2658,14 +2673,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2675,14 +2690,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>114</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2698,7 +2713,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2741,14 +2756,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2764,7 +2779,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2797,7 +2812,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2807,14 +2822,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2823,14 +2838,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2840,14 +2855,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2856,14 +2871,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2873,14 +2888,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2889,14 +2904,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2906,11 +2921,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2922,14 +2937,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2939,14 +2954,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2955,14 +2970,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2972,14 +2987,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2988,14 +3003,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3005,14 +3020,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3021,14 +3036,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3038,11 +3053,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -3054,14 +3069,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3071,14 +3086,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3087,14 +3102,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3104,11 +3119,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -3120,14 +3135,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3137,14 +3152,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3153,14 +3168,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3170,11 +3185,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -3186,14 +3201,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3203,14 +3218,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3219,14 +3234,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3236,14 +3251,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3252,14 +3267,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3269,11 +3284,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3285,14 +3300,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3302,11 +3317,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3318,14 +3333,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3335,14 +3350,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3351,14 +3366,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3368,7 +3383,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3391,7 +3406,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3424,7 +3439,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3434,14 +3449,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3450,14 +3465,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3467,14 +3482,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3483,14 +3498,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3500,11 +3515,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3516,14 +3531,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3533,11 +3548,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>36</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3549,14 +3564,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3566,14 +3581,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>18</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3582,14 +3597,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3599,14 +3614,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>14</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3615,14 +3630,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3632,7 +3647,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>120</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3655,7 +3670,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3665,14 +3680,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3681,14 +3696,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3698,11 +3713,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3714,14 +3729,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3731,14 +3746,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3747,14 +3762,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3764,14 +3779,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3780,14 +3795,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3797,11 +3812,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3813,14 +3828,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3830,11 +3845,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3846,14 +3861,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>215</v>
+        <v>84</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3863,14 +3878,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3879,14 +3894,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3896,14 +3911,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>58</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3912,14 +3927,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3929,11 +3944,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>140</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3945,14 +3960,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3962,14 +3977,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3978,14 +3993,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3995,11 +4010,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>141</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4018,21 +4033,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>228</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4044,14 +4059,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>119</v>
+        <v>229</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4061,14 +4076,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4077,14 +4092,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4094,14 +4109,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4110,20 +4125,20 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>64</v>
+        <v>234</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -4131,10 +4146,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4143,14 +4158,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4160,14 +4175,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4176,14 +4191,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>241</v>
+        <v>51</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4193,14 +4208,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4209,14 +4224,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4226,14 +4241,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4242,14 +4257,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>247</v>
+        <v>33</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4259,11 +4274,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4275,14 +4290,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>47</v>
+        <v>247</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4292,14 +4307,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>251</v>
+        <v>198</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4308,14 +4323,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4325,11 +4340,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4341,14 +4356,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>43</v>
+        <v>253</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4358,14 +4373,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4374,14 +4389,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4391,14 +4406,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>140</v>
+        <v>257</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>141</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4407,14 +4422,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4424,14 +4439,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>69</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4447,7 +4462,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4464,7 +4479,7 @@
         <v>264</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4480,7 +4495,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4490,14 +4505,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>264</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4513,7 +4528,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4523,14 +4538,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>110</v>
+        <v>267</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4546,24 +4561,24 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>31</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4572,14 +4587,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4589,14 +4604,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>272</v>
+        <v>120</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>273</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4605,14 +4620,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4622,11 +4637,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>163</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4638,31 +4653,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4671,14 +4686,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4688,14 +4703,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>113</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4704,14 +4719,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4721,11 +4736,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4737,14 +4752,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4754,11 +4769,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>97</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>180</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4787,14 +4802,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4810,7 +4825,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4820,11 +4835,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>143</v>
+        <v>273</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4836,14 +4851,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4853,11 +4868,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>104</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>20</v>
@@ -4869,7 +4884,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4886,11 +4901,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>20</v>
@@ -4902,14 +4917,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>292</v>
+        <v>84</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4919,14 +4934,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>293</v>
+        <v>151</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>225</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4935,14 +4950,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4952,11 +4967,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>20</v>
@@ -4968,14 +4983,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4985,11 +5000,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>41</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>20</v>
@@ -5001,14 +5016,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>296</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5018,14 +5033,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>171</v>
+        <v>297</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>137</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>76</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5034,14 +5049,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5051,14 +5066,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5067,14 +5082,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5084,14 +5099,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>303</v>
+        <v>48</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5100,31 +5115,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5133,28 +5148,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>14</v>
+        <v>304</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>15</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5166,31 +5181,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>308</v>
+        <v>134</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5206,24 +5221,24 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>310</v>
+        <v>26</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>311</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5232,28 +5247,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>311</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5265,31 +5280,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>315</v>
+        <v>273</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>316</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5298,31 +5313,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>43</v>
+        <v>314</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>318</v>
+        <v>14</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>319</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5331,28 +5346,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>321</v>
+        <v>182</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>77</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5364,31 +5379,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>323</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>324</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5397,31 +5412,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>322</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5430,28 +5445,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>14</v>
+        <v>324</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5463,31 +5478,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>238</v>
+        <v>297</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>327</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5496,31 +5511,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>330</v>
+        <v>51</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>332</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>329</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5529,28 +5544,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>334</v>
+        <v>14</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>335</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5562,28 +5577,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>15</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5595,31 +5610,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>50</v>
+        <v>334</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>14</v>
+        <v>335</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5628,31 +5643,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>14</v>
+        <v>338</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>175</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5661,28 +5676,28 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>340</v>
+        <v>16</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>341</v>
+        <v>14</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>342</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5694,31 +5709,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>308</v>
+        <v>58</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>315</v>
+        <v>14</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5727,20 +5742,20 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>346</v>
+        <v>51</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
@@ -5748,10 +5763,10 @@
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>15</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>344</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5760,31 +5775,31 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>26</v>
+        <v>329</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>140</v>
+        <v>346</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5793,28 +5808,28 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>114</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5826,66 +5841,165 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>334</v>
+        <v>14</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>335</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
-      <c r="P133" s="13">
-        <v>6907.2200000000003</v>
-      </c>
-      <c r="Q133" s="13"/>
-    </row>
-    <row r="134" ht="16.5" customHeight="1">
-      <c t="s" r="A134" s="14">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
         <v>352</v>
       </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c t="s" r="G134" s="15">
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>51</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>30</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>148</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
         <v>353</v>
       </c>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="16"/>
-      <c t="s" r="K134" s="17">
+      <c t="s" r="Q133" s="12">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
         <v>354</v>
       </c>
-      <c r="L134" s="17"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="17"/>
-      <c r="O134" s="17"/>
-      <c r="P134" s="17"/>
-      <c r="Q134" s="17"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>87</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>30</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>355</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>356</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>134</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>30</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>338</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>339</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="P136" s="13">
+        <v>7115.5600000000004</v>
+      </c>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="14">
+        <v>357</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c t="s" r="G137" s="15">
+        <v>358</v>
+      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c t="s" r="K137" s="17">
+        <v>359</v>
+      </c>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="642">
+  <mergeCells count="657">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6524,10 +6638,25 @@
     <mergeCell ref="H132:K132"/>
     <mergeCell ref="L132:M132"/>
     <mergeCell ref="N132:O132"/>
-    <mergeCell ref="P133:Q133"/>
-    <mergeCell ref="A134:F134"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="K134:Q134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="K137:Q137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -749,6 +749,15 @@
     <t>3.9600</t>
   </si>
   <si>
+    <t xml:space="preserve">PURE CLINC  HAIR OIL</t>
+  </si>
+  <si>
+    <t>115.00</t>
+  </si>
+  <si>
+    <t>115.0000</t>
+  </si>
+  <si>
     <t>QUIBRON T/SR 300MG 100 TAB</t>
   </si>
   <si>
@@ -1022,6 +1031,9 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -1073,6 +1085,12 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>معجون سيجنال 25 مل</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
@@ -1082,7 +1100,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 11:26 PM</t>
+    <t>Thursday, 29 May, 2025 11:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4297,17 +4315,17 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>247</v>
+        <v>51</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4330,7 +4348,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>51</v>
+        <v>250</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4340,7 +4358,7 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>198</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4363,7 +4381,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>253</v>
+        <v>51</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4373,14 +4391,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4389,14 +4407,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>55</v>
+        <v>256</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4413,7 +4431,7 @@
         <v>258</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4429,7 +4447,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4446,7 +4464,7 @@
         <v>261</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4462,7 +4480,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4495,7 +4513,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4505,11 +4523,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>148</v>
+        <v>266</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>149</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4521,14 +4539,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4538,14 +4556,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>267</v>
+        <v>148</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4554,14 +4572,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4571,11 +4589,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>31</v>
+        <v>270</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4587,14 +4605,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4604,14 +4622,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>32</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4620,14 +4638,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4637,14 +4655,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4653,24 +4671,24 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>116</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -4693,13 +4711,13 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
@@ -4710,7 +4728,7 @@
         <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4726,7 +4744,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4736,14 +4754,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>170</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>171</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4752,14 +4770,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4769,14 +4787,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4792,7 +4810,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4802,14 +4820,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>123</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4818,14 +4836,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4835,11 +4853,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>273</v>
+        <v>123</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4851,14 +4869,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4868,14 +4886,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>104</v>
+        <v>276</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>188</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4884,7 +4902,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4901,11 +4919,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>20</v>
@@ -4917,14 +4935,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4934,14 +4952,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>151</v>
+        <v>39</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4950,14 +4968,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4967,14 +4985,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>291</v>
+        <v>151</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4990,7 +5008,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5000,11 +5018,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>141</v>
+        <v>294</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>20</v>
@@ -5016,14 +5034,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>296</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5033,14 +5051,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>297</v>
+        <v>141</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>231</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5056,7 +5074,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>299</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5066,14 +5084,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>300</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5089,7 +5107,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5099,11 +5117,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>48</v>
+        <v>302</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>49</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>20</v>
@@ -5115,14 +5133,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5132,14 +5150,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>179</v>
+        <v>48</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5148,14 +5166,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5165,14 +5183,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>304</v>
+        <v>179</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>305</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5188,7 +5206,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5205,7 +5223,7 @@
         <v>308</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5221,24 +5239,24 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>23</v>
+        <v>310</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>82</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5247,14 +5265,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5264,11 +5282,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5280,14 +5298,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>312</v>
+        <v>51</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5297,11 +5315,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>274</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5313,14 +5331,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5330,14 +5348,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>14</v>
+        <v>276</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>82</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5346,14 +5364,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>134</v>
+        <v>317</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5363,14 +5381,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>316</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5379,14 +5397,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>318</v>
+        <v>134</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5396,14 +5414,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>319</v>
+        <v>182</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>40</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5419,7 +5437,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>51</v>
+        <v>321</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5429,14 +5447,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>322</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5452,7 +5470,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5466,10 +5484,10 @@
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>325</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5478,14 +5496,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5495,14 +5513,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>326</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>327</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5528,14 +5546,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>149</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5544,14 +5562,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5561,14 +5579,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>14</v>
+        <v>324</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>332</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5577,14 +5595,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5594,11 +5612,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>244</v>
+        <v>14</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>332</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5610,14 +5628,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>334</v>
+        <v>87</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5627,11 +5645,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>335</v>
+        <v>244</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5643,14 +5661,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>87</v>
+        <v>337</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5683,7 +5701,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>16</v>
+        <v>315</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5693,11 +5711,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>14</v>
+        <v>276</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>15</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5716,7 +5734,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5726,14 +5744,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>14</v>
+        <v>342</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5742,14 +5760,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5763,10 +5781,10 @@
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>343</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>344</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5782,7 +5800,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>329</v>
+        <v>58</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5792,14 +5810,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>346</v>
+        <v>14</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5808,14 +5826,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>312</v>
+        <v>51</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5825,14 +5843,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>319</v>
+        <v>14</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>16</v>
+        <v>348</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5841,14 +5859,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5858,11 +5876,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>14</v>
+        <v>350</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>15</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5881,7 +5899,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>51</v>
+        <v>315</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5891,14 +5909,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>148</v>
+        <v>322</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
         <v>353</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5914,7 +5932,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>87</v>
+        <v>355</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5924,11 +5942,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>355</v>
+        <v>14</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -5947,7 +5965,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5957,49 +5975,148 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>338</v>
+        <v>148</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
-      <c r="P136" s="13">
-        <v>7115.5600000000004</v>
-      </c>
-      <c r="Q136" s="13"/>
-    </row>
-    <row r="137" ht="16.5" customHeight="1">
-      <c t="s" r="A137" s="14">
-        <v>357</v>
-      </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c t="s" r="G137" s="15">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
         <v>358</v>
       </c>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="16"/>
-      <c t="s" r="K137" s="17">
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
         <v>359</v>
       </c>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="17"/>
-      <c r="Q137" s="17"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>30</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>322</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>353</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>360</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>87</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>30</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>361</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
+        <v>362</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>134</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>30</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>342</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
+        <v>343</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="P139" s="13">
+        <v>7280.5600000000004</v>
+      </c>
+      <c r="Q139" s="13"/>
+    </row>
+    <row r="140" ht="16.5" customHeight="1">
+      <c t="s" r="A140" s="14">
+        <v>363</v>
+      </c>
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c t="s" r="G140" s="15">
+        <v>364</v>
+      </c>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="16"/>
+      <c t="s" r="K140" s="17">
+        <v>365</v>
+      </c>
+      <c r="L140" s="17"/>
+      <c r="M140" s="17"/>
+      <c r="N140" s="17"/>
+      <c r="O140" s="17"/>
+      <c r="P140" s="17"/>
+      <c r="Q140" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="657">
+  <mergeCells count="672">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6653,10 +6770,25 @@
     <mergeCell ref="H135:K135"/>
     <mergeCell ref="L135:M135"/>
     <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P136:Q136"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="K137:Q137"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="P139:Q139"/>
+    <mergeCell ref="A140:F140"/>
+    <mergeCell ref="G140:I140"/>
+    <mergeCell ref="K140:Q140"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -206,519 +206,528 @@
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
-    <t>18:0</t>
+    <t>17:0</t>
   </si>
   <si>
     <t>31.00</t>
   </si>
   <si>
+    <t>93.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>CLOZAPEX 25MG 50 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>COBAL F 500/200MCG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>CONCOR COR 2.5MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
+    <t>COXORIZET CAPS</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
+    <t>82.1700</t>
+  </si>
+  <si>
+    <t>CURAM 1GM 12 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>182.00</t>
+  </si>
+  <si>
+    <t>60.0600</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DEVAROL-S 200000 I.U AMPOULE</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DIASMECT 3GM 10 SACHETS</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>2.1000</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOLCYL 2MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>207.8400</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>386.00</t>
+  </si>
+  <si>
+    <t>127.3800</t>
+  </si>
+  <si>
+    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
+    <t>ESMOPUMP 40 MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>172.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>138.0000</t>
+  </si>
+  <si>
+    <t>EXEEDOGAST 40 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>FLAVICEF 100MG/5ML PD. FOR ORAL SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>303.00</t>
+  </si>
+  <si>
+    <t>99.9900</t>
+  </si>
+  <si>
+    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>KETOFAN 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>14.8500</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>MICONAZ 2% CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>MOODAPEX 50MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>43.5600</t>
+  </si>
+  <si>
+    <t>MUCO S.R 75MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>MUCOBRAVE 600 MG 10 SACHETS</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>NACTALIA 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>230.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
+    <t>NEXIUM 40MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>488.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>NORGESIC 20 TAB.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>128.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
     <t>62.0000</t>
   </si>
   <si>
-    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>42.9000</t>
-  </si>
-  <si>
-    <t>CLOZAPEX 25MG 50 TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>COBAL F 500/200MCG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>CONCOR COR 2.5MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
-  </si>
-  <si>
-    <t>188.00</t>
-  </si>
-  <si>
-    <t>188.0000</t>
-  </si>
-  <si>
-    <t>COXORIZET CAPS</t>
-  </si>
-  <si>
-    <t>249.00</t>
-  </si>
-  <si>
-    <t>82.1700</t>
-  </si>
-  <si>
-    <t>CURAM 1GM 12 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>182.00</t>
-  </si>
-  <si>
-    <t>60.0600</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>DEVAROL-S 200000 I.U AMPOULE</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DIASMECT 3GM 10 SACHETS</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>2.1000</t>
-  </si>
-  <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOLCYL 2MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>207.8400</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>386.00</t>
-  </si>
-  <si>
-    <t>127.3800</t>
-  </si>
-  <si>
-    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>104.00</t>
-  </si>
-  <si>
-    <t>104.0000</t>
-  </si>
-  <si>
-    <t>ESMOPUMP 40 MG 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>172.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>ESMORAP 40MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>138.0000</t>
-  </si>
-  <si>
-    <t>EXEEDOGAST 40 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>168.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>FLAVICEF 100MG/5ML PD. FOR ORAL SUSP. 30ML</t>
-  </si>
-  <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>303.00</t>
-  </si>
-  <si>
-    <t>99.9900</t>
-  </si>
-  <si>
-    <t>GYNOMONIX 80 MG 3 VAG. OVULES</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>HYACARENOL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>KETOFAN 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>14.8500</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>109.00</t>
-  </si>
-  <si>
-    <t>109.0000</t>
-  </si>
-  <si>
-    <t>MICONAZ 2% CREAM 20 GM</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>MOODAPEX 50MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>43.5600</t>
-  </si>
-  <si>
-    <t>MUCO S.R 75MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>64.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>MUCOBRAVE 600 MG 10 SACHETS</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>MUCOSTA 100MG 20 TAB</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>NACTALIA 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>230.00</t>
-  </si>
-  <si>
-    <t>230.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>10.5600</t>
-  </si>
-  <si>
-    <t>NEXIUM 40MG 28 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>488.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>NORGESIC 20 TAB.</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>128.00</t>
-  </si>
-  <si>
-    <t>128.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>ORACURE ORAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>7:3</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>PANADOL ACUTE HEAD COLD</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -1031,6 +1040,15 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>شرايح شمعيه COCO</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -1100,7 +1118,7 @@
     <t>معجون كلوز اب اخضر الكبير</t>
   </si>
   <si>
-    <t>Thursday, 29 May, 2025 11:35 PM</t>
+    <t>Thursday, 29 May, 2025 11:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2220,7 +2238,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2229,7 +2247,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2246,11 +2264,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -2262,14 +2280,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2279,11 +2297,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -2295,7 +2313,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2312,11 +2330,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>33</v>
@@ -2328,7 +2346,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2345,11 +2363,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -2361,7 +2379,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2382,7 +2400,7 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2394,14 +2412,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2411,7 +2429,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -2566,7 +2584,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2698,7 +2716,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2712,7 +2730,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>114</v>
@@ -2797,7 +2815,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2830,7 +2848,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2896,7 +2914,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2906,11 +2924,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2922,14 +2940,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2939,14 +2957,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2955,14 +2973,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2972,14 +2990,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2988,14 +3006,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3005,14 +3023,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3021,14 +3039,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3038,11 +3056,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -3054,14 +3072,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3071,11 +3089,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -3087,14 +3105,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3104,14 +3122,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3120,14 +3138,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3137,14 +3155,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3153,14 +3171,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3170,14 +3188,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>60</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3186,14 +3204,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3203,14 +3221,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3219,14 +3237,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3236,11 +3254,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -3252,14 +3270,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3269,11 +3287,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -3285,14 +3303,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3302,11 +3320,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3318,14 +3336,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3335,14 +3353,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3351,7 +3369,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3368,11 +3386,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3384,14 +3402,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3401,14 +3419,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3417,14 +3435,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3434,14 +3452,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3450,14 +3468,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3467,14 +3485,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3483,14 +3501,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3500,14 +3518,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3523,7 +3541,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3533,14 +3551,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3549,14 +3567,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3566,14 +3584,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>36</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3589,7 +3607,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3599,11 +3617,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>120</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3615,14 +3633,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3632,14 +3650,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3648,14 +3666,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3665,14 +3683,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3681,14 +3699,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3698,14 +3716,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3714,14 +3732,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3731,11 +3749,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>120</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3747,14 +3765,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3764,11 +3782,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>18</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3780,14 +3798,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3797,14 +3815,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3813,14 +3831,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3830,11 +3848,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3846,7 +3864,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3863,11 +3881,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3879,14 +3897,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3896,11 +3914,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3912,14 +3930,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3929,14 +3947,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3945,14 +3963,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3962,14 +3980,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3978,14 +3996,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>222</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3995,14 +4013,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4011,14 +4029,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4028,11 +4046,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>66</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4044,14 +4062,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>224</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4061,11 +4079,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>148</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4077,14 +4095,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>229</v>
+        <v>119</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4094,14 +4112,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>66</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4110,14 +4128,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4127,11 +4145,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4143,31 +4161,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>67</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4176,14 +4194,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4193,14 +4211,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>150</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4209,31 +4227,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>51</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>73</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>85</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4242,14 +4260,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4259,14 +4277,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4275,14 +4293,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4292,11 +4310,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>74</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4308,31 +4326,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4341,14 +4359,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4358,14 +4376,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4374,7 +4392,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4387,15 +4405,15 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4407,14 +4425,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4424,14 +4442,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>257</v>
+        <v>200</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4440,14 +4458,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4457,14 +4475,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4473,14 +4491,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>259</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4490,14 +4508,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4506,14 +4524,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4523,14 +4541,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4539,14 +4557,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4556,11 +4574,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>148</v>
+        <v>266</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>149</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4572,14 +4590,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4589,14 +4607,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4612,7 +4630,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4622,14 +4640,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4645,7 +4663,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4655,14 +4673,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>120</v>
+        <v>273</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4671,14 +4689,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4688,14 +4706,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4711,24 +4729,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>120</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4737,14 +4755,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4754,14 +4772,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>116</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4770,28 +4788,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>170</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>171</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4803,14 +4821,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4820,11 +4838,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4836,14 +4854,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4853,11 +4871,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4869,14 +4887,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4886,14 +4904,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4919,14 +4937,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>188</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4935,14 +4953,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4952,14 +4970,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>39</v>
+        <v>279</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4975,7 +4993,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4985,14 +5003,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>292</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5001,14 +5019,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5018,11 +5036,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>294</v>
+        <v>39</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>20</v>
@@ -5034,14 +5052,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5051,14 +5069,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5067,14 +5085,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>299</v>
+        <v>73</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5084,14 +5102,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>231</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5100,7 +5118,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5117,11 +5135,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>302</v>
+        <v>143</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>20</v>
@@ -5133,14 +5151,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>33</v>
+        <v>302</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5150,14 +5168,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>48</v>
+        <v>303</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>49</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5166,7 +5184,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5183,14 +5201,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>179</v>
+        <v>305</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>145</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5199,14 +5217,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5216,14 +5234,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>307</v>
+        <v>48</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>308</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5232,14 +5250,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5249,14 +5267,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>310</v>
+        <v>181</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>311</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>26</v>
+        <v>68</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5265,28 +5283,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>23</v>
+        <v>310</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>82</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5298,31 +5316,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>15</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5331,14 +5349,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>315</v>
+        <v>26</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5348,11 +5366,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>276</v>
+        <v>23</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>277</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5371,7 +5389,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>317</v>
+        <v>51</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5385,10 +5403,10 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5397,14 +5415,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>134</v>
+        <v>318</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5414,11 +5432,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>182</v>
+        <v>279</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5430,14 +5448,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5447,14 +5465,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>322</v>
+        <v>14</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5463,14 +5481,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5480,14 +5498,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>324</v>
+        <v>184</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>89</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>325</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5496,14 +5514,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>134</v>
+        <v>324</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5513,14 +5531,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5529,7 +5547,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5546,14 +5564,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>329</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5562,14 +5580,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5579,14 +5597,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>332</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5595,14 +5613,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5612,14 +5630,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>14</v>
+        <v>303</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>15</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>333</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5635,7 +5653,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5645,14 +5663,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>244</v>
+        <v>327</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q125" s="12">
         <v>335</v>
-      </c>
-      <c t="s" r="Q125" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5668,7 +5686,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>337</v>
+        <v>26</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5678,11 +5696,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>338</v>
+        <v>14</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>339</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5694,14 +5712,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>315</v>
+        <v>87</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5711,11 +5729,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>277</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5727,14 +5745,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>87</v>
+        <v>340</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5744,11 +5762,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5760,14 +5778,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5777,11 +5795,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>14</v>
+        <v>344</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>15</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5793,14 +5811,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>58</v>
+        <v>335</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5810,14 +5828,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>14</v>
+        <v>279</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>319</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>84</v>
+        <v>26</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5826,14 +5844,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5843,14 +5861,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>14</v>
+        <v>348</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>348</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5859,14 +5877,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>332</v>
+        <v>16</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5876,11 +5894,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>350</v>
+        <v>14</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>351</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5892,14 +5910,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>315</v>
+        <v>58</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5909,14 +5927,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>322</v>
+        <v>14</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5925,14 +5943,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>355</v>
+        <v>51</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5946,10 +5964,10 @@
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>15</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>16</v>
+        <v>354</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5958,14 +5976,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>51</v>
+        <v>335</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5975,14 +5993,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>148</v>
+        <v>356</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
         <v>357</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -5998,7 +6016,7 @@
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>359</v>
+        <v>318</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6008,11 +6026,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>16</v>
@@ -6031,7 +6049,7 @@
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>87</v>
+        <v>361</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6041,11 +6059,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>361</v>
+        <v>14</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>16</v>
@@ -6064,7 +6082,7 @@
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6074,49 +6092,148 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>342</v>
+        <v>150</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
-      <c r="P139" s="13">
-        <v>7280.5600000000004</v>
-      </c>
-      <c r="Q139" s="13"/>
-    </row>
-    <row r="140" ht="16.5" customHeight="1">
-      <c t="s" r="A140" s="14">
-        <v>363</v>
-      </c>
-      <c r="B140" s="14"/>
-      <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
-      <c t="s" r="G140" s="15">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
         <v>364</v>
       </c>
-      <c r="H140" s="15"/>
-      <c r="I140" s="15"/>
-      <c r="J140" s="16"/>
-      <c t="s" r="K140" s="17">
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
         <v>365</v>
       </c>
-      <c r="L140" s="17"/>
-      <c r="M140" s="17"/>
-      <c r="N140" s="17"/>
-      <c r="O140" s="17"/>
-      <c r="P140" s="17"/>
-      <c r="Q140" s="17"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>30</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>325</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
+        <v>359</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
+        <v>366</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>87</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>30</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>367</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c t="s" r="C141" s="8">
+        <v>368</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>136</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c t="s" r="L141" s="10">
+        <v>30</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c t="s" r="N141" s="8">
+        <v>348</v>
+      </c>
+      <c r="O141" s="8"/>
+      <c t="s" r="P141" s="11">
+        <v>349</v>
+      </c>
+      <c t="s" r="Q141" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="P142" s="13">
+        <v>7478.5600000000004</v>
+      </c>
+      <c r="Q142" s="13"/>
+    </row>
+    <row r="143" ht="16.5" customHeight="1">
+      <c t="s" r="A143" s="14">
+        <v>369</v>
+      </c>
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c t="s" r="G143" s="15">
+        <v>370</v>
+      </c>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="16"/>
+      <c t="s" r="K143" s="17">
+        <v>371</v>
+      </c>
+      <c r="L143" s="17"/>
+      <c r="M143" s="17"/>
+      <c r="N143" s="17"/>
+      <c r="O143" s="17"/>
+      <c r="P143" s="17"/>
+      <c r="Q143" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="672">
+  <mergeCells count="687">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6785,10 +6902,25 @@
     <mergeCell ref="H138:K138"/>
     <mergeCell ref="L138:M138"/>
     <mergeCell ref="N138:O138"/>
-    <mergeCell ref="P139:Q139"/>
-    <mergeCell ref="A140:F140"/>
-    <mergeCell ref="G140:I140"/>
-    <mergeCell ref="K140:Q140"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="P142:Q142"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="G143:I143"/>
+    <mergeCell ref="K143:Q143"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-29_00-00.xlsx
+++ b/DaySale_2025-05-29_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG 30 TAB.</t>
   </si>
   <si>
@@ -71,9 +86,6 @@
     <t>36.6300</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -182,6 +194,15 @@
     <t>19.2000</t>
   </si>
   <si>
+    <t>CEFIDIME 1 GM VIAL I.M./I.V.</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -323,9 +344,6 @@
     <t>5:2</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>23.7600</t>
   </si>
   <si>
@@ -479,9 +497,6 @@
     <t>FLAGYL 500MG 20 TAB.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>17.0000</t>
   </si>
   <si>
@@ -509,10 +524,7 @@
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>17.8200</t>
+    <t>3:1</t>
   </si>
   <si>
     <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
@@ -719,9 +731,6 @@
     <t>PANADOL ACUTE HEAD COLD</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>62.00</t>
   </si>
   <si>
@@ -872,9 +881,6 @@
     <t>106.00</t>
   </si>
   <si>
-    <t>53.0000</t>
-  </si>
-  <si>
     <t>TICANASE 0.05% NASAL SPRAY 12 GM</t>
   </si>
   <si>
@@ -983,12 +989,18 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>44:0</t>
+    <t>43:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -1007,51 +1019,51 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>34:0</t>
+    <t>35:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>سلاكه اسنان بلاستك</t>
+  </si>
+  <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>47:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
